--- a/Ontologia_Ambientes.xlsx
+++ b/Ontologia_Ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3233DD-FE0D-489D-8DCB-275CF909D707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A27E7-51CE-4AF2-B08A-C443BC0750CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="558">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -1151,18 +1151,6 @@
     <t>Qualquer outro espaço</t>
   </si>
   <si>
-    <t>Setores do edifício orientados ao Norte</t>
-  </si>
-  <si>
-    <t>Setores do edifício orientados ao Oeste</t>
-  </si>
-  <si>
-    <t>Setores do edifício orientados ao Sul</t>
-  </si>
-  <si>
-    <t>Setores do edifício orientados ao Leste</t>
-  </si>
-  <si>
     <t>Setor de direção</t>
   </si>
   <si>
@@ -1644,6 +1632,93 @@
   </si>
   <si>
     <t>Secretarias</t>
+  </si>
+  <si>
+    <t>SetorInterno</t>
+  </si>
+  <si>
+    <t>SetorCobertura</t>
+  </si>
+  <si>
+    <t>Setores internos do edifício sem contato com as fachadas</t>
+  </si>
+  <si>
+    <t>Setores do edifício na cobertura considerada a quinta fachada</t>
+  </si>
+  <si>
+    <t>Setores do edifício sobre a fachada e orientados ao Norte</t>
+  </si>
+  <si>
+    <t>Setores do edifício sobre a fachada e orientados ao Oeste</t>
+  </si>
+  <si>
+    <t>Setores do edifício sobre a fachada e orientados ao Sul</t>
+  </si>
+  <si>
+    <t>Setores do edifício sobre a fachada e orientados ao Leste</t>
+  </si>
+  <si>
+    <t>orientação</t>
+  </si>
+  <si>
+    <t>norte</t>
+  </si>
+  <si>
+    <t>sul</t>
+  </si>
+  <si>
+    <t>leste</t>
+  </si>
+  <si>
+    <t>oeste</t>
+  </si>
+  <si>
+    <t>O ambiente orientado ao Norte</t>
+  </si>
+  <si>
+    <t>O ambiente orientado ao Sul</t>
+  </si>
+  <si>
+    <t>O ambiente orientado ao Leste</t>
+  </si>
+  <si>
+    <t>O ambiente orientado ao Oeste</t>
+  </si>
+  <si>
+    <t>A orietação NSLW do ambiente 1 = true,  0 = false</t>
+  </si>
+  <si>
+    <t>interno</t>
+  </si>
+  <si>
+    <t>cobertura</t>
+  </si>
+  <si>
+    <t>O ambiente na quinta fachada (cobertura)</t>
+  </si>
+  <si>
+    <t>O ambiente interno</t>
+  </si>
+  <si>
+    <t>fofu:ao_leste exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>fofu:ao_interno exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>fofu:ao_cobertura exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>fofu:ao_sul exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>fofu:ao_oeste exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>fofu:ao_norte exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>ao_interno</t>
   </si>
 </sst>
 </file>
@@ -1992,7 +2067,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="630">
+  <dxfs count="707">
     <dxf>
       <font>
         <b val="0"/>
@@ -2157,27 +2232,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2210,13 +2264,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2341,27 +2388,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2394,13 +2420,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2433,34 +2452,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2534,14 +2525,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2702,6 +2685,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -2885,27 +2876,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2938,13 +2908,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3101,6 +3064,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3133,6 +3117,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3165,6 +3156,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3238,6 +3257,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -3366,14 +3393,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -3525,27 +3544,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3578,7 +3576,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -3617,6 +3629,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3681,27 +3700,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -3734,7 +3732,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -3773,6 +3785,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4218,13 +4237,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4257,6 +4269,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4353,6 +4372,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4385,21 +4425,7 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -4438,13 +4464,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4509,27 +4528,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4562,13 +4560,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4738,6 +4729,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -4761,27 +4760,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4814,13 +4792,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4853,27 +4824,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4906,13 +4856,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4945,8 +4888,28 @@
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -5081,27 +5044,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5134,7 +5076,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -5173,35 +5129,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
@@ -5273,6 +5200,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5305,6 +5253,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5369,13 +5324,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5449,14 +5397,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -5512,6 +5452,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5544,6 +5505,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5576,6 +5544,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5608,6 +5597,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5640,21 +5636,8 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -5693,49 +5676,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5832,6 +5772,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5864,6 +5825,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5904,6 +5872,42 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -6056,6 +6060,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6097,14 +6108,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -6137,6 +6140,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -6233,14 +6244,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -6264,27 +6267,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6317,13 +6299,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6356,6 +6331,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6388,6 +6384,49 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6421,30 +6460,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -6541,14 +6556,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -6741,22 +6748,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -6789,7 +6780,707 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -7306,10 +7997,10 @@
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -14255,21 +14946,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="629" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="706" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="705" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="704" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="625" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14279,11 +14970,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14295,9 +14986,9 @@
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.5546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="2" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" customWidth="1"/>
@@ -14339,19 +15030,19 @@
         <v>234</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14365,10 +15056,10 @@
         <v>357</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>224</v>
@@ -14377,29 +15068,29 @@
         <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>208</v>
+        <v>556</v>
       </c>
       <c r="K2" s="11" t="str">
         <f>_xlfn.CONCAT("ZON-",A2)</f>
         <v>ZON-2</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N2" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>368</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14413,10 +15104,10 @@
         <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>227</v>
@@ -14431,23 +15122,23 @@
         <v>208</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>208</v>
+        <v>555</v>
       </c>
       <c r="K3" s="11" t="str">
-        <f t="shared" ref="K3:K22" si="0">_xlfn.CONCAT("ZON-",A3)</f>
+        <f t="shared" ref="K3:K24" si="0">_xlfn.CONCAT("ZON-",A3)</f>
         <v>ZON-3</v>
       </c>
       <c r="L3" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N3" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O3" s="41" t="s">
-        <v>369</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14461,10 +15152,10 @@
         <v>357</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>226</v>
@@ -14479,23 +15170,23 @@
         <v>208</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>208</v>
+        <v>554</v>
       </c>
       <c r="K4" s="11" t="str">
         <f t="shared" si="0"/>
         <v>ZON-4</v>
       </c>
       <c r="L4" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>370</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14509,10 +15200,10 @@
         <v>357</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>225</v>
@@ -14527,23 +15218,23 @@
         <v>208</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>208</v>
+        <v>551</v>
       </c>
       <c r="K5" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K6" si="1">_xlfn.CONCAT("ZON-",A5)</f>
         <v>ZON-5</v>
       </c>
       <c r="L5" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>371</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14557,14 +15248,14 @@
         <v>357</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>336</v>
-      </c>
       <c r="G6" s="11" t="s">
         <v>208</v>
       </c>
@@ -14575,23 +15266,23 @@
         <v>208</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>208</v>
+        <v>553</v>
       </c>
       <c r="K6" s="11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ZON-6</v>
       </c>
       <c r="L6" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O6" s="41" t="s">
-        <v>372</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14605,13 +15296,13 @@
         <v>357</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>208</v>
@@ -14623,23 +15314,23 @@
         <v>208</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>208</v>
+        <v>552</v>
       </c>
       <c r="K7" s="11" t="str">
         <f t="shared" si="0"/>
         <v>ZON-7</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O7" s="41" t="s">
-        <v>373</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14653,13 +15344,13 @@
         <v>357</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>532</v>
+        <v>336</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>208</v>
@@ -14678,16 +15369,16 @@
         <v>ZON-8</v>
       </c>
       <c r="L8" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N8" s="38" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O8" s="41" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14701,13 +15392,13 @@
         <v>357</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>228</v>
+        <v>526</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>274</v>
+        <v>527</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>208</v>
@@ -14726,16 +15417,16 @@
         <v>ZON-9</v>
       </c>
       <c r="L9" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M9" s="38" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="N9" s="38" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="O9" s="41" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14749,13 +15440,13 @@
         <v>357</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>228</v>
+        <v>526</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>332</v>
+        <v>528</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>208</v>
@@ -14774,16 +15465,16 @@
         <v>ZON-10</v>
       </c>
       <c r="L10" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M10" s="38" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="N10" s="38" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14797,13 +15488,13 @@
         <v>357</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>331</v>
+        <v>274</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>208</v>
@@ -14822,16 +15513,16 @@
         <v>ZON-11</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N11" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14845,13 +15536,13 @@
         <v>357</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>208</v>
@@ -14870,16 +15561,16 @@
         <v>ZON-12</v>
       </c>
       <c r="L12" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14893,13 +15584,13 @@
         <v>357</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>529</v>
+        <v>228</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>208</v>
@@ -14918,16 +15609,16 @@
         <v>ZON-13</v>
       </c>
       <c r="L13" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N13" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O13" s="41" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14941,13 +15632,13 @@
         <v>357</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>529</v>
+        <v>228</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>208</v>
@@ -14966,16 +15657,16 @@
         <v>ZON-14</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -14989,13 +15680,13 @@
         <v>357</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>208</v>
@@ -15014,16 +15705,16 @@
         <v>ZON-15</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15037,13 +15728,13 @@
         <v>357</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>208</v>
@@ -15062,16 +15753,16 @@
         <v>ZON-16</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M16" s="38" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="N16" s="38" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15085,13 +15776,13 @@
         <v>357</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>208</v>
@@ -15110,16 +15801,16 @@
         <v>ZON-17</v>
       </c>
       <c r="L17" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15133,13 +15824,13 @@
         <v>357</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>229</v>
+        <v>525</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>208</v>
@@ -15158,16 +15849,16 @@
         <v>ZON-18</v>
       </c>
       <c r="L18" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15181,13 +15872,13 @@
         <v>357</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>229</v>
+        <v>525</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>208</v>
@@ -15206,16 +15897,16 @@
         <v>ZON-19</v>
       </c>
       <c r="L19" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="N19" s="38" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="O19" s="41" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15229,13 +15920,13 @@
         <v>357</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>513</v>
+        <v>329</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>208</v>
@@ -15254,16 +15945,16 @@
         <v>ZON-20</v>
       </c>
       <c r="L20" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O20" s="41" t="s">
-        <v>474</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15277,13 +15968,13 @@
         <v>357</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>208</v>
@@ -15302,16 +15993,16 @@
         <v>ZON-21</v>
       </c>
       <c r="L21" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N21" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O21" s="41" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15325,13 +16016,13 @@
         <v>357</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>229</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>340</v>
+        <v>509</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>208</v>
@@ -15350,16 +16041,16 @@
         <v>ZON-22</v>
       </c>
       <c r="L22" s="38" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N22" s="38" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>385</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15373,19 +16064,19 @@
         <v>357</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>341</v>
+        <v>510</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>416</v>
+        <v>208</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>208</v>
@@ -15394,20 +16085,20 @@
         <v>208</v>
       </c>
       <c r="K23" s="11" t="str">
-        <f>_xlfn.CONCAT("AMB-",A23)</f>
-        <v>AMB-23</v>
+        <f t="shared" si="0"/>
+        <v>ZON-23</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M23" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N23" s="38" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="O23" s="41" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15421,13 +16112,13 @@
         <v>357</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>463</v>
+        <v>229</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>264</v>
+        <v>340</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>208</v>
@@ -15442,20 +16133,20 @@
         <v>208</v>
       </c>
       <c r="K24" s="11" t="str">
-        <f t="shared" ref="K24:K47" si="1">_xlfn.CONCAT("AMB-",A24)</f>
-        <v>AMB-24</v>
+        <f t="shared" si="0"/>
+        <v>ZON-24</v>
       </c>
       <c r="L24" s="38" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M24" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N24" s="38" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="O24" s="41" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15469,19 +16160,19 @@
         <v>357</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>257</v>
+        <v>341</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>208</v>
+        <v>412</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>208</v>
@@ -15490,20 +16181,20 @@
         <v>208</v>
       </c>
       <c r="K25" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("AMB-",A25)</f>
         <v>AMB-25</v>
       </c>
       <c r="L25" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N25" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="O25" s="42" t="s">
-        <v>387</v>
+      <c r="O25" s="41" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15517,13 +16208,13 @@
         <v>357</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>208</v>
@@ -15538,20 +16229,20 @@
         <v>208</v>
       </c>
       <c r="K26" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K26:K49" si="2">_xlfn.CONCAT("AMB-",A26)</f>
         <v>AMB-26</v>
       </c>
       <c r="L26" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N26" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="42" t="s">
-        <v>389</v>
+      <c r="O26" s="41" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15565,13 +16256,13 @@
         <v>357</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>208</v>
@@ -15586,20 +16277,20 @@
         <v>208</v>
       </c>
       <c r="K27" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-27</v>
       </c>
       <c r="L27" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M27" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N27" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15613,13 +16304,13 @@
         <v>357</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>208</v>
@@ -15634,20 +16325,20 @@
         <v>208</v>
       </c>
       <c r="K28" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-28</v>
       </c>
       <c r="L28" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M28" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N28" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O28" s="42" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15661,13 +16352,13 @@
         <v>357</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>208</v>
@@ -15682,20 +16373,20 @@
         <v>208</v>
       </c>
       <c r="K29" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-29</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M29" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N29" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15709,13 +16400,13 @@
         <v>357</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>208</v>
@@ -15730,20 +16421,20 @@
         <v>208</v>
       </c>
       <c r="K30" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-30</v>
       </c>
       <c r="L30" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M30" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N30" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O30" s="42" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15757,13 +16448,13 @@
         <v>357</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>208</v>
@@ -15778,20 +16469,20 @@
         <v>208</v>
       </c>
       <c r="K31" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-31</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M31" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N31" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O31" s="42" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15805,13 +16496,13 @@
         <v>357</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>208</v>
@@ -15826,20 +16517,20 @@
         <v>208</v>
       </c>
       <c r="K32" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-32</v>
       </c>
       <c r="L32" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M32" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N32" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O32" s="42" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15853,13 +16544,13 @@
         <v>357</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>208</v>
@@ -15874,20 +16565,20 @@
         <v>208</v>
       </c>
       <c r="K33" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-33</v>
       </c>
       <c r="L33" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M33" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N33" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O33" s="42" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15901,13 +16592,13 @@
         <v>357</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>208</v>
@@ -15922,20 +16613,20 @@
         <v>208</v>
       </c>
       <c r="K34" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-34</v>
       </c>
       <c r="L34" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M34" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N34" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O34" s="42" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15949,13 +16640,13 @@
         <v>357</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>208</v>
@@ -15970,20 +16661,20 @@
         <v>208</v>
       </c>
       <c r="K35" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-35</v>
       </c>
       <c r="L35" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M35" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N35" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O35" s="42" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15997,13 +16688,13 @@
         <v>357</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>208</v>
@@ -16018,20 +16709,20 @@
         <v>208</v>
       </c>
       <c r="K36" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-36</v>
       </c>
       <c r="L36" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M36" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N36" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O36" s="42" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16045,13 +16736,13 @@
         <v>357</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>208</v>
@@ -16066,20 +16757,20 @@
         <v>208</v>
       </c>
       <c r="K37" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-37</v>
       </c>
       <c r="L37" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M37" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N37" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O37" s="42" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16093,13 +16784,13 @@
         <v>357</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>208</v>
@@ -16114,20 +16805,20 @@
         <v>208</v>
       </c>
       <c r="K38" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-38</v>
       </c>
       <c r="L38" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M38" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N38" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O38" s="42" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16141,13 +16832,13 @@
         <v>357</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>208</v>
@@ -16162,20 +16853,20 @@
         <v>208</v>
       </c>
       <c r="K39" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-39</v>
       </c>
       <c r="L39" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M39" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N39" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O39" s="42" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16189,13 +16880,13 @@
         <v>357</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>208</v>
@@ -16210,20 +16901,20 @@
         <v>208</v>
       </c>
       <c r="K40" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-40</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M40" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N40" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O40" s="42" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16237,13 +16928,13 @@
         <v>357</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>208</v>
@@ -16258,20 +16949,20 @@
         <v>208</v>
       </c>
       <c r="K41" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-41</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M41" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N41" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16285,13 +16976,13 @@
         <v>357</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>208</v>
@@ -16306,20 +16997,20 @@
         <v>208</v>
       </c>
       <c r="K42" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-42</v>
       </c>
       <c r="L42" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M42" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N42" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16333,13 +17024,13 @@
         <v>357</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>208</v>
@@ -16354,20 +17045,20 @@
         <v>208</v>
       </c>
       <c r="K43" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-43</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M43" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N43" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16381,13 +17072,13 @@
         <v>357</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>208</v>
@@ -16402,20 +17093,20 @@
         <v>208</v>
       </c>
       <c r="K44" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-44</v>
       </c>
       <c r="L44" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M44" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N44" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16429,13 +17120,13 @@
         <v>357</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>208</v>
@@ -16450,20 +17141,20 @@
         <v>208</v>
       </c>
       <c r="K45" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-45</v>
       </c>
       <c r="L45" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M45" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N45" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16477,13 +17168,13 @@
         <v>357</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>208</v>
@@ -16498,20 +17189,20 @@
         <v>208</v>
       </c>
       <c r="K46" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-46</v>
       </c>
       <c r="L46" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M46" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N46" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O46" s="42" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16525,13 +17216,13 @@
         <v>357</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>204</v>
+        <v>464</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>208</v>
@@ -16546,20 +17237,20 @@
         <v>208</v>
       </c>
       <c r="K47" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>AMB-47</v>
       </c>
       <c r="L47" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M47" s="38" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N47" s="38" t="s">
         <v>256</v>
       </c>
       <c r="O47" s="42" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16570,16 +17261,16 @@
         <v>236</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>208</v>
@@ -16594,20 +17285,20 @@
         <v>208</v>
       </c>
       <c r="K48" s="11" t="str">
-        <f>_xlfn.CONCAT("NUC-",A48)</f>
-        <v>NUC-48</v>
+        <f t="shared" si="2"/>
+        <v>AMB-48</v>
       </c>
       <c r="L48" s="38" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="M48" s="38" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="N48" s="38" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="O48" s="42" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16618,16 +17309,16 @@
         <v>236</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>525</v>
+        <v>204</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>208</v>
@@ -16642,20 +17333,20 @@
         <v>208</v>
       </c>
       <c r="K49" s="11" t="str">
-        <f t="shared" ref="K49:K57" si="2">_xlfn.CONCAT("NUC-",A49)</f>
-        <v>NUC-49</v>
+        <f t="shared" si="2"/>
+        <v>AMB-49</v>
       </c>
       <c r="L49" s="38" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="M49" s="38" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="N49" s="38" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="O49" s="42" t="s">
-        <v>411</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16669,13 +17360,13 @@
         <v>356</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>421</v>
+        <v>285</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>208</v>
@@ -16690,20 +17381,20 @@
         <v>208</v>
       </c>
       <c r="K50" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f>_xlfn.CONCAT("NUC-",A50)</f>
         <v>NUC-50</v>
       </c>
       <c r="L50" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M50" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N50" s="38" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O50" s="42" t="s">
-        <v>476</v>
+        <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16717,13 +17408,13 @@
         <v>356</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>420</v>
+        <v>286</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>208</v>
@@ -16738,20 +17429,20 @@
         <v>208</v>
       </c>
       <c r="K51" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K51:K59" si="3">_xlfn.CONCAT("NUC-",A51)</f>
         <v>NUC-51</v>
       </c>
       <c r="L51" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M51" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N51" s="38" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O51" s="42" t="s">
-        <v>477</v>
+        <v>407</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16765,13 +17456,13 @@
         <v>356</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>208</v>
@@ -16786,20 +17477,20 @@
         <v>208</v>
       </c>
       <c r="K52" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-52</v>
       </c>
       <c r="L52" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M52" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N52" s="38" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O52" s="42" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16813,13 +17504,13 @@
         <v>356</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>208</v>
@@ -16834,20 +17525,20 @@
         <v>208</v>
       </c>
       <c r="K53" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-53</v>
       </c>
       <c r="L53" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M53" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N53" s="38" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="O53" s="42" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16861,13 +17552,13 @@
         <v>356</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>208</v>
@@ -16882,20 +17573,20 @@
         <v>208</v>
       </c>
       <c r="K54" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-54</v>
       </c>
       <c r="L54" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M54" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N54" s="38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O54" s="42" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16909,14 +17600,14 @@
         <v>356</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="G55" s="11" t="s">
         <v>208</v>
       </c>
@@ -16930,20 +17621,20 @@
         <v>208</v>
       </c>
       <c r="K55" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-55</v>
       </c>
       <c r="L55" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M55" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N55" s="38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O55" s="42" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16957,13 +17648,13 @@
         <v>356</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>208</v>
@@ -16978,20 +17669,20 @@
         <v>208</v>
       </c>
       <c r="K56" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-56</v>
       </c>
       <c r="L56" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M56" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N56" s="38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O56" s="42" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17005,13 +17696,13 @@
         <v>356</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>208</v>
@@ -17026,20 +17717,20 @@
         <v>208</v>
       </c>
       <c r="K57" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>NUC-57</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M57" s="38" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="N57" s="38" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="O57" s="42" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17050,16 +17741,16 @@
         <v>236</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>235</v>
+        <v>415</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>15</v>
+        <v>422</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>208</v>
@@ -17074,20 +17765,20 @@
         <v>208</v>
       </c>
       <c r="K58" s="11" t="str">
-        <f>_xlfn.CONCAT("BIM-",A58)</f>
-        <v>BIM-58</v>
-      </c>
-      <c r="L58" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="M58" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="N58" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="O58" s="37" t="s">
-        <v>504</v>
+        <f t="shared" si="3"/>
+        <v>NUC-58</v>
+      </c>
+      <c r="L58" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="M58" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="O58" s="42" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17098,16 +17789,16 @@
         <v>236</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>235</v>
+        <v>415</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>153</v>
+        <v>423</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>208</v>
@@ -17122,20 +17813,20 @@
         <v>208</v>
       </c>
       <c r="K59" s="11" t="str">
-        <f t="shared" ref="K59:K70" si="3">_xlfn.CONCAT("BIM-",A59)</f>
-        <v>BIM-59</v>
-      </c>
-      <c r="L59" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="M59" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="N59" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="O59" s="37" t="s">
-        <v>505</v>
+        <f t="shared" si="3"/>
+        <v>NUC-59</v>
+      </c>
+      <c r="L59" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="M59" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="N59" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="O59" s="42" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17152,10 +17843,10 @@
         <v>235</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="G60" s="11" t="s">
         <v>208</v>
@@ -17170,20 +17861,20 @@
         <v>208</v>
       </c>
       <c r="K60" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f>_xlfn.CONCAT("BIM-",A60)</f>
         <v>BIM-60</v>
       </c>
       <c r="L60" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M60" s="37" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N60" s="37" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O60" s="37" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17200,10 +17891,10 @@
         <v>235</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="G61" s="11" t="s">
         <v>208</v>
@@ -17218,20 +17909,20 @@
         <v>208</v>
       </c>
       <c r="K61" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K61:K72" si="4">_xlfn.CONCAT("BIM-",A61)</f>
         <v>BIM-61</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M61" s="37" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="N61" s="37" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="O61" s="37" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17245,13 +17936,13 @@
         <v>278</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G62" s="11" t="s">
         <v>208</v>
@@ -17266,20 +17957,20 @@
         <v>208</v>
       </c>
       <c r="K62" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-62</v>
       </c>
       <c r="L62" s="37" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M62" s="37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="N62" s="37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="O62" s="37" t="s">
-        <v>152</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17293,13 +17984,13 @@
         <v>278</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>208</v>
@@ -17314,20 +18005,20 @@
         <v>208</v>
       </c>
       <c r="K63" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-63</v>
       </c>
       <c r="L63" s="37" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="M63" s="37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="N63" s="37" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="O63" s="37" t="s">
-        <v>154</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17344,38 +18035,38 @@
         <v>279</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="F64" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I64" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J64" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>208</v>
       </c>
       <c r="K64" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-64</v>
       </c>
       <c r="L64" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M64" s="37" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N64" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="O64" s="39" t="s">
-        <v>11</v>
+        <v>505</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17392,38 +18083,38 @@
         <v>279</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F65" s="36" t="s">
-        <v>361</v>
-      </c>
-      <c r="G65" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I65" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J65" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" s="11" t="s">
         <v>208</v>
       </c>
       <c r="K65" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-65</v>
       </c>
       <c r="L65" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M65" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="O65" s="38" t="s">
-        <v>367</v>
+        <v>505</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17440,10 +18131,10 @@
         <v>279</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F66" s="36" t="s">
-        <v>362</v>
+        <v>518</v>
+      </c>
+      <c r="F66" s="33" t="s">
+        <v>11</v>
       </c>
       <c r="G66" s="34" t="s">
         <v>208</v>
@@ -17458,23 +18149,23 @@
         <v>208</v>
       </c>
       <c r="K66" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-66</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="N66" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="O66" s="41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+      <c r="O66" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="27">
         <v>67</v>
       </c>
@@ -17488,10 +18179,10 @@
         <v>279</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>208</v>
@@ -17506,23 +18197,23 @@
         <v>208</v>
       </c>
       <c r="K67" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-67</v>
       </c>
       <c r="L67" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N67" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="O67" s="43" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+      <c r="O67" s="38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="27">
         <v>68</v>
       </c>
@@ -17536,10 +18227,10 @@
         <v>279</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="G68" s="34" t="s">
         <v>208</v>
@@ -17554,20 +18245,20 @@
         <v>208</v>
       </c>
       <c r="K68" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-68</v>
       </c>
       <c r="L68" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="M68" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="N68" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="O68" s="41" t="s">
         <v>508</v>
-      </c>
-      <c r="M68" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="N68" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="O68" s="43" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
@@ -17584,10 +18275,10 @@
         <v>279</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>208</v>
@@ -17602,20 +18293,20 @@
         <v>208</v>
       </c>
       <c r="K69" s="11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>BIM-69</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M69" s="37" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="O69" s="43" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
@@ -17632,287 +18323,383 @@
         <v>279</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="F70" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="F70" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I70" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J70" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K70" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM-70</v>
+      </c>
+      <c r="L70" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="M70" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="O70" s="43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="27">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F71" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J71" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K71" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM-71</v>
+      </c>
+      <c r="L71" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="M71" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="N71" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="O71" s="43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="27">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F72" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G70" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="I70" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="J70" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="K70" s="11" t="str">
-        <f t="shared" si="3"/>
-        <v>BIM-70</v>
-      </c>
-      <c r="L70" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="M70" s="37" t="s">
-        <v>510</v>
-      </c>
-      <c r="N70" s="37" t="s">
-        <v>511</v>
-      </c>
-      <c r="O70" s="43" t="s">
+      <c r="G72" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K72" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>BIM-72</v>
+      </c>
+      <c r="L72" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="M72" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="N72" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="O72" s="43" t="s">
         <v>366</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E63">
-    <sortCondition ref="E1:E63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E65">
+    <sortCondition ref="E1:E65"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B70:C70 G64:J70 B64:D64 D65:D70 J57:J62 A71:XFD1048576 P1:XFD1 P50:XFD70 O50:O57 A1:K1 F53:J56 F57:I57 B53:E57 L18:N57 O18:XFD49 B2:XFD2 B49:J52 A2:A70 L3:XFD17 B3:K48 K49:K70">
-    <cfRule type="containsText" dxfId="3" priority="423" operator="containsText" text="_">
+  <conditionalFormatting sqref="B72:C72 G66:J72 B66:D66 D67:D72 J59:J64 A73:XFD1048576 P1:XFD1 P52:XFD72 O52:O59 A1:K1 F55:J58 F59:I59 B55:E59 L20:N59 O20:XFD51 B51:J54 K51:K72 B8:K50 B2:XFD2 L7:XFD19 A2:A72 K3:XFD6 K7 B3:J7">
+    <cfRule type="containsText" dxfId="701" priority="423" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="424" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="700" priority="424" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="699" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="426" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G59:I59 B59:D59">
-    <cfRule type="containsText" dxfId="624" priority="85" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="86" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B59)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B59)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="88" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60:I60 B60:D60">
-    <cfRule type="containsText" dxfId="620" priority="81" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="82" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B60)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B60)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="84" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58:I58 B58:E58 E59:E70">
-    <cfRule type="containsText" dxfId="616" priority="77" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="78" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B58)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B58)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="80" operator="equal">
+  <conditionalFormatting sqref="G61:I61 B61:D61">
+    <cfRule type="containsText" dxfId="697" priority="85" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="696" priority="86" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B61)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="695" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B61)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="694" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:I62 B62:D62">
-    <cfRule type="containsText" dxfId="612" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="693" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="692" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="691" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B62)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62">
-    <cfRule type="cellIs" dxfId="608" priority="72" operator="equal">
-      <formula>"Vnulo"</formula>
+  <conditionalFormatting sqref="G60:I60 B60:E60 E61:E72">
+    <cfRule type="containsText" dxfId="689" priority="77" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="688" priority="78" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B60)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="687" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B60)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="686" priority="80" operator="equal">
+      <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G63:J63 B63:D63">
-    <cfRule type="containsText" dxfId="607" priority="67" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="68" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B63)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B63)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="70" operator="equal">
+  <conditionalFormatting sqref="G64:I64 B64:D64">
+    <cfRule type="containsText" dxfId="685" priority="73" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="684" priority="74" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="683" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B64)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="682" priority="76" operator="equal">
       <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F63">
-    <cfRule type="cellIs" dxfId="603" priority="66" operator="equal">
-      <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="602" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="72" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B61:D61">
-    <cfRule type="containsText" dxfId="601" priority="59" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="60" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B61)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="62" operator="equal">
+  <conditionalFormatting sqref="G65:J65 B65:D65">
+    <cfRule type="containsText" dxfId="680" priority="67" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="679" priority="68" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="678" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B65)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="677" priority="70" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G61:I61">
-    <cfRule type="containsText" dxfId="597" priority="55" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="56" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G61)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G61)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="58" operator="equal">
+  <conditionalFormatting sqref="F65">
+    <cfRule type="cellIs" dxfId="676" priority="66" operator="equal">
+      <formula>"Vnulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F66">
+    <cfRule type="cellIs" dxfId="675" priority="64" operator="equal">
+      <formula>"Vnulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B63:D63">
+    <cfRule type="containsText" dxfId="674" priority="59" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="673" priority="60" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="672" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B63)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="671" priority="62" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:C65">
-    <cfRule type="containsText" dxfId="593" priority="42" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="43" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B65)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="45" operator="equal">
+  <conditionalFormatting sqref="G63:I63">
+    <cfRule type="containsText" dxfId="670" priority="55" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="669" priority="56" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G63)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="668" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G63)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="58" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:C66">
-    <cfRule type="containsText" dxfId="589" priority="38" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="39" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B66)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B66)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="41" operator="equal">
+  <conditionalFormatting sqref="B67:C67">
+    <cfRule type="containsText" dxfId="666" priority="42" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="665" priority="43" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="664" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B67)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="45" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68:C68">
-    <cfRule type="containsText" dxfId="585" priority="34" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="662" priority="38" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="35" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="661" priority="39" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="660" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="41" operator="equal">
       <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B70:C70">
+    <cfRule type="containsText" dxfId="658" priority="34" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="657" priority="35" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B70)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="656" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B70)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="655" priority="37" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B71:C71">
+    <cfRule type="containsText" dxfId="654" priority="29" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="653" priority="30" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="652" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B71)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="651" priority="32" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72">
+    <cfRule type="cellIs" dxfId="650" priority="27" operator="equal">
+      <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69:C69">
-    <cfRule type="containsText" dxfId="581" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="649" priority="23" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="648" priority="24" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="647" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B69)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="32" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="cellIs" dxfId="577" priority="27" operator="equal">
-      <formula>"Vnulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B67:C67">
-    <cfRule type="containsText" dxfId="576" priority="23" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="24" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B67)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B67)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="26" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:O1">
-    <cfRule type="containsText" dxfId="572" priority="12" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="645" priority="12" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="13" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="644" priority="13" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="643" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",L1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="15" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O65:O66">
-    <cfRule type="containsText" dxfId="568" priority="4" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",O65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="5" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",O65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="6" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O65)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="7" operator="equal">
+  <conditionalFormatting sqref="O67:O68">
+    <cfRule type="containsText" dxfId="641" priority="4" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",O67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="640" priority="5" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",O67)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="639" priority="6" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O67)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="638" priority="7" operator="equal">
       <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O62">
-    <cfRule type="cellIs" dxfId="564" priority="3" operator="equal">
-      <formula>"Vnulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O63">
-    <cfRule type="cellIs" dxfId="563" priority="2" operator="equal">
-      <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="562" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="3" operator="equal">
+      <formula>"Vnulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O65">
+    <cfRule type="cellIs" dxfId="636" priority="2" operator="equal">
+      <formula>"Vnulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O66">
+    <cfRule type="cellIs" dxfId="635" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17962,25 +18749,25 @@
         <v>355</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>513</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="K1" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>517</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17988,13 +18775,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>208</v>
@@ -18027,30 +18814,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:XFD2 A2:D2 A3:XFD1048576 A1:XFD1">
-    <cfRule type="containsText" dxfId="561" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="634" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="633" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="632" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:M2">
-    <cfRule type="containsText" dxfId="557" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="630" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="629" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="628" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18063,9 +18850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:Q613"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18126,7 +18913,7 @@
         <v>214</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18176,7 +18963,7 @@
         <v>208</v>
       </c>
       <c r="O2" s="38" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18206,7 +18993,7 @@
         <v>208</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>208</v>
@@ -18224,7 +19011,7 @@
         <v>215</v>
       </c>
       <c r="O3" s="38" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18254,7 +19041,7 @@
         <v>208</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>208</v>
@@ -18272,7 +19059,7 @@
         <v>215</v>
       </c>
       <c r="O4" s="38" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18302,7 +19089,7 @@
         <v>208</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>208</v>
@@ -18320,7 +19107,7 @@
         <v>215</v>
       </c>
       <c r="O5" s="38" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18350,7 +19137,7 @@
         <v>208</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>208</v>
@@ -18368,7 +19155,7 @@
         <v>215</v>
       </c>
       <c r="O6" s="38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18398,7 +19185,7 @@
         <v>208</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>208</v>
@@ -18416,7 +19203,7 @@
         <v>215</v>
       </c>
       <c r="O7" s="38" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18446,7 +19233,7 @@
         <v>208</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>208</v>
@@ -18464,7 +19251,7 @@
         <v>215</v>
       </c>
       <c r="O8" s="38" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18494,7 +19281,7 @@
         <v>208</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>208</v>
@@ -18512,7 +19299,7 @@
         <v>215</v>
       </c>
       <c r="O9" s="38" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18542,7 +19329,7 @@
         <v>208</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>208</v>
@@ -18560,7 +19347,7 @@
         <v>215</v>
       </c>
       <c r="O10" s="38" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18590,7 +19377,7 @@
         <v>208</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>208</v>
@@ -18608,7 +19395,7 @@
         <v>215</v>
       </c>
       <c r="O11" s="38" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18658,7 +19445,7 @@
         <v>208</v>
       </c>
       <c r="O12" s="38" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18666,7 +19453,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>304</v>
@@ -18688,7 +19475,7 @@
         <v>208</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>208</v>
@@ -18706,7 +19493,7 @@
         <v>347</v>
       </c>
       <c r="O13" s="38" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18714,7 +19501,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>343</v>
@@ -18736,7 +19523,7 @@
         <v>208</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>208</v>
@@ -18754,7 +19541,7 @@
         <v>347</v>
       </c>
       <c r="O14" s="38" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18762,7 +19549,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>317</v>
@@ -18784,7 +19571,7 @@
         <v>208</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>208</v>
@@ -18802,7 +19589,7 @@
         <v>347</v>
       </c>
       <c r="O15" s="38" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18852,7 +19639,7 @@
         <v>208</v>
       </c>
       <c r="O16" s="38" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18860,7 +19647,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>291</v>
@@ -18882,7 +19669,7 @@
         <v>208</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>208</v>
@@ -18900,7 +19687,7 @@
         <v>347</v>
       </c>
       <c r="O17" s="38" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18908,7 +19695,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>344</v>
@@ -18930,7 +19717,7 @@
         <v>208</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>208</v>
@@ -18948,7 +19735,7 @@
         <v>347</v>
       </c>
       <c r="O18" s="38" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -18956,7 +19743,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>292</v>
@@ -18978,7 +19765,7 @@
         <v>208</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>208</v>
@@ -18996,7 +19783,7 @@
         <v>347</v>
       </c>
       <c r="O19" s="38" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19046,7 +19833,7 @@
         <v>208</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19076,7 +19863,7 @@
         <v>208</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>208</v>
@@ -19094,7 +19881,7 @@
         <v>347</v>
       </c>
       <c r="O21" s="38" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19124,7 +19911,7 @@
         <v>208</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>208</v>
@@ -19142,7 +19929,7 @@
         <v>347</v>
       </c>
       <c r="O22" s="38" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19172,7 +19959,7 @@
         <v>208</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>208</v>
@@ -19190,7 +19977,7 @@
         <v>347</v>
       </c>
       <c r="O23" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19240,7 +20027,7 @@
         <v>208</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19271,7 +20058,7 @@
         <v>ser_articulado</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>208</v>
@@ -19289,7 +20076,7 @@
         <v>323</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19320,7 +20107,7 @@
         <v>ser_articulador</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>208</v>
@@ -19338,7 +20125,7 @@
         <v>323</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19368,7 +20155,7 @@
         <v>208</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>208</v>
@@ -19386,7 +20173,7 @@
         <v>323</v>
       </c>
       <c r="O27" s="38" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19416,7 +20203,7 @@
         <v>208</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>208</v>
@@ -19434,7 +20221,7 @@
         <v>323</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19484,7 +20271,7 @@
         <v>208</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19492,10 +20279,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D30" s="18" t="str">
         <f>_xlfn.CONCAT("está_em_",C30)</f>
@@ -19514,7 +20301,7 @@
         <v>208</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>208</v>
@@ -19532,7 +20319,7 @@
         <v>215</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19540,10 +20327,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D31" s="18" t="str">
         <f>_xlfn.CONCAT("está_em_",C31)</f>
@@ -19562,7 +20349,7 @@
         <v>208</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>208</v>
@@ -19580,7 +20367,7 @@
         <v>215</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19630,7 +20417,7 @@
         <v>208</v>
       </c>
       <c r="O32" s="38" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19638,10 +20425,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D33" s="18" t="str">
         <f>_xlfn.CONCAT("para_",C33)</f>
@@ -19660,7 +20447,7 @@
         <v>208</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>208</v>
@@ -19678,7 +20465,7 @@
         <v>215</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19686,10 +20473,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D34" s="18" t="str">
         <f>_xlfn.CONCAT("está_em_",C34)</f>
@@ -19708,7 +20495,7 @@
         <v>208</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>208</v>
@@ -19726,82 +20513,346 @@
         <v>215</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="O35" s="32"/>
-    </row>
-    <row r="36" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-    </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-    </row>
-    <row r="38" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-    </row>
-    <row r="39" spans="1:17" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-    </row>
-    <row r="40" spans="1:17" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-    </row>
-    <row r="41" spans="1:17" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
+        <v>434</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>35</v>
+      </c>
+      <c r="B35" s="17" t="str">
+        <f>B2</f>
+        <v>ambientes</v>
+      </c>
+      <c r="C35" s="17" t="str">
+        <f>B36</f>
+        <v>orientação</v>
+      </c>
+      <c r="D35" s="20" t="str">
+        <f>C35</f>
+        <v>orientação</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="I35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="O35" s="38" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>36</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>538</v>
+      </c>
+      <c r="D36" s="18" t="str">
+        <f>_xlfn.CONCAT("ao_",C36)</f>
+        <v>ao_norte</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" s="38" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>37</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>539</v>
+      </c>
+      <c r="D37" s="18" t="str">
+        <f t="shared" ref="D37:D39" si="3">_xlfn.CONCAT("ao_",C37)</f>
+        <v>ao_sul</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O37" s="38" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>38</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>540</v>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ao_leste</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K38" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N38" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O38" s="38" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>39</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>541</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>ao_oeste</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M39" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O39" s="38" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>40</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D40" s="18" t="str">
+        <f t="shared" ref="D40:D41" si="4">_xlfn.CONCAT("ao_",C40)</f>
+        <v>ao_interno</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M40" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O40" s="38" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>41</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f t="shared" si="4"/>
+        <v>ao_cobertura</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="I41" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="K41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="N41" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" s="38" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="42" spans="1:17" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
@@ -22140,1912 +23191,2183 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A614:B1048576">
-    <cfRule type="containsText" dxfId="553" priority="1466" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="626" priority="1640" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A614)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="1467" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="625" priority="1641" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A614)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="1468" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="624" priority="1642" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A614)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="1469" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="1643" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A614:B1048576 D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="containsText" dxfId="549" priority="1465" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="622" priority="1639" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2 G2:H12 A1:B1 F25:G28 D1:H1 C1:C2 C12:C13 G24:I24 I12:M12 I1:M2 I20:M20 J7:K11 L3:M11 J21:M28 P1:XFD2 G16:M16 B17:H19 J17:M19 P17:XFD18 C15:C20 J13:M15 P13:XFD15 N1:N19 B13:H15 O2:O34 A2:A34">
-    <cfRule type="containsText" dxfId="548" priority="1461" operator="containsText" text="_">
+  <conditionalFormatting sqref="B2 G2:H12 A1:B1 F25:G28 D1:H1 C1:C2 C12:C13 G24:I24 I12:M12 I1:M2 I20:M20 J7:K11 L3:M11 J21:M28 P1:XFD2 G16:M16 B17:H19 J17:M19 P17:XFD18 C15:C20 J13:M15 P13:XFD15 N1:N19 B13:H15 O2:O41 A2:A41">
+    <cfRule type="containsText" dxfId="3" priority="1635" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="1462" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="2" priority="1636" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="1463" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1" priority="1637" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="545" priority="1464" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1638" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="cellIs" dxfId="544" priority="1459" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1633" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="1460" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="620" priority="1634" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 N1:N19 C14">
-    <cfRule type="containsText" dxfId="542" priority="1458" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="619" priority="1632" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11 D2:F2">
-    <cfRule type="containsText" dxfId="541" priority="1449" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="618" priority="1623" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="1450" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="617" priority="1624" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="1451" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="616" priority="1625" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="1452" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="1626" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="containsText" dxfId="537" priority="1427" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="614" priority="1601" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:XFD11 B7:B11 E7:E11">
-    <cfRule type="containsText" dxfId="536" priority="1407" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="613" priority="1581" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="1408" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="612" priority="1582" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="1409" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="611" priority="1583" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="1410" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="1584" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:XFD12">
-    <cfRule type="containsText" dxfId="532" priority="1363" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="609" priority="1537" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="1364" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="608" priority="1538" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="1365" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="607" priority="1539" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="1366" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="1540" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="containsText" dxfId="528" priority="1359" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="605" priority="1533" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="1360" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="604" priority="1534" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="1361" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="603" priority="1535" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="1362" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="1536" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:XFD25">
-    <cfRule type="containsText" dxfId="524" priority="1351" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="601" priority="1525" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="1352" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="600" priority="1526" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="1353" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="599" priority="1527" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="1354" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="1528" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="520" priority="1227" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="597" priority="1401" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12 B16 P19:XFD19">
-    <cfRule type="containsText" dxfId="519" priority="1223" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="596" priority="1397" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="1224" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="595" priority="1398" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="1225" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="594" priority="1399" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="1226" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="1400" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="515" priority="1218" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="592" priority="1392" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="1219" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="591" priority="1393" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="1220" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="590" priority="1394" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="1221" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="1395" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="511" priority="1214" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="588" priority="1388" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="1215" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="587" priority="1389" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="1216" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="586" priority="1390" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="1217" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="1391" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11 P6:XFD6">
-    <cfRule type="containsText" dxfId="507" priority="1190" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="584" priority="1364" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="1191" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="583" priority="1365" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="1192" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="582" priority="1366" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="1193" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="1367" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K6">
-    <cfRule type="containsText" dxfId="503" priority="1186" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="580" priority="1360" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="1187" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="579" priority="1361" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="1188" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="578" priority="1362" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="1363" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="499" priority="1182" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="576" priority="1356" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="1183" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="575" priority="1357" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="1184" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="574" priority="1358" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="1185" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="1359" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:XFD22">
-    <cfRule type="containsText" dxfId="495" priority="1145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="572" priority="1319" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="1146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="571" priority="1320" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="1147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="570" priority="1321" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="1322" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:XFD3 D3:D11 B3:B11">
-    <cfRule type="containsText" dxfId="491" priority="1141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="568" priority="1315" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="1142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="567" priority="1316" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="1143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="566" priority="1317" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="1144" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="1318" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 P4:XFD4">
-    <cfRule type="containsText" dxfId="487" priority="1137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="564" priority="1311" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="1138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="563" priority="1312" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="1139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="562" priority="1313" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="1314" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 P5:XFD5">
-    <cfRule type="containsText" dxfId="483" priority="1133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="560" priority="1307" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="1134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="559" priority="1308" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="1135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="558" priority="1309" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1310" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="479" priority="1129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="556" priority="1303" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="1130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="555" priority="1304" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="1131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="554" priority="1305" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="1132" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1306" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="475" priority="1128" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="552" priority="1302" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="cellIs" dxfId="474" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="1300" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="1127" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="550" priority="1301" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="472" priority="1125" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="549" priority="1299" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="471" priority="1124" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="548" priority="1298" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="470" priority="1123" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="547" priority="1297" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 P26:XFD26 E20:F20">
-    <cfRule type="containsText" dxfId="469" priority="1119" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="546" priority="1293" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="1120" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="545" priority="1294" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="467" priority="1121" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="544" priority="1295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="1122" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="1296" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="465" priority="1117" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="1291" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="1118" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="541" priority="1292" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="463" priority="1116" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="540" priority="1290" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="462" priority="1112" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="539" priority="1286" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="1113" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="538" priority="1287" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="1114" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="537" priority="1288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="1115" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="1289" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:XFD28">
-    <cfRule type="containsText" dxfId="458" priority="1108" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="535" priority="1282" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="1109" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="534" priority="1283" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="1110" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="533" priority="1284" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="1111" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1285" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:XFD27">
-    <cfRule type="containsText" dxfId="454" priority="1104" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="531" priority="1278" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="1105" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="530" priority="1279" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="1106" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="529" priority="1280" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="1107" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="1281" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G23">
-    <cfRule type="containsText" dxfId="450" priority="1096" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="527" priority="1270" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="1097" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="526" priority="1271" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="1098" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="525" priority="1272" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="447" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="1273" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="containsText" dxfId="446" priority="1092" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="523" priority="1266" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="1093" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="522" priority="1267" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="1094" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="521" priority="1268" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="1095" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="1269" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="containsText" dxfId="442" priority="780" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="519" priority="954" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="781" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="518" priority="955" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="782" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="517" priority="956" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="957" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="438" priority="779" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="515" priority="953" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="437" priority="775" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="514" priority="949" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="776" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="513" priority="950" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="777" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="512" priority="951" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="778" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="952" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28 E24:F24">
-    <cfRule type="containsText" dxfId="433" priority="771" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="510" priority="945" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="772" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="509" priority="946" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="773" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="508" priority="947" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="948" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="containsText" dxfId="429" priority="766" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="506" priority="940" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="428" priority="762" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="505" priority="936" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="763" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="504" priority="937" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="764" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="503" priority="938" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="939" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="containsText" dxfId="424" priority="758" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="501" priority="932" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="759" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="500" priority="933" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="760" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="499" priority="934" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="935" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="420" priority="754" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="497" priority="928" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="419" priority="755" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="496" priority="929" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="756" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="495" priority="930" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="931" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsText" dxfId="416" priority="750" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="493" priority="924" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="415" priority="751" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="492" priority="925" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="752" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="491" priority="926" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="753" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="927" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="412" priority="746" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="489" priority="920" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="411" priority="747" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="488" priority="921" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="748" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="487" priority="922" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="923" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="408" priority="557" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="485" priority="731" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="cellIs" dxfId="407" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="729" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="556" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="483" priority="730" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="405" priority="554" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="482" priority="728" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="404" priority="553" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="481" priority="727" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C7:C11">
-    <cfRule type="containsText" dxfId="403" priority="545" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="480" priority="719" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="546" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="479" priority="720" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="547" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="478" priority="721" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="722" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="399" priority="544" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="476" priority="718" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="398" priority="540" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="475" priority="714" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="541" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="474" priority="715" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="542" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="473" priority="716" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="717" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="394" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="712" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="539" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="470" priority="713" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="392" priority="537" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="469" priority="711" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="391" priority="529" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="468" priority="703" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="530" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="467" priority="704" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="466" priority="705" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="706" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="387" priority="513" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="464" priority="687" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="514" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="463" priority="688" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="515" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="462" priority="689" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="690" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="383" priority="509" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="460" priority="683" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="510" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="459" priority="684" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="511" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="458" priority="685" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="686" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="379" priority="505" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="456" priority="679" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="506" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="455" priority="680" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="507" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="454" priority="681" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="682" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="375" priority="500" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="452" priority="674" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="374" priority="496" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="451" priority="670" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="497" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="450" priority="671" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="498" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="449" priority="672" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="673" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="370" priority="495" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="447" priority="669" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="369" priority="491" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="446" priority="665" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="492" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="445" priority="666" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="493" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="444" priority="667" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="668" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="365" priority="489" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="663" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="490" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="441" priority="664" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="363" priority="488" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="440" priority="662" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C28">
-    <cfRule type="containsText" dxfId="362" priority="480" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="439" priority="654" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="481" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="438" priority="655" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="482" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="437" priority="656" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="483" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="657" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="358" priority="479" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="435" priority="653" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="357" priority="475" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="434" priority="649" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="476" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="433" priority="650" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="477" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="432" priority="651" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="478" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="652" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="353" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="647" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="474" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="429" priority="648" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="351" priority="472" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="428" priority="646" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
-    <cfRule type="containsText" dxfId="350" priority="452" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="427" priority="626" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="453" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="426" priority="627" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="454" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="425" priority="628" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="629" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D28">
-    <cfRule type="containsText" dxfId="346" priority="448" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="423" priority="622" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="449" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="422" priority="623" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="450" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="421" priority="624" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="625" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="342" priority="432" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="419" priority="606" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="433" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="418" priority="607" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="434" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="417" priority="608" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="609" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="338" priority="428" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="415" priority="602" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="429" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="414" priority="603" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="430" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="413" priority="604" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="605" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6">
-    <cfRule type="containsText" dxfId="334" priority="424" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="411" priority="598" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="425" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="410" priority="599" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="426" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="409" priority="600" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="601" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="containsText" dxfId="330" priority="420" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="407" priority="594" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="421" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="406" priority="595" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="422" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="405" priority="596" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="597" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="326" priority="419" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="403" priority="593" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="325" priority="415" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="402" priority="589" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="416" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="401" priority="590" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="417" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="400" priority="591" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="592" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="321" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="587" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="414" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="397" priority="588" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="319" priority="412" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="396" priority="586" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="containsText" dxfId="318" priority="408" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="395" priority="582" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="409" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="394" priority="583" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="410" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="393" priority="584" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="585" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N28">
-    <cfRule type="containsText" dxfId="314" priority="404" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="391" priority="578" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="405" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="390" priority="579" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="406" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="389" priority="580" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="581" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="310" priority="403" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="387" priority="577" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="309" priority="399" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="386" priority="573" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="400" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="385" priority="574" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="401" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="384" priority="575" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="576" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="305" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="571" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="398" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="381" priority="572" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="303" priority="396" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="380" priority="570" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N11">
-    <cfRule type="containsText" dxfId="302" priority="388" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="379" priority="562" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="389" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="378" priority="563" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="390" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="377" priority="564" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="565" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="298" priority="384" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="375" priority="558" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="385" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="374" priority="559" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="386" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="373" priority="560" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="561" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="294" priority="380" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="371" priority="554" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="381" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="370" priority="555" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="382" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="369" priority="556" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="557" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="290" priority="376" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="367" priority="550" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="377" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="366" priority="551" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="378" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="365" priority="552" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="379" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="553" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="286" priority="372" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="363" priority="546" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="373" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="362" priority="547" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="374" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="361" priority="548" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="549" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="282" priority="371" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="359" priority="545" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="cellIs" dxfId="281" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="543" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="370" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="357" priority="544" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="279" priority="368" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="356" priority="542" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="278" priority="364" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="355" priority="538" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="365" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="354" priority="539" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="366" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="353" priority="540" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="541" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:I29 F30:H31 E31 G32:I32 E33:H34 J29:M34">
-    <cfRule type="containsText" dxfId="274" priority="360" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="351" priority="534" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="361" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="350" priority="535" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="362" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="349" priority="536" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="537" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C34">
-    <cfRule type="containsText" dxfId="270" priority="356" operator="containsText" text="_">
+  <conditionalFormatting sqref="C29:C41">
+    <cfRule type="containsText" dxfId="347" priority="530" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="357" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="346" priority="531" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="358" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="345" priority="532" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="533" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:XFD30">
-    <cfRule type="containsText" dxfId="266" priority="352" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="343" priority="526" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="353" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="342" priority="527" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="354" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="341" priority="528" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="529" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:XFD31">
-    <cfRule type="containsText" dxfId="262" priority="348" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="339" priority="522" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="349" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="338" priority="523" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="350" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="337" priority="524" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="525" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="258" priority="347" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="335" priority="521" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="257" priority="343" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="334" priority="517" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="344" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="333" priority="518" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="345" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="332" priority="519" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="520" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="containsText" dxfId="253" priority="339" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="330" priority="513" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="340" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="329" priority="514" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="341" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="328" priority="515" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="516" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="249" priority="335" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="326" priority="509" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="336" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="325" priority="510" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="337" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="324" priority="511" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="512" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B31">
-    <cfRule type="containsText" dxfId="245" priority="331" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="322" priority="505" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="332" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="321" priority="506" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="333" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="320" priority="507" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="508" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="241" priority="327" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="318" priority="501" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="328" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="317" priority="502" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="329" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="316" priority="503" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="504" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="237" priority="323" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="314" priority="497" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="324" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="313" priority="498" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="325" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="312" priority="499" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="500" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D31">
-    <cfRule type="containsText" dxfId="233" priority="319" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="310" priority="493" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="320" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="309" priority="494" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="321" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="308" priority="495" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="496" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="containsText" dxfId="229" priority="315" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="306" priority="489" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="316" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="305" priority="490" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="317" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="304" priority="491" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="492" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="225" priority="311" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="302" priority="485" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="312" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="301" priority="486" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="313" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="300" priority="487" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="488" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="221" priority="310" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="298" priority="484" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="220" priority="306" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="297" priority="480" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="307" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="296" priority="481" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="308" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="295" priority="482" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="309" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="483" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="216" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="478" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="305" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="292" priority="479" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="214" priority="303" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="291" priority="477" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="213" priority="299" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="290" priority="473" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="300" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="289" priority="474" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="301" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="288" priority="475" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="476" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="209" priority="295" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="286" priority="469" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="296" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="285" priority="470" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="297" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="284" priority="471" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="472" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="205" priority="291" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="282" priority="465" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="292" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="281" priority="466" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="293" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="280" priority="467" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="468" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="201" priority="290" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="278" priority="464" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="200" priority="286" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="277" priority="460" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="287" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="276" priority="461" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="275" priority="462" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="463" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="cellIs" dxfId="196" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="458" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="285" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="272" priority="459" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="194" priority="283" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="271" priority="457" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="193" priority="279" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="270" priority="453" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="280" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="269" priority="454" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="281" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="268" priority="455" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="456" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="189" priority="275" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="266" priority="449" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="276" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="265" priority="450" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="277" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="264" priority="451" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="452" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="185" priority="271" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="262" priority="445" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="184" priority="272" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="261" priority="446" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="273" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="260" priority="447" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="448" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:XFD33">
-    <cfRule type="containsText" dxfId="181" priority="267" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="258" priority="441" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="268" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="257" priority="442" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="269" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="256" priority="443" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="444" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:XFD34">
-    <cfRule type="containsText" dxfId="177" priority="263" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="254" priority="437" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="264" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="253" priority="438" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="265" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="252" priority="439" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="440" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="173" priority="262" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="250" priority="436" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="172" priority="258" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="249" priority="432" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="259" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="248" priority="433" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="260" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="247" priority="434" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="435" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32">
-    <cfRule type="containsText" dxfId="168" priority="254" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="245" priority="428" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="255" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="244" priority="429" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="256" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="243" priority="430" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="431" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="164" priority="250" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="241" priority="424" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="251" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="240" priority="425" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="252" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="239" priority="426" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="427" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33:B34">
-    <cfRule type="containsText" dxfId="160" priority="246" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="237" priority="420" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="247" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="236" priority="421" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="248" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="235" priority="422" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="423" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="containsText" dxfId="156" priority="242" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="233" priority="416" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="243" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="232" priority="417" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="244" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="231" priority="418" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="419" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33:D34">
-    <cfRule type="containsText" dxfId="152" priority="238" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="229" priority="412" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="239" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="228" priority="413" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="240" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="227" priority="414" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="415" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="148" priority="234" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="225" priority="408" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="235" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="224" priority="409" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="236" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="223" priority="410" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="411" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="containsText" dxfId="144" priority="230" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="221" priority="404" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="231" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="220" priority="405" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="232" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="219" priority="406" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="407" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="140" priority="229" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="217" priority="403" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="139" priority="225" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="216" priority="399" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="226" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="215" priority="400" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="227" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="214" priority="401" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="402" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="135" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="397" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="224" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="211" priority="398" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="133" priority="222" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="210" priority="396" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="132" priority="218" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="209" priority="392" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="219" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="208" priority="393" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="220" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="207" priority="394" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="395" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="128" priority="214" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="205" priority="388" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="215" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="204" priority="389" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="216" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="203" priority="390" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="391" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="124" priority="210" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="201" priority="384" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="211" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="200" priority="385" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="212" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="199" priority="386" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="387" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="120" priority="209" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="197" priority="383" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="119" priority="205" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="196" priority="379" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="206" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="195" priority="380" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="207" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="194" priority="381" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="382" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="cellIs" dxfId="115" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="377" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="204" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="191" priority="378" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="113" priority="202" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="190" priority="376" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="112" priority="198" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="189" priority="372" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="199" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="188" priority="373" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="200" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="187" priority="374" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="375" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="108" priority="194" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="185" priority="368" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="195" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="184" priority="369" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="196" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="183" priority="370" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="371" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="104" priority="190" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="181" priority="364" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="191" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="180" priority="365" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="192" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="179" priority="366" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="367" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I31">
-    <cfRule type="containsText" dxfId="100" priority="186" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="177" priority="360" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="187" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="176" priority="361" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="188" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="175" priority="362" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="363" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:I34">
-    <cfRule type="containsText" dxfId="96" priority="182" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="173" priority="356" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="183" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="172" priority="357" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="184" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="171" priority="358" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="359" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="containsText" dxfId="92" priority="174" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="169" priority="348" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="175" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="168" priority="349" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="176" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="167" priority="350" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="351" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:XFD44 R40:XFD41">
-    <cfRule type="containsText" dxfId="88" priority="165" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",R40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="166" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",R40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",R40)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="168" operator="equal">
-      <formula>"VNulo"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R39:XFD39">
-    <cfRule type="containsText" dxfId="84" priority="158" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",R39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="159" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",R39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="160" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",R39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="161" operator="equal">
+  <conditionalFormatting sqref="R43:XFD44">
+    <cfRule type="containsText" dxfId="165" priority="339" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",R43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="340" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",R43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="341" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",R43)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="342" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R42:XFD42">
-    <cfRule type="containsText" dxfId="80" priority="104" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="161" priority="278" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",R42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="105" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="160" priority="279" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",R42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="106" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="159" priority="280" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",R42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="281" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:XFD16">
-    <cfRule type="containsText" dxfId="76" priority="59" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="157" priority="233" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="60" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="156" priority="234" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="155" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="236" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="72" priority="55" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="153" priority="229" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="56" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="152" priority="230" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="151" priority="231" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="232" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="68" priority="50" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="149" priority="224" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="67" priority="46" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="148" priority="220" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="47" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="147" priority="221" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="48" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="146" priority="222" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="223" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="63" priority="42" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="144" priority="216" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="43" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="143" priority="217" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="142" priority="218" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="219" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="140" priority="215" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="58" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="213" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="40" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="138" priority="214" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="56" priority="38" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="137" priority="212" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="55" priority="30" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="136" priority="204" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="31" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="135" priority="205" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="32" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="134" priority="206" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="207" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="51" priority="20" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="132" priority="194" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="131" priority="190" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="130" priority="191" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="129" priority="192" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="193" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="46" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="188" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="126" priority="189" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="44" priority="13" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="125" priority="187" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="124" priority="186" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="42" priority="8" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="123" priority="182" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="9" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="122" priority="183" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="10" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="121" priority="184" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="185" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="38" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="180" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="118" priority="181" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="117" priority="179" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="116" priority="175" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="115" priority="176" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="114" priority="177" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="178" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:I35 J35:M37 F36:H37">
+    <cfRule type="containsText" dxfId="112" priority="171" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="172" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",F35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="173" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="174" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:XFD36">
+    <cfRule type="containsText" dxfId="108" priority="167" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="168" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="169" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="170" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P37:XFD37">
+    <cfRule type="containsText" dxfId="104" priority="163" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="103" priority="164" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P37)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="165" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P37)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="166" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35:F35">
+    <cfRule type="containsText" dxfId="100" priority="154" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="99" priority="155" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",E35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="156" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="157" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:B41">
+    <cfRule type="containsText" dxfId="96" priority="146" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="95" priority="147" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="148" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="149" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D41">
+    <cfRule type="containsText" dxfId="92" priority="138" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="139" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="141" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="containsText" dxfId="88" priority="134" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="87" priority="135" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="136" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="137" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="containsText" dxfId="84" priority="130" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="131" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="132" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="133" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36:I41">
+    <cfRule type="containsText" dxfId="80" priority="86" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="87" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",I36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="88" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="89" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="76" priority="85" operator="containsText" text="ymmetric">
+      <formula>NOT(ISERROR(SEARCH("ymmetric",B35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="75" priority="81" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="82" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="84" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="71" priority="77" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="78" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="80" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="containsText" dxfId="67" priority="73" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="74" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B35)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B35)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="76" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38:H39 J38:M39">
+    <cfRule type="containsText" dxfId="63" priority="69" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="70" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",F38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="72" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38:XFD38">
+    <cfRule type="containsText" dxfId="59" priority="65" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="66" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:XFD39">
+    <cfRule type="containsText" dxfId="55" priority="61" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="62" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P39)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E41">
+    <cfRule type="containsText" dxfId="51" priority="17" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="18" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="20" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36:N41">
+    <cfRule type="containsText" dxfId="47" priority="13" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",N36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="14" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",N36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40:H41 J40:M41">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",F40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",F40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P40:XFD40">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P40)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P40)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P41:XFD41">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",P41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",P41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24063,7 +25385,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24296,7 +25618,24 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12"/>
+      <c r="A12" s="4">
+        <v>12</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13"/>
@@ -25942,104 +27281,104 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A560:A1048576">
-    <cfRule type="containsText" dxfId="31" priority="221" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="43" priority="221" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A560)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="222" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="42" priority="222" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A560)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="223" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="41" priority="223" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A560)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="224" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A560:A1048576 B1:F1">
-    <cfRule type="containsText" dxfId="27" priority="220" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="39" priority="220" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 A1:XFD1 G4:XFD4 F6:XFD6 A2:C11">
-    <cfRule type="containsText" dxfId="26" priority="216" operator="containsText" text="_">
+  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 A1:XFD1 G4:XFD4 F6:XFD6 A2:C12">
+    <cfRule type="containsText" dxfId="38" priority="216" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="217" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="37" priority="217" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="218" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="36" priority="218" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="219" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="cellIs" dxfId="22" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="214" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="215" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="33" priority="215" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:F1">
-    <cfRule type="containsText" dxfId="20" priority="213" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="32" priority="213" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8">
-    <cfRule type="containsText" dxfId="19" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="31" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="30" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="29" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="15" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="26" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="25" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 D10:F10">
-    <cfRule type="containsText" dxfId="11" priority="37" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="23" priority="37" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="38" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="22" priority="38" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="21" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="40" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11">
-    <cfRule type="containsText" dxfId="7" priority="33" operator="containsText" text="_">
+  <conditionalFormatting sqref="D11:F12">
+    <cfRule type="containsText" dxfId="19" priority="33" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="34" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="18" priority="34" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="17" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="36" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ontologia_Ambientes.xlsx
+++ b/Ontologia_Ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60D61E4-10B2-4FF6-A1E2-6268F6178E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1A36EF-5395-4449-99F5-50988AC9F16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AsDisjunt" sheetId="20" r:id="rId4"/>
     <sheet name="AsProprie" sheetId="14" r:id="rId5"/>
     <sheet name="AsInstanc" sheetId="13" r:id="rId6"/>
+    <sheet name="FiltrosDL" sheetId="21" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">AsClasses!#REF!</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3764" uniqueCount="619">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -797,9 +798,6 @@
     <t>ifcWaII</t>
   </si>
   <si>
-    <t>Ambientes</t>
-  </si>
-  <si>
     <t>Antecâmara</t>
   </si>
   <si>
@@ -1118,12 +1116,6 @@
     <t>Qualquer outro espaço</t>
   </si>
   <si>
-    <t>Setor de direção</t>
-  </si>
-  <si>
-    <t>Setor de áreas produtivas do edifício</t>
-  </si>
-  <si>
     <t>Setor de acesso público</t>
   </si>
   <si>
@@ -1160,9 +1152,6 @@
     <t>Todos os subsolos do prédio</t>
   </si>
   <si>
-    <t>Ambientes de depótitos</t>
-  </si>
-  <si>
     <t>Antecâmaras do prédio</t>
   </si>
   <si>
@@ -1475,9 +1464,6 @@
     <t>Programa de Necessidade Zonal</t>
   </si>
   <si>
-    <t>Zonas Predial</t>
-  </si>
-  <si>
     <t>Zonas Verticais</t>
   </si>
   <si>
@@ -1574,12 +1560,6 @@
     <t>Secretarias</t>
   </si>
   <si>
-    <t>Setores internos do edifício sem contato com as fachadas</t>
-  </si>
-  <si>
-    <t>Setores do edifício na cobertura considerada a quinta fachada</t>
-  </si>
-  <si>
     <t>Setores do edifício sobre a fachada e orientados ao Norte</t>
   </si>
   <si>
@@ -1775,18 +1755,6 @@
     <t>O ambiente pode pertencer a diversas zonas. Zona Funcional E</t>
   </si>
   <si>
-    <t>ZonaC</t>
-  </si>
-  <si>
-    <t>ZonaI</t>
-  </si>
-  <si>
-    <t>ZonaP</t>
-  </si>
-  <si>
-    <t>ZonaF</t>
-  </si>
-  <si>
     <t>ZonaV</t>
   </si>
   <si>
@@ -1872,6 +1840,72 @@
   </si>
   <si>
     <t>fofu:ao_interior exactly 1 fofu:Ambiente</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>Orientação</t>
+  </si>
+  <si>
+    <t>Organograma</t>
+  </si>
+  <si>
+    <t>Hospitalar</t>
+  </si>
+  <si>
+    <t>Geral</t>
+  </si>
+  <si>
+    <t>Setores orientados ao Zenit significa estar na cobertura ou telhado, considerados como a quinta fachada</t>
+  </si>
+  <si>
+    <t>Setores orientados ao interior significa estar dentro do prédio e sem contato com as fachadas</t>
+  </si>
+  <si>
+    <t>Direção dentro do organograma institucional</t>
+  </si>
+  <si>
+    <t>Departamento dentro do organograma institucional</t>
+  </si>
+  <si>
+    <t>Secretaria dentro do organograma institucional</t>
+  </si>
+  <si>
+    <t>Setores que representam o organograma institucional</t>
+  </si>
+  <si>
+    <t>Setores Prediais Exteriores</t>
+  </si>
+  <si>
+    <t>Setores Prediais</t>
+  </si>
+  <si>
+    <t>Setores de função Hospitalar</t>
+  </si>
+  <si>
+    <t>Setores de função Laboratorial</t>
+  </si>
+  <si>
+    <t>Setores com funções Gerais</t>
+  </si>
+  <si>
+    <t>Zonas Verticais do prédio</t>
+  </si>
+  <si>
+    <t>Ambientes necessários para o funcionamento do prédio</t>
+  </si>
+  <si>
+    <t>Ambientes de depósitos</t>
+  </si>
+  <si>
+    <t>Class: FiltroA
+    EquivalentTo: 
+                 (Ambiente  and (ao_norte  some owl:Thing))
+         and (Ambiente  and (em_ZV1    some owl:Thing))</t>
+  </si>
+  <si>
+    <t>em_ZV2</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2203,11 +2237,23 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="787">
+  <dxfs count="803">
     <dxf>
       <font>
         <b val="0"/>
@@ -2564,27 +2610,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -2617,7 +2642,156 @@
       <font>
         <b val="0"/>
         <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
       </font>
     </dxf>
     <dxf>
@@ -8781,10 +8955,10 @@
     </row>
     <row r="3" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -15730,21 +15904,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="786" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="802" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="801" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="800" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="783" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="782" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15756,9 +15930,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15766,18 +15940,15 @@
     <col min="1" max="1" width="2.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="6" style="2" customWidth="1"/>
+    <col min="7" max="10" width="21.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6" style="48" customWidth="1"/>
     <col min="12" max="12" width="43.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="19" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="39.21875" style="43" customWidth="1"/>
+    <col min="14" max="14" width="29.21875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="51.5546875" style="43" customWidth="1"/>
     <col min="16" max="226" width="2.33203125" style="2" customWidth="1"/>
     <col min="227" max="16384" width="9.109375" style="2"/>
   </cols>
@@ -15802,31 +15973,31 @@
         <v>213</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>338</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="28" t="s">
-        <v>465</v>
+      <c r="K1" s="46" t="s">
+        <v>461</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="O1" s="39" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15837,44 +16008,44 @@
         <v>230</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="K2" s="11" t="str">
+        <v>571</v>
+      </c>
+      <c r="K2" s="47" t="str">
         <f>_xlfn.CONCAT("ZON-",A2)</f>
         <v>ZON-2</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O2" s="40" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15885,16 +16056,16 @@
         <v>230</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>208</v>
@@ -15906,23 +16077,23 @@
         <v>208</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>581</v>
-      </c>
-      <c r="K3" s="11" t="str">
+        <v>570</v>
+      </c>
+      <c r="K3" s="47" t="str">
         <f t="shared" ref="K3:K24" si="0">_xlfn.CONCAT("ZON-",A3)</f>
         <v>ZON-3</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M3" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O3" s="40" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15933,16 +16104,16 @@
         <v>230</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>208</v>
@@ -15954,23 +16125,23 @@
         <v>208</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="K4" s="11" t="str">
+        <v>521</v>
+      </c>
+      <c r="K4" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-4</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M4" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O4" s="40" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -15981,17 +16152,17 @@
         <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="G5" s="11" t="s">
         <v>208</v>
       </c>
@@ -16002,23 +16173,23 @@
         <v>208</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="K5" s="11" t="str">
+        <v>520</v>
+      </c>
+      <c r="K5" s="47" t="str">
         <f t="shared" ref="K5:K6" si="1">_xlfn.CONCAT("ZON-",A5)</f>
         <v>ZON-5</v>
       </c>
       <c r="L5" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M5" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N5" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O5" s="40" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16029,16 +16200,16 @@
         <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>208</v>
@@ -16050,23 +16221,23 @@
         <v>208</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="K6" s="11" t="str">
+        <v>596</v>
+      </c>
+      <c r="K6" s="47" t="str">
         <f t="shared" si="1"/>
         <v>ZON-6</v>
       </c>
       <c r="L6" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N6" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O6" s="40" t="s">
-        <v>510</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16077,16 +16248,16 @@
         <v>230</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>208</v>
@@ -16098,23 +16269,23 @@
         <v>208</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>608</v>
-      </c>
-      <c r="K7" s="11" t="str">
+        <v>597</v>
+      </c>
+      <c r="K7" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-7</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M7" s="37" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>454</v>
+        <v>599</v>
       </c>
       <c r="O7" s="40" t="s">
-        <v>509</v>
+        <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16125,16 +16296,16 @@
         <v>230</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>208</v>
@@ -16148,21 +16319,21 @@
       <c r="J8" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K8" s="11" t="str">
+      <c r="K8" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-8</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M8" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="O8" s="40" t="s">
-        <v>357</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16173,16 +16344,16 @@
         <v>230</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>208</v>
@@ -16196,21 +16367,21 @@
       <c r="J9" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K9" s="11" t="str">
+      <c r="K9" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-9</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M9" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N9" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N9" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="O9" s="40" t="s">
-        <v>358</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16221,16 +16392,16 @@
         <v>230</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>208</v>
@@ -16244,21 +16415,21 @@
       <c r="J10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K10" s="11" t="str">
+      <c r="K10" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-10</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="O10" s="40" t="s">
-        <v>358</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16269,16 +16440,16 @@
         <v>230</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>208</v>
@@ -16292,21 +16463,21 @@
       <c r="J11" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="11" t="str">
+      <c r="K11" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-11</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M11" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N11" s="37" t="s">
-        <v>476</v>
+        <v>610</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>609</v>
       </c>
       <c r="O11" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16317,16 +16488,16 @@
         <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>208</v>
@@ -16340,21 +16511,21 @@
       <c r="J12" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K12" s="11" t="str">
+      <c r="K12" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-12</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M12" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N12" s="37" t="s">
-        <v>476</v>
+        <v>610</v>
+      </c>
+      <c r="N12" s="36" t="s">
+        <v>609</v>
       </c>
       <c r="O12" s="40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16365,16 +16536,16 @@
         <v>230</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>208</v>
@@ -16388,21 +16559,21 @@
       <c r="J13" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K13" s="11" t="str">
+      <c r="K13" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-13</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M13" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>476</v>
+        <v>610</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>609</v>
       </c>
       <c r="O13" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16413,16 +16584,16 @@
         <v>230</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>578</v>
+        <v>595</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>208</v>
@@ -16436,21 +16607,21 @@
       <c r="J14" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K14" s="11" t="str">
+      <c r="K14" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-14</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>476</v>
+        <v>610</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>609</v>
       </c>
       <c r="O14" s="40" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16461,16 +16632,16 @@
         <v>230</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>208</v>
@@ -16482,23 +16653,23 @@
         <v>208</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>588</v>
-      </c>
-      <c r="K15" s="11" t="str">
+        <v>577</v>
+      </c>
+      <c r="K15" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-15</v>
       </c>
       <c r="L15" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N15" s="37" t="s">
-        <v>476</v>
+        <v>452</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>611</v>
       </c>
       <c r="O15" s="40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16509,16 +16680,16 @@
         <v>230</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>579</v>
+        <v>442</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>208</v>
@@ -16530,23 +16701,23 @@
         <v>208</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>589</v>
-      </c>
-      <c r="K16" s="11" t="str">
+        <v>578</v>
+      </c>
+      <c r="K16" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-16</v>
       </c>
       <c r="L16" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="N16" s="37" t="s">
-        <v>476</v>
+        <v>452</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>612</v>
       </c>
       <c r="O16" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16557,44 +16728,44 @@
         <v>230</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="K17" s="11" t="str">
+      <c r="K17" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-17</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M17" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N17" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>613</v>
       </c>
       <c r="O17" s="40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16605,16 +16776,16 @@
         <v>230</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G18" s="11" t="s">
         <v>208</v>
@@ -16626,23 +16797,23 @@
         <v>208</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="K18" s="11" t="str">
+        <v>580</v>
+      </c>
+      <c r="K18" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-18</v>
       </c>
       <c r="L18" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M18" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N18" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N18" s="36" t="s">
+        <v>613</v>
       </c>
       <c r="O18" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16653,16 +16824,16 @@
         <v>230</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>579</v>
+        <v>602</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G19" s="11" t="s">
         <v>208</v>
@@ -16674,23 +16845,23 @@
         <v>208</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="K19" s="11" t="str">
+        <v>581</v>
+      </c>
+      <c r="K19" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-19</v>
       </c>
       <c r="L19" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M19" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="N19" s="37" t="s">
-        <v>456</v>
+        <v>452</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>613</v>
       </c>
       <c r="O19" s="40" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16701,16 +16872,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G20" s="11" t="s">
         <v>208</v>
@@ -16722,23 +16893,23 @@
         <v>208</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="K20" s="11" t="str">
+        <v>582</v>
+      </c>
+      <c r="K20" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-20</v>
       </c>
       <c r="L20" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M20" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="O20" s="40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16749,16 +16920,16 @@
         <v>230</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>208</v>
@@ -16770,23 +16941,23 @@
         <v>208</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="K21" s="11" t="str">
+        <v>583</v>
+      </c>
+      <c r="K21" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-21</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="O21" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16797,16 +16968,16 @@
         <v>230</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>208</v>
@@ -16818,23 +16989,23 @@
         <v>208</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="K22" s="11" t="str">
+        <v>584</v>
+      </c>
+      <c r="K22" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-22</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M22" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16845,16 +17016,16 @@
         <v>230</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>208</v>
@@ -16866,23 +17037,23 @@
         <v>208</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="K23" s="11" t="str">
+        <v>585</v>
+      </c>
+      <c r="K23" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-23</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M23" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16893,16 +17064,16 @@
         <v>230</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G24" s="11" t="s">
         <v>208</v>
@@ -16914,23 +17085,23 @@
         <v>208</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="K24" s="11" t="str">
+        <v>586</v>
+      </c>
+      <c r="K24" s="47" t="str">
         <f t="shared" si="0"/>
         <v>ZON-24</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M24" s="37" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>477</v>
+        <v>614</v>
       </c>
       <c r="O24" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16941,22 +17112,22 @@
         <v>230</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>208</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>208</v>
@@ -16964,21 +17135,21 @@
       <c r="J25" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K25" s="11" t="str">
+      <c r="K25" s="47" t="str">
         <f>_xlfn.CONCAT("AMB-",A25)</f>
         <v>AMB-25</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O25" s="40" t="s">
-        <v>371</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16989,16 +17160,16 @@
         <v>230</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>208</v>
@@ -17012,21 +17183,21 @@
       <c r="J26" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K26" s="11" t="str">
+      <c r="K26" s="47" t="str">
         <f t="shared" ref="K26:K49" si="2">_xlfn.CONCAT("AMB-",A26)</f>
         <v>AMB-26</v>
       </c>
       <c r="L26" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M26" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N26" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O26" s="40" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17037,16 +17208,16 @@
         <v>230</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>208</v>
@@ -17060,21 +17231,21 @@
       <c r="J27" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K27" s="11" t="str">
+      <c r="K27" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-27</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M27" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O27" s="41" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17085,16 +17256,16 @@
         <v>230</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>208</v>
@@ -17108,21 +17279,21 @@
       <c r="J28" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K28" s="11" t="str">
+      <c r="K28" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-28</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M28" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O28" s="41" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17133,16 +17304,16 @@
         <v>230</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>208</v>
@@ -17156,21 +17327,21 @@
       <c r="J29" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K29" s="11" t="str">
+      <c r="K29" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-29</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M29" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O29" s="41" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17181,16 +17352,16 @@
         <v>230</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>208</v>
@@ -17204,21 +17375,21 @@
       <c r="J30" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K30" s="11" t="str">
+      <c r="K30" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-30</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M30" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N30" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O30" s="41" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17229,16 +17400,16 @@
         <v>230</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>208</v>
@@ -17252,21 +17423,21 @@
       <c r="J31" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K31" s="11" t="str">
+      <c r="K31" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-31</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M31" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N31" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O31" s="41" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17277,16 +17448,16 @@
         <v>230</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>208</v>
@@ -17300,21 +17471,21 @@
       <c r="J32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K32" s="11" t="str">
+      <c r="K32" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-32</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M32" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O32" s="41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17325,16 +17496,16 @@
         <v>230</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>208</v>
@@ -17348,21 +17519,21 @@
       <c r="J33" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="11" t="str">
+      <c r="K33" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-33</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M33" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O33" s="41" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17373,16 +17544,16 @@
         <v>230</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>208</v>
@@ -17396,21 +17567,21 @@
       <c r="J34" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K34" s="11" t="str">
+      <c r="K34" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-34</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M34" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O34" s="41" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17421,16 +17592,16 @@
         <v>230</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>208</v>
@@ -17444,21 +17615,21 @@
       <c r="J35" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K35" s="11" t="str">
+      <c r="K35" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-35</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N35" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O35" s="41" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17469,16 +17640,16 @@
         <v>230</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>208</v>
@@ -17492,21 +17663,21 @@
       <c r="J36" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K36" s="11" t="str">
+      <c r="K36" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-36</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M36" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O36" s="41" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17517,16 +17688,16 @@
         <v>230</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>208</v>
@@ -17540,21 +17711,21 @@
       <c r="J37" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K37" s="11" t="str">
+      <c r="K37" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-37</v>
       </c>
       <c r="L37" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M37" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N37" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O37" s="41" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17565,16 +17736,16 @@
         <v>230</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>208</v>
@@ -17588,21 +17759,21 @@
       <c r="J38" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K38" s="11" t="str">
+      <c r="K38" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-38</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M38" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O38" s="41" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17613,16 +17784,16 @@
         <v>230</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>208</v>
@@ -17636,21 +17807,21 @@
       <c r="J39" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K39" s="11" t="str">
+      <c r="K39" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-39</v>
       </c>
       <c r="L39" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M39" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N39" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O39" s="41" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17661,16 +17832,16 @@
         <v>230</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G40" s="11" t="s">
         <v>208</v>
@@ -17684,21 +17855,21 @@
       <c r="J40" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K40" s="11" t="str">
+      <c r="K40" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-40</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O40" s="41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17709,16 +17880,16 @@
         <v>230</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G41" s="11" t="s">
         <v>208</v>
@@ -17732,21 +17903,21 @@
       <c r="J41" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K41" s="11" t="str">
+      <c r="K41" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-41</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M41" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O41" s="41" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17757,16 +17928,16 @@
         <v>230</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>208</v>
@@ -17780,21 +17951,21 @@
       <c r="J42" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K42" s="11" t="str">
+      <c r="K42" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-42</v>
       </c>
       <c r="L42" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M42" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O42" s="41" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17805,16 +17976,16 @@
         <v>230</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>208</v>
@@ -17828,21 +17999,21 @@
       <c r="J43" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K43" s="11" t="str">
+      <c r="K43" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-43</v>
       </c>
       <c r="L43" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M43" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O43" s="41" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17853,16 +18024,16 @@
         <v>230</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>208</v>
@@ -17876,21 +18047,21 @@
       <c r="J44" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K44" s="11" t="str">
+      <c r="K44" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-44</v>
       </c>
       <c r="L44" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M44" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N44" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O44" s="41" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17901,16 +18072,16 @@
         <v>230</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G45" s="11" t="s">
         <v>208</v>
@@ -17924,21 +18095,21 @@
       <c r="J45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K45" s="11" t="str">
+      <c r="K45" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-45</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M45" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O45" s="41" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17949,16 +18120,16 @@
         <v>230</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>208</v>
@@ -17972,21 +18143,21 @@
       <c r="J46" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K46" s="11" t="str">
+      <c r="K46" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-46</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M46" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O46" s="41" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17997,16 +18168,16 @@
         <v>230</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G47" s="11" t="s">
         <v>208</v>
@@ -18020,21 +18191,21 @@
       <c r="J47" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K47" s="11" t="str">
+      <c r="K47" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-47</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M47" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O47" s="41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18045,16 +18216,16 @@
         <v>230</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>208</v>
@@ -18068,21 +18239,21 @@
       <c r="J48" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K48" s="11" t="str">
+      <c r="K48" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-48</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M48" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N48" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O48" s="41" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18093,16 +18264,16 @@
         <v>230</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>204</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G49" s="11" t="s">
         <v>208</v>
@@ -18116,21 +18287,21 @@
       <c r="J49" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K49" s="11" t="str">
+      <c r="K49" s="47" t="str">
         <f t="shared" si="2"/>
         <v>AMB-49</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>250</v>
+        <v>615</v>
       </c>
       <c r="O49" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18141,16 +18312,16 @@
         <v>230</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>208</v>
@@ -18159,26 +18330,26 @@
         <v>208</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J50" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K50" s="11" t="str">
+      <c r="K50" s="47" t="str">
         <f>_xlfn.CONCAT("NUC-",A50)</f>
         <v>NUC-50</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M50" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O50" s="41" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18189,16 +18360,16 @@
         <v>230</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G51" s="11" t="s">
         <v>208</v>
@@ -18207,26 +18378,26 @@
         <v>208</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="J51" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K51" s="11" t="str">
+      <c r="K51" s="47" t="str">
         <f t="shared" ref="K51:K59" si="3">_xlfn.CONCAT("NUC-",A51)</f>
         <v>NUC-51</v>
       </c>
       <c r="L51" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M51" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O51" s="41" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18237,16 +18408,16 @@
         <v>230</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G52" s="11" t="s">
         <v>208</v>
@@ -18255,26 +18426,26 @@
         <v>208</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J52" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K52" s="11" t="str">
+      <c r="K52" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-52</v>
       </c>
       <c r="L52" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M52" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O52" s="41" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18285,16 +18456,16 @@
         <v>230</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G53" s="11" t="s">
         <v>208</v>
@@ -18303,26 +18474,26 @@
         <v>208</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J53" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K53" s="11" t="str">
+      <c r="K53" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-53</v>
       </c>
       <c r="L53" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M53" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N53" s="37" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="O53" s="41" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18333,16 +18504,16 @@
         <v>230</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G54" s="11" t="s">
         <v>208</v>
@@ -18351,26 +18522,26 @@
         <v>208</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K54" s="11" t="str">
+      <c r="K54" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-54</v>
       </c>
       <c r="L54" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M54" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O54" s="41" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18381,17 +18552,17 @@
         <v>230</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="G55" s="11" t="s">
         <v>208</v>
       </c>
@@ -18399,26 +18570,26 @@
         <v>208</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J55" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K55" s="11" t="str">
+      <c r="K55" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-55</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M55" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O55" s="41" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18429,16 +18600,16 @@
         <v>230</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G56" s="11" t="s">
         <v>208</v>
@@ -18447,26 +18618,26 @@
         <v>208</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J56" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K56" s="11" t="str">
+      <c r="K56" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-56</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O56" s="41" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18477,16 +18648,16 @@
         <v>230</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G57" s="11" t="s">
         <v>208</v>
@@ -18495,26 +18666,26 @@
         <v>208</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J57" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="11" t="str">
+      <c r="K57" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-57</v>
       </c>
       <c r="L57" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M57" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N57" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O57" s="41" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18525,16 +18696,16 @@
         <v>230</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G58" s="11" t="s">
         <v>208</v>
@@ -18543,26 +18714,26 @@
         <v>208</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K58" s="11" t="str">
+      <c r="K58" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-58</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M58" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O58" s="41" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18573,16 +18744,16 @@
         <v>230</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G59" s="11" t="s">
         <v>208</v>
@@ -18591,26 +18762,26 @@
         <v>208</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="J59" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K59" s="11" t="str">
+      <c r="K59" s="47" t="str">
         <f t="shared" si="3"/>
         <v>NUC-59</v>
       </c>
       <c r="L59" s="37" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="M59" s="37" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="O59" s="41" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18621,13 +18792,13 @@
         <v>230</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>15</v>
@@ -18644,21 +18815,21 @@
       <c r="J60" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K60" s="11" t="str">
+      <c r="K60" s="47" t="str">
         <f>_xlfn.CONCAT("BIM-",A60)</f>
         <v>BIM-60</v>
       </c>
       <c r="L60" s="36" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M60" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N60" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O60" s="36" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18669,13 +18840,13 @@
         <v>230</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>153</v>
@@ -18692,21 +18863,21 @@
       <c r="J61" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K61" s="11" t="str">
+      <c r="K61" s="47" t="str">
         <f t="shared" ref="K61:K71" si="4">_xlfn.CONCAT("BIM-",A61)</f>
         <v>BIM-61</v>
       </c>
       <c r="L61" s="36" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M61" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N61" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O61" s="36" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18717,13 +18888,13 @@
         <v>230</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>155</v>
@@ -18740,21 +18911,21 @@
       <c r="J62" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K62" s="11" t="str">
+      <c r="K62" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-62</v>
       </c>
       <c r="L62" s="36" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M62" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="O62" s="36" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18765,13 +18936,13 @@
         <v>230</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>229</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>12</v>
@@ -18788,21 +18959,21 @@
       <c r="J63" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K63" s="11" t="str">
+      <c r="K63" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-63</v>
       </c>
       <c r="L63" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="M63" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="N63" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="O63" s="36" t="s">
         <v>480</v>
-      </c>
-      <c r="M63" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="N63" s="36" t="s">
-        <v>481</v>
-      </c>
-      <c r="O63" s="36" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18813,13 +18984,13 @@
         <v>230</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>152</v>
@@ -18836,18 +19007,18 @@
       <c r="J64" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K64" s="11" t="str">
+      <c r="K64" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-64</v>
       </c>
       <c r="L64" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M64" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N64" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O64" s="36" t="s">
         <v>152</v>
@@ -18861,13 +19032,13 @@
         <v>230</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>154</v>
@@ -18884,18 +19055,18 @@
       <c r="J65" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="K65" s="11" t="str">
+      <c r="K65" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-65</v>
       </c>
       <c r="L65" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N65" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O65" s="36" t="s">
         <v>154</v>
@@ -18909,13 +19080,13 @@
         <v>230</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="F66" s="33" t="s">
         <v>11</v>
@@ -18932,18 +19103,18 @@
       <c r="J66" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K66" s="11" t="str">
+      <c r="K66" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-66</v>
       </c>
       <c r="L66" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M66" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="N66" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O66" s="38" t="s">
         <v>11</v>
@@ -18957,16 +19128,16 @@
         <v>230</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F67" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G67" s="34" t="s">
         <v>208</v>
@@ -18980,21 +19151,21 @@
       <c r="J67" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K67" s="11" t="str">
+      <c r="K67" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-67</v>
       </c>
       <c r="L67" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N67" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O67" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19005,16 +19176,16 @@
         <v>230</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F68" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G68" s="34" t="s">
         <v>208</v>
@@ -19028,21 +19199,21 @@
       <c r="J68" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K68" s="11" t="str">
+      <c r="K68" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-68</v>
       </c>
       <c r="L68" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N68" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O68" s="40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
@@ -19053,16 +19224,16 @@
         <v>230</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F69" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G69" s="34" t="s">
         <v>208</v>
@@ -19076,21 +19247,21 @@
       <c r="J69" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K69" s="11" t="str">
+      <c r="K69" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-69</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N69" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O69" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
@@ -19101,16 +19272,16 @@
         <v>230</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F70" s="35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G70" s="34" t="s">
         <v>208</v>
@@ -19124,21 +19295,21 @@
       <c r="J70" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K70" s="11" t="str">
+      <c r="K70" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-70</v>
       </c>
       <c r="L70" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N70" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O70" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.15">
@@ -19149,16 +19320,16 @@
         <v>230</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F71" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G71" s="34" t="s">
         <v>208</v>
@@ -19172,21 +19343,21 @@
       <c r="J71" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="K71" s="11" t="str">
+      <c r="K71" s="47" t="str">
         <f t="shared" si="4"/>
         <v>BIM-71</v>
       </c>
       <c r="L71" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="M71" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="N71" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="O71" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -19194,243 +19365,243 @@
     <sortCondition ref="E1:E65"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G66:J71 B66 A72:XFD1048576 P1:XFD1 P52:XFD71 O52:O59 A1:K1 O20:XFD51 L7:XFD19 K3:XFD6 K7 L20:N59 K50:K71 B50:J54 J55:J64 B55:I59 D66:D71 A2:A71 G2:G6 B2:XFD2 B3:J7 B8:K49">
-    <cfRule type="containsText" dxfId="781" priority="423" operator="containsText" text="_">
+  <conditionalFormatting sqref="G66:J71 B66 A72:XFD1048576 P1:XFD1 P52:XFD71 O52:O59 A1:K1 O20:XFD51 K50:K71 B50:J54 J55:J64 B55:I59 D66:D71 A2:A71 B8:K49 B2:XFD7 L8:XFD19 L20:N59">
+    <cfRule type="containsText" dxfId="797" priority="423" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="424" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="796" priority="424" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="795" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="426" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61:I61 B61 D61">
-    <cfRule type="containsText" dxfId="777" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="793" priority="85" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="776" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="792" priority="86" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="791" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B61)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G62:I62 B62 D62">
-    <cfRule type="containsText" dxfId="773" priority="81" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="789" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="772" priority="82" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="788" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="787" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B62)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60:I60 B60:E60 E61:E71 C61:C63">
-    <cfRule type="containsText" dxfId="769" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="785" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="768" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="784" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="783" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64:I64 B64:D64 C65:C71">
-    <cfRule type="containsText" dxfId="765" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="781" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="780" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="779" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="761" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="72" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G65:J65 B65 D65">
-    <cfRule type="containsText" dxfId="760" priority="67" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="776" priority="67" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="68" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="775" priority="68" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="774" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B65)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="70" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="cellIs" dxfId="756" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="66" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="cellIs" dxfId="755" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="64" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B63 D63">
-    <cfRule type="containsText" dxfId="754" priority="59" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="770" priority="59" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="60" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="769" priority="60" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="752" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="768" priority="61" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B63)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="62" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:I63">
-    <cfRule type="containsText" dxfId="750" priority="55" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="766" priority="55" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="56" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="765" priority="56" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="748" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="764" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G63)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="58" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B67">
-    <cfRule type="containsText" dxfId="746" priority="42" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="762" priority="42" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="43" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="761" priority="43" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="744" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="760" priority="44" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B67)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="45" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="containsText" dxfId="742" priority="38" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="758" priority="38" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="39" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="757" priority="39" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="756" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="41" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B70">
-    <cfRule type="containsText" dxfId="738" priority="34" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="754" priority="34" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="35" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="753" priority="35" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="752" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B70)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="37" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="containsText" dxfId="734" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="750" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="749" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="748" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B71)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B69">
-    <cfRule type="containsText" dxfId="730" priority="23" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="746" priority="23" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="24" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="745" priority="24" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="744" priority="25" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B69)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="727" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="26" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:O1">
-    <cfRule type="containsText" dxfId="726" priority="12" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="742" priority="12" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="13" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="741" priority="13" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="740" priority="14" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",L1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="15" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67:O68">
-    <cfRule type="containsText" dxfId="722" priority="4" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="738" priority="4" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="5" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="737" priority="5" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="6" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="736" priority="6" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O67)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="7" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" dxfId="718" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="3" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="cellIs" dxfId="717" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="2" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66">
-    <cfRule type="cellIs" dxfId="716" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19465,40 +19636,40 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>342</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="28" t="s">
-        <v>345</v>
-      </c>
       <c r="G1" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>494</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>495</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19545,30 +19716,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:XFD2 A2 A3:XFD1048576 A1:XFD1">
-    <cfRule type="containsText" dxfId="715" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="731" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="730" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="729" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:M2">
-    <cfRule type="containsText" dxfId="711" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="727" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="726" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="725" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19581,9 +19752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:O618"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -19591,7 +19762,7 @@
     <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" style="21" customWidth="1"/>
     <col min="5" max="7" width="8.5546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="9.44140625" style="21" customWidth="1"/>
     <col min="9" max="13" width="8.5546875" style="21" customWidth="1"/>
@@ -19611,7 +19782,7 @@
         <v>223</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>220</v>
@@ -19644,7 +19815,7 @@
         <v>214</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19694,7 +19865,7 @@
         <v>208</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19702,10 +19873,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C3)</f>
@@ -19724,7 +19895,7 @@
         <v>208</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>208</v>
@@ -19742,7 +19913,7 @@
         <v>215</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19750,10 +19921,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D4" s="18" t="str">
         <f t="shared" ref="D4:D23" si="0">_xlfn.CONCAT("tem_",C4)</f>
@@ -19772,7 +19943,7 @@
         <v>208</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J4" s="16" t="s">
         <v>208</v>
@@ -19790,7 +19961,7 @@
         <v>215</v>
       </c>
       <c r="O4" s="37" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19798,10 +19969,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D5" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19820,7 +19991,7 @@
         <v>208</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>208</v>
@@ -19838,7 +20009,7 @@
         <v>215</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19846,10 +20017,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19868,7 +20039,7 @@
         <v>208</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J6" s="16" t="s">
         <v>208</v>
@@ -19886,7 +20057,7 @@
         <v>215</v>
       </c>
       <c r="O6" s="37" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19894,10 +20065,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D7" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19916,7 +20087,7 @@
         <v>208</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>208</v>
@@ -19934,7 +20105,7 @@
         <v>215</v>
       </c>
       <c r="O7" s="37" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19942,10 +20113,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D8" s="18" t="str">
         <f t="shared" si="0"/>
@@ -19964,7 +20135,7 @@
         <v>208</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J8" s="16" t="s">
         <v>208</v>
@@ -19982,7 +20153,7 @@
         <v>215</v>
       </c>
       <c r="O8" s="37" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -19990,7 +20161,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>235</v>
@@ -20012,7 +20183,7 @@
         <v>208</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>208</v>
@@ -20030,7 +20201,7 @@
         <v>215</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20038,7 +20209,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>236</v>
@@ -20060,7 +20231,7 @@
         <v>208</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>208</v>
@@ -20078,7 +20249,7 @@
         <v>215</v>
       </c>
       <c r="O10" s="37" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20086,10 +20257,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D11" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20108,7 +20279,7 @@
         <v>208</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>208</v>
@@ -20126,7 +20297,7 @@
         <v>215</v>
       </c>
       <c r="O11" s="37" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20176,7 +20347,7 @@
         <v>208</v>
       </c>
       <c r="O12" s="37" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20184,10 +20355,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20206,7 +20377,7 @@
         <v>208</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>208</v>
@@ -20221,10 +20392,10 @@
         <v>208</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O13" s="37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20232,10 +20403,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20254,7 +20425,7 @@
         <v>208</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>208</v>
@@ -20269,10 +20440,10 @@
         <v>208</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20280,10 +20451,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20302,7 +20473,7 @@
         <v>208</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J15" s="16" t="s">
         <v>208</v>
@@ -20317,10 +20488,10 @@
         <v>208</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O15" s="37" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20370,7 +20541,7 @@
         <v>208</v>
       </c>
       <c r="O16" s="37" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20378,10 +20549,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D17" s="18" t="str">
         <f t="shared" ref="D17:D19" si="1">_xlfn.CONCAT("tem_",C17)</f>
@@ -20400,7 +20571,7 @@
         <v>208</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>208</v>
@@ -20415,10 +20586,10 @@
         <v>208</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O17" s="37" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20426,10 +20597,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D18" s="18" t="str">
         <f t="shared" si="1"/>
@@ -20448,7 +20619,7 @@
         <v>208</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>208</v>
@@ -20463,10 +20634,10 @@
         <v>208</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O18" s="37" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20474,10 +20645,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D19" s="18" t="str">
         <f t="shared" si="1"/>
@@ -20496,7 +20667,7 @@
         <v>208</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>208</v>
@@ -20511,10 +20682,10 @@
         <v>208</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O19" s="37" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20564,7 +20735,7 @@
         <v>208</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20572,10 +20743,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>297</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>298</v>
       </c>
       <c r="D21" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20594,7 +20765,7 @@
         <v>208</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>208</v>
@@ -20609,10 +20780,10 @@
         <v>208</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O21" s="37" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20620,10 +20791,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D22" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20642,7 +20813,7 @@
         <v>208</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J22" s="16" t="s">
         <v>208</v>
@@ -20657,10 +20828,10 @@
         <v>208</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O22" s="37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20668,10 +20839,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D23" s="18" t="str">
         <f t="shared" si="0"/>
@@ -20690,7 +20861,7 @@
         <v>208</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>208</v>
@@ -20705,10 +20876,10 @@
         <v>208</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="O23" s="37" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20758,7 +20929,7 @@
         <v>208</v>
       </c>
       <c r="O24" s="37" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20766,10 +20937,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D25" s="18" t="str">
         <f>_xlfn.CONCAT("ser_",C25)</f>
@@ -20789,7 +20960,7 @@
         <v>ser_articulado</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>208</v>
@@ -20804,10 +20975,10 @@
         <v>208</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20815,10 +20986,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D26" s="18" t="str">
         <f t="shared" ref="D26:D28" si="2">_xlfn.CONCAT("ser_",C26)</f>
@@ -20838,7 +21009,7 @@
         <v>ser_articulador</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>208</v>
@@ -20853,10 +21024,10 @@
         <v>208</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O26" s="37" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20864,10 +21035,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D27" s="18" t="str">
         <f t="shared" si="2"/>
@@ -20886,7 +21057,7 @@
         <v>208</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>208</v>
@@ -20901,10 +21072,10 @@
         <v>208</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O27" s="37" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -20912,10 +21083,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D28" s="18" t="str">
         <f t="shared" si="2"/>
@@ -20934,7 +21105,7 @@
         <v>208</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>208</v>
@@ -20949,10 +21120,10 @@
         <v>208</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O28" s="37" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21002,7 +21173,7 @@
         <v>208</v>
       </c>
       <c r="O29" s="37" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21010,10 +21181,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D30" s="18" t="str">
         <f>_xlfn.CONCAT("em_",C30)</f>
@@ -21032,7 +21203,7 @@
         <v>208</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>208</v>
@@ -21050,7 +21221,7 @@
         <v>215</v>
       </c>
       <c r="O30" s="37" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21058,10 +21229,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="D31" s="18" t="str">
         <f>_xlfn.CONCAT("em_",C31)</f>
@@ -21080,7 +21251,7 @@
         <v>208</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>208</v>
@@ -21095,10 +21266,10 @@
         <v>208</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O31" s="37" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21106,10 +21277,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D32" s="18" t="str">
         <f t="shared" ref="D32:D40" si="3">_xlfn.CONCAT("em_",C32)</f>
@@ -21128,7 +21299,7 @@
         <v>208</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>208</v>
@@ -21143,10 +21314,10 @@
         <v>208</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O32" s="37" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21154,10 +21325,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="D33" s="18" t="str">
         <f t="shared" si="3"/>
@@ -21176,7 +21347,7 @@
         <v>208</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>208</v>
@@ -21191,10 +21362,10 @@
         <v>208</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O33" s="37" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21202,10 +21373,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D34" s="18" t="str">
         <f t="shared" si="3"/>
@@ -21224,7 +21395,7 @@
         <v>208</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>208</v>
@@ -21239,10 +21410,10 @@
         <v>208</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O34" s="37" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21250,10 +21421,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D35" s="18" t="str">
         <f t="shared" si="3"/>
@@ -21272,7 +21443,7 @@
         <v>208</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>208</v>
@@ -21287,10 +21458,10 @@
         <v>208</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O35" s="37" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21298,17 +21469,17 @@
         <v>36</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D36" s="18" t="str">
         <f t="shared" si="3"/>
         <v>em_ZV1</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F36" s="13" t="s">
         <v>208</v>
@@ -21320,7 +21491,7 @@
         <v>208</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>208</v>
@@ -21335,10 +21506,10 @@
         <v>208</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O36" s="37" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21346,17 +21517,17 @@
         <v>37</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D37" s="18" t="str">
         <f t="shared" si="3"/>
         <v>em_ZV2</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F37" s="13" t="s">
         <v>208</v>
@@ -21368,7 +21539,7 @@
         <v>208</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>208</v>
@@ -21383,10 +21554,10 @@
         <v>208</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O37" s="37" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21394,17 +21565,17 @@
         <v>38</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D38" s="18" t="str">
         <f t="shared" si="3"/>
         <v>em_ZV3</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F38" s="13" t="s">
         <v>208</v>
@@ -21416,7 +21587,7 @@
         <v>208</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>208</v>
@@ -21431,10 +21602,10 @@
         <v>208</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O38" s="37" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21442,17 +21613,17 @@
         <v>39</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D39" s="18" t="str">
         <f t="shared" si="3"/>
         <v>em_ZV4</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F39" s="13" t="s">
         <v>208</v>
@@ -21464,7 +21635,7 @@
         <v>208</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>208</v>
@@ -21479,10 +21650,10 @@
         <v>208</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O39" s="37" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21490,17 +21661,17 @@
         <v>40</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D40" s="18" t="str">
         <f t="shared" si="3"/>
         <v>em_ZV5</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>208</v>
@@ -21512,7 +21683,7 @@
         <v>208</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>208</v>
@@ -21527,10 +21698,10 @@
         <v>208</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O40" s="37" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21580,7 +21751,7 @@
         <v>208</v>
       </c>
       <c r="O41" s="37" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21588,10 +21759,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D42" s="18" t="str">
         <f>_xlfn.CONCAT("para_",C42)</f>
@@ -21610,7 +21781,7 @@
         <v>208</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J42" s="16" t="s">
         <v>208</v>
@@ -21628,7 +21799,7 @@
         <v>215</v>
       </c>
       <c r="O42" s="37" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21636,10 +21807,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D43" s="18" t="str">
         <f>_xlfn.CONCAT("está_em_",C43)</f>
@@ -21658,7 +21829,7 @@
         <v>208</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>208</v>
@@ -21676,7 +21847,7 @@
         <v>215</v>
       </c>
       <c r="O43" s="37" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21726,7 +21897,7 @@
         <v>208</v>
       </c>
       <c r="O44" s="37" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21734,10 +21905,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C45" s="19" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D45" s="18" t="str">
         <f>_xlfn.CONCAT("ao_",C45)</f>
@@ -21756,7 +21927,7 @@
         <v>208</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>208</v>
@@ -21771,10 +21942,10 @@
         <v>208</v>
       </c>
       <c r="N45" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O45" s="37" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21782,10 +21953,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="D46" s="18" t="str">
         <f t="shared" ref="D46:D48" si="4">_xlfn.CONCAT("ao_",C46)</f>
@@ -21804,7 +21975,7 @@
         <v>208</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>208</v>
@@ -21819,10 +21990,10 @@
         <v>208</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O46" s="37" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21830,10 +22001,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D47" s="18" t="str">
         <f t="shared" si="4"/>
@@ -21852,7 +22023,7 @@
         <v>208</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>208</v>
@@ -21867,10 +22038,10 @@
         <v>208</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O47" s="37" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21878,10 +22049,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="D48" s="18" t="str">
         <f t="shared" si="4"/>
@@ -21900,7 +22071,7 @@
         <v>208</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J48" s="16" t="s">
         <v>208</v>
@@ -21915,10 +22086,10 @@
         <v>208</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O48" s="37" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21926,10 +22097,10 @@
         <v>49</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D49" s="18" t="str">
         <f t="shared" ref="D49:D50" si="5">_xlfn.CONCAT("ao_",C49)</f>
@@ -21948,7 +22119,7 @@
         <v>208</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>208</v>
@@ -21963,10 +22134,10 @@
         <v>208</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O49" s="37" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -21974,10 +22145,10 @@
         <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D50" s="18" t="str">
         <f t="shared" si="5"/>
@@ -21996,7 +22167,7 @@
         <v>208</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>208</v>
@@ -22011,10 +22182,10 @@
         <v>208</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O50" s="37" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22064,7 +22235,7 @@
         <v>208</v>
       </c>
       <c r="O51" s="37" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22072,10 +22243,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D52" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C52)</f>
@@ -22094,7 +22265,7 @@
         <v>208</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>208</v>
@@ -22109,10 +22280,10 @@
         <v>208</v>
       </c>
       <c r="N52" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O52" s="37" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22120,10 +22291,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D53" s="18" t="str">
         <f t="shared" ref="D53:D54" si="6">_xlfn.CONCAT("tem_",C53)</f>
@@ -22142,7 +22313,7 @@
         <v>208</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>208</v>
@@ -22157,10 +22328,10 @@
         <v>208</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O53" s="37" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22168,10 +22339,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D54" s="18" t="str">
         <f t="shared" si="6"/>
@@ -22190,7 +22361,7 @@
         <v>208</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>208</v>
@@ -22205,10 +22376,10 @@
         <v>208</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O54" s="37" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22216,10 +22387,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D55" s="18" t="str">
         <f>_xlfn.CONCAT("tem_",C55)</f>
@@ -22238,7 +22409,7 @@
         <v>208</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>208</v>
@@ -22253,10 +22424,10 @@
         <v>208</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O55" s="37" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -24514,2366 +24685,2380 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A619:B1048576">
-    <cfRule type="containsText" dxfId="707" priority="1805" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="723" priority="1809" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A619)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="1806" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="722" priority="1810" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A619)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="1807" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="721" priority="1811" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A619)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="1808" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="1812" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A619:B1048576 D1:M1 C17:C18 C14 N1:N19">
-    <cfRule type="containsText" dxfId="703" priority="1804" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="719" priority="1808" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 G2:H12 A1:B1 F25:G28 D1:H1 C1:C2 C12:C13 G24:I24 I12:M12 I1:M2 I20:M20 J7:K11 L3:M11 J21:M28 P1:XFD2 G16:M16 B17:H19 J17:M19 P17:XFD18 C15:C20 J13:M15 P13:XFD15 B13:H15 N1:N19 O2:O55 A2:A55 C29:C55 J45:M46 F45:H46 P44:XFD45 B45:B50 I45:I50 D45:E50">
-    <cfRule type="containsText" dxfId="702" priority="1800" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="718" priority="1804" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="701" priority="1801" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="717" priority="1805" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1802" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="716" priority="1806" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="699" priority="1803" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="1807" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 C14 N1:N19">
-    <cfRule type="cellIs" dxfId="698" priority="1798" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="1802" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="1799" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="713" priority="1803" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C17:C18 C14 N1:N19">
-    <cfRule type="containsText" dxfId="696" priority="1797" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="712" priority="1801" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11 D2:F2">
-    <cfRule type="containsText" dxfId="695" priority="1788" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="711" priority="1792" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="694" priority="1789" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="710" priority="1793" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1790" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="709" priority="1794" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="1791" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="1795" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="containsText" dxfId="691" priority="1766" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="707" priority="1770" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:XFD11 B7:B11 E7:E11">
-    <cfRule type="containsText" dxfId="690" priority="1746" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="706" priority="1750" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="1747" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="705" priority="1751" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1748" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="704" priority="1752" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="1749" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="1753" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:XFD12">
-    <cfRule type="containsText" dxfId="686" priority="1702" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="702" priority="1706" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1703" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="701" priority="1707" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1704" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="700" priority="1708" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="1705" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="1709" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="containsText" dxfId="682" priority="1698" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="698" priority="1702" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="1699" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="697" priority="1703" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="1700" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="696" priority="1704" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="1701" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="1705" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:XFD25">
-    <cfRule type="containsText" dxfId="678" priority="1690" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="694" priority="1694" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="1691" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="693" priority="1695" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1692" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="692" priority="1696" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="1693" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="1697" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="674" priority="1566" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="690" priority="1570" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12 B16 P19:XFD19">
-    <cfRule type="containsText" dxfId="673" priority="1562" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="689" priority="1566" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="1563" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="688" priority="1567" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="1564" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="687" priority="1568" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="1565" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="1569" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="669" priority="1557" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="685" priority="1561" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="1558" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="684" priority="1562" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="1559" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="683" priority="1563" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="1560" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="1564" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="665" priority="1553" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="681" priority="1557" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1554" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="680" priority="1558" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="1555" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="679" priority="1559" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="1556" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="1560" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11 P6:XFD6">
-    <cfRule type="containsText" dxfId="661" priority="1529" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="677" priority="1533" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1530" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="676" priority="1534" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="659" priority="1531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="675" priority="1535" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="1532" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="1536" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K6">
-    <cfRule type="containsText" dxfId="657" priority="1525" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="673" priority="1529" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1526" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="672" priority="1530" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="1527" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="671" priority="1531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="1528" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1532" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="653" priority="1521" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="669" priority="1525" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1522" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="668" priority="1526" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1523" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="667" priority="1527" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="1524" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1528" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:XFD22">
-    <cfRule type="containsText" dxfId="649" priority="1484" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="665" priority="1488" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1485" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="664" priority="1489" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1486" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="663" priority="1490" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="1487" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="1491" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:XFD3 D3:D11 B3:B11">
-    <cfRule type="containsText" dxfId="645" priority="1480" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="661" priority="1484" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="644" priority="1481" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="660" priority="1485" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="1482" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="659" priority="1486" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="1483" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="1487" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 P4:XFD4">
-    <cfRule type="containsText" dxfId="641" priority="1476" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="657" priority="1480" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="1477" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="656" priority="1481" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="1478" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="655" priority="1482" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="1479" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="1483" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 P5:XFD5">
-    <cfRule type="containsText" dxfId="637" priority="1472" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="653" priority="1476" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="1473" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="652" priority="1477" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="1474" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="651" priority="1478" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="1475" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="1479" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="633" priority="1468" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="649" priority="1472" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="1469" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="648" priority="1473" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="1470" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="647" priority="1474" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="1471" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="1475" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="629" priority="1467" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="645" priority="1471" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="cellIs" dxfId="628" priority="1465" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="1469" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="1466" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="643" priority="1470" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:H20 B21:B23">
-    <cfRule type="containsText" dxfId="626" priority="1464" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="642" priority="1468" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="625" priority="1463" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="641" priority="1467" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="624" priority="1462" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="640" priority="1466" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 P26:XFD26 E20:F20">
-    <cfRule type="containsText" dxfId="623" priority="1458" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="639" priority="1462" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="1459" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="638" priority="1463" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="1460" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="637" priority="1464" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="1461" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="1465" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="cellIs" dxfId="619" priority="1456" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="1460" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="1457" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="634" priority="1461" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F20">
-    <cfRule type="containsText" dxfId="617" priority="1455" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="633" priority="1459" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="616" priority="1451" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="632" priority="1455" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="1452" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="631" priority="1456" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="1453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="630" priority="1457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="1458" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:XFD28">
-    <cfRule type="containsText" dxfId="612" priority="1447" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="628" priority="1451" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="1448" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="627" priority="1452" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="1449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="626" priority="1453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="1454" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:XFD27">
-    <cfRule type="containsText" dxfId="608" priority="1443" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="624" priority="1447" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="607" priority="1444" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="623" priority="1448" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="606" priority="1445" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="622" priority="1449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="1446" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="1450" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:G23">
-    <cfRule type="containsText" dxfId="604" priority="1435" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="620" priority="1439" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="1436" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="619" priority="1440" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="602" priority="1437" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="618" priority="1441" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="601" priority="1438" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="1442" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H23">
-    <cfRule type="containsText" dxfId="600" priority="1431" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="616" priority="1435" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="1432" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="615" priority="1436" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="598" priority="1433" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="614" priority="1437" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="1434" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="1438" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="containsText" dxfId="596" priority="1119" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="612" priority="1123" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="1120" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="611" priority="1124" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="594" priority="1121" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="610" priority="1125" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="1122" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="1126" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="592" priority="1118" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="608" priority="1122" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="591" priority="1114" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="607" priority="1118" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="1115" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="606" priority="1119" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="1116" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="605" priority="1120" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="1117" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="1121" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28 E24:F24">
-    <cfRule type="containsText" dxfId="587" priority="1110" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="603" priority="1114" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="1111" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="602" priority="1115" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="1112" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="601" priority="1116" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="1113" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="1117" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="containsText" dxfId="583" priority="1105" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="599" priority="1109" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="582" priority="1101" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="598" priority="1105" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="1102" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="597" priority="1106" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="1103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="596" priority="1107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="1104" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1108" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="containsText" dxfId="578" priority="1097" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="594" priority="1101" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="1098" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="593" priority="1102" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="1099" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="592" priority="1103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="1100" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="1104" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="574" priority="1093" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="590" priority="1097" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="1094" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="589" priority="1098" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="1095" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="588" priority="1099" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="1096" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="1100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="containsText" dxfId="570" priority="1089" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="586" priority="1093" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="569" priority="1090" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="585" priority="1094" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="1091" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="584" priority="1095" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1096" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="containsText" dxfId="566" priority="1085" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="582" priority="1089" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="1086" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="581" priority="1090" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="1087" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="580" priority="1091" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="1088" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="1092" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="562" priority="896" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="578" priority="900" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="cellIs" dxfId="561" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="898" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="895" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="576" priority="899" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="559" priority="893" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="575" priority="897" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="558" priority="892" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="574" priority="896" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C7:C11">
-    <cfRule type="containsText" dxfId="557" priority="884" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="573" priority="888" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="885" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="572" priority="889" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="886" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="571" priority="890" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="891" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="553" priority="883" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="569" priority="887" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="552" priority="879" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="568" priority="883" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="880" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="567" priority="884" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="881" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="566" priority="885" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="886" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="548" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="881" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="878" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="563" priority="882" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="546" priority="876" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="562" priority="880" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="545" priority="868" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="561" priority="872" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="869" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="560" priority="873" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="870" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="559" priority="874" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="875" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="541" priority="852" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="557" priority="856" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="853" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="556" priority="857" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="854" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="555" priority="858" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="855" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="859" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="537" priority="848" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="553" priority="852" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="849" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="552" priority="853" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="850" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="551" priority="854" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="855" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="533" priority="844" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="549" priority="848" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="845" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="548" priority="849" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="846" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="547" priority="850" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="851" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="529" priority="839" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="545" priority="843" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="528" priority="835" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="544" priority="839" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="836" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="543" priority="840" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="837" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="542" priority="841" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="842" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="524" priority="834" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="540" priority="838" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="523" priority="830" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="539" priority="834" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="831" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="538" priority="835" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="832" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="537" priority="836" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="837" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="519" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="832" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="829" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="534" priority="833" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="517" priority="827" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="533" priority="831" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C28">
-    <cfRule type="containsText" dxfId="516" priority="819" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="532" priority="823" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="820" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="531" priority="824" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="821" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="530" priority="825" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="822" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="826" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="512" priority="818" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="528" priority="822" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="511" priority="814" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="527" priority="818" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="815" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="526" priority="819" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="816" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="525" priority="820" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="821" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="507" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="816" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="813" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="522" priority="817" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="505" priority="811" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="521" priority="815" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D23">
-    <cfRule type="containsText" dxfId="504" priority="791" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="520" priority="795" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="792" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="519" priority="796" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="793" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="518" priority="797" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="794" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="798" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D28">
-    <cfRule type="containsText" dxfId="500" priority="787" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="516" priority="791" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="788" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="515" priority="792" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="789" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="514" priority="793" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="794" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="496" priority="771" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="512" priority="775" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="495" priority="772" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="511" priority="776" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="773" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="510" priority="777" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="778" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="492" priority="767" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="508" priority="771" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="491" priority="768" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="507" priority="772" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="769" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="506" priority="773" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="489" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="774" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6">
-    <cfRule type="containsText" dxfId="488" priority="763" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="504" priority="767" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="764" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="503" priority="768" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="765" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="502" priority="769" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="766" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="770" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="containsText" dxfId="484" priority="759" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="500" priority="763" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="760" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="499" priority="764" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="761" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="498" priority="765" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="766" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="480" priority="758" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="496" priority="762" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="479" priority="754" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="495" priority="758" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="755" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="494" priority="759" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="756" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="493" priority="760" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="761" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="475" priority="752" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="756" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="753" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="490" priority="757" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="473" priority="751" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="489" priority="755" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="containsText" dxfId="472" priority="747" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="488" priority="751" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="471" priority="748" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="487" priority="752" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="749" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="486" priority="753" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="750" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="754" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N28">
-    <cfRule type="containsText" dxfId="468" priority="743" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="484" priority="747" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="467" priority="744" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="483" priority="748" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="745" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="482" priority="749" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="746" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="750" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="464" priority="742" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="480" priority="746" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="463" priority="738" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="479" priority="742" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="739" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="478" priority="743" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="740" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="477" priority="744" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="745" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="459" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="740" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="737" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="474" priority="741" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="457" priority="735" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="473" priority="739" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N11">
-    <cfRule type="containsText" dxfId="456" priority="727" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="472" priority="731" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="455" priority="728" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="471" priority="732" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="729" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="470" priority="733" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="730" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="734" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="452" priority="723" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="468" priority="727" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="724" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="467" priority="728" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="725" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="466" priority="729" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="730" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="448" priority="719" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="464" priority="723" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="720" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="463" priority="724" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="721" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="462" priority="725" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="726" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="444" priority="715" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="460" priority="719" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="716" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="459" priority="720" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="717" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="458" priority="721" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="722" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29:I29 F30:H30 G41:I41 E42:H43 E31:H40 J29:M43">
-    <cfRule type="containsText" dxfId="440" priority="699" operator="containsText" text="_">
+  <conditionalFormatting sqref="G29:I29 F30:H30 G41:I41 E42:H43 E31:H35 J29:M43 F36:H40">
+    <cfRule type="containsText" dxfId="456" priority="703" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="700" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="455" priority="704" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="701" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="454" priority="705" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="702" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="706" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:XFD30">
-    <cfRule type="containsText" dxfId="436" priority="691" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="452" priority="695" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="692" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="451" priority="696" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="693" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="450" priority="697" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="698" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:XFD40">
-    <cfRule type="containsText" dxfId="432" priority="687" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="448" priority="691" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="688" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="447" priority="692" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="689" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="446" priority="693" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="694" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="428" priority="686" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="444" priority="690" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="427" priority="682" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="443" priority="686" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="683" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="442" priority="687" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="684" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="441" priority="688" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="689" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="containsText" dxfId="423" priority="678" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="439" priority="682" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="679" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="438" priority="683" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="680" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="437" priority="684" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="685" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="419" priority="674" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="435" priority="678" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="675" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="434" priority="679" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="676" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="433" priority="680" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="681" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:B40">
-    <cfRule type="containsText" dxfId="415" priority="670" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="431" priority="674" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="671" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="430" priority="675" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="672" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="429" priority="676" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="673" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="677" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="411" priority="666" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="427" priority="670" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="667" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="426" priority="671" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="668" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="425" priority="672" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="673" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="407" priority="662" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="423" priority="666" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="663" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="422" priority="667" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="664" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="421" priority="668" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="669" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D40">
-    <cfRule type="containsText" dxfId="403" priority="658" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="419" priority="662" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="659" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="418" priority="663" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="660" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="417" priority="664" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="665" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="containsText" dxfId="399" priority="654" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="415" priority="658" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="655" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="414" priority="659" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="656" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="413" priority="660" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="661" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="containsText" dxfId="395" priority="650" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="411" priority="654" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="651" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="410" priority="655" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="652" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="409" priority="656" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="657" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="391" priority="649" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="407" priority="653" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="390" priority="645" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="406" priority="649" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="646" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="405" priority="650" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="647" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="404" priority="651" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="652" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="cellIs" dxfId="386" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="647" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="644" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="401" priority="648" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="384" priority="642" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="400" priority="646" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="383" priority="638" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="399" priority="642" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="639" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="398" priority="643" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="640" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="397" priority="644" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="645" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="379" priority="634" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="395" priority="638" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="635" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="394" priority="639" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="636" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="393" priority="640" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="641" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="375" priority="630" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="391" priority="634" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="631" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="390" priority="635" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="632" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="389" priority="636" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="637" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:XFD42">
-    <cfRule type="containsText" dxfId="371" priority="606" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="387" priority="610" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="607" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="386" priority="611" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="608" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="385" priority="612" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="613" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:XFD43">
-    <cfRule type="containsText" dxfId="367" priority="602" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="383" priority="606" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="603" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="382" priority="607" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="604" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="381" priority="608" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="609" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="363" priority="601" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="379" priority="605" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="362" priority="597" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="378" priority="601" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="598" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="377" priority="602" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="599" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="376" priority="603" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="604" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:F41">
-    <cfRule type="containsText" dxfId="358" priority="593" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="374" priority="597" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="594" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="373" priority="598" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="595" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="372" priority="599" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="600" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="354" priority="589" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="370" priority="593" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="590" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="369" priority="594" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="591" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="368" priority="595" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="596" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43">
-    <cfRule type="containsText" dxfId="350" priority="585" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="366" priority="589" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="586" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="365" priority="590" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="587" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="364" priority="591" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="592" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="346" priority="581" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="362" priority="585" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="582" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="361" priority="586" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="583" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="360" priority="587" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="588" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D43">
-    <cfRule type="containsText" dxfId="342" priority="577" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="358" priority="581" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="578" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="357" priority="582" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="579" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="356" priority="583" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="584" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="containsText" dxfId="338" priority="573" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="354" priority="577" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="574" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="353" priority="578" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="575" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="352" priority="579" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="580" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="containsText" dxfId="334" priority="569" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="350" priority="573" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="570" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="349" priority="574" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="571" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="348" priority="575" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="576" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="330" priority="568" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="346" priority="572" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="329" priority="564" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="345" priority="568" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="565" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="344" priority="569" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="566" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="343" priority="570" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="571" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="cellIs" dxfId="325" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="566" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="563" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="340" priority="567" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="323" priority="561" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="339" priority="565" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="322" priority="557" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="338" priority="561" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="558" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="337" priority="562" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="559" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="336" priority="563" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="564" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="318" priority="553" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="334" priority="557" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="554" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="333" priority="558" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="555" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="332" priority="559" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="556" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="560" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42">
-    <cfRule type="containsText" dxfId="314" priority="549" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="330" priority="553" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="550" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="329" priority="554" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="551" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="328" priority="555" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="556" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="310" priority="548" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="326" priority="552" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="309" priority="544" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="325" priority="548" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="545" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="324" priority="549" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="546" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="323" priority="550" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="547" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="551" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="cellIs" dxfId="305" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="546" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="543" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="320" priority="547" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="303" priority="541" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="319" priority="545" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="302" priority="537" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="318" priority="541" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="538" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="317" priority="542" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="539" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="316" priority="543" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="544" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="298" priority="533" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="314" priority="537" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="534" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="313" priority="538" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="535" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="312" priority="539" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="540" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43">
-    <cfRule type="containsText" dxfId="294" priority="529" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="310" priority="533" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="530" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="309" priority="534" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="292" priority="531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="308" priority="535" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="536" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I30:I40">
-    <cfRule type="containsText" dxfId="290" priority="525" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="306" priority="529" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="526" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="305" priority="530" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="527" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="304" priority="531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="528" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="532" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:I43">
-    <cfRule type="containsText" dxfId="286" priority="521" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="302" priority="525" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="522" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="301" priority="526" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="523" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="300" priority="527" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="528" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="containsText" dxfId="282" priority="513" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="298" priority="517" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="514" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="297" priority="518" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="515" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="296" priority="519" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="520" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:XFD16">
-    <cfRule type="containsText" dxfId="278" priority="398" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="294" priority="402" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="399" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="293" priority="403" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="400" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="292" priority="404" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="405" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="containsText" dxfId="274" priority="394" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="290" priority="398" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="395" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="289" priority="399" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="396" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="288" priority="400" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="401" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="270" priority="389" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="286" priority="393" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="269" priority="385" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="285" priority="389" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="386" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="284" priority="390" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="267" priority="387" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="283" priority="391" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="388" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="392" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="containsText" dxfId="265" priority="381" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="281" priority="385" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="382" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="280" priority="386" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="383" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="279" priority="387" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="388" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="261" priority="380" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="277" priority="384" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="260" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="382" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="259" priority="379" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="275" priority="383" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="258" priority="377" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="274" priority="381" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="257" priority="369" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="273" priority="373" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="370" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="272" priority="374" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="371" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="271" priority="375" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="376" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="253" priority="359" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="269" priority="363" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="252" priority="355" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="268" priority="359" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="356" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="267" priority="360" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="357" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="266" priority="361" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="362" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="248" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="357" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="354" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="263" priority="358" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="246" priority="352" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="262" priority="356" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="245" priority="351" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="261" priority="355" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="244" priority="347" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="260" priority="351" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="348" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="259" priority="352" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="349" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="258" priority="353" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="354" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="cellIs" dxfId="240" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="349" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="239" priority="346" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="255" priority="350" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="238" priority="344" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="254" priority="348" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="containsText" dxfId="237" priority="340" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="253" priority="344" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="341" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="252" priority="345" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="342" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="251" priority="346" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="347" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:M44">
-    <cfRule type="containsText" dxfId="233" priority="336" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="249" priority="340" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="337" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="248" priority="341" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="338" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="247" priority="342" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="343" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:XFD46">
-    <cfRule type="containsText" dxfId="229" priority="328" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="245" priority="332" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="329" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="244" priority="333" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="330" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="243" priority="334" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P46)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="335" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F44">
-    <cfRule type="containsText" dxfId="225" priority="319" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="241" priority="323" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="320" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="240" priority="324" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="321" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="239" priority="325" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="326" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="containsText" dxfId="221" priority="299" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="237" priority="303" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="300" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="236" priority="304" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="301" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="235" priority="305" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="306" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="217" priority="295" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="233" priority="299" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="296" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="232" priority="300" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="297" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="231" priority="301" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="302" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="213" priority="250" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="229" priority="254" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="212" priority="246" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="228" priority="250" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="247" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="227" priority="251" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="248" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="226" priority="252" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="209" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="253" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="208" priority="242" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="224" priority="246" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="243" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="223" priority="247" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="244" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="222" priority="248" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="249" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="204" priority="238" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="220" priority="242" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="239" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="219" priority="243" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="240" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="218" priority="244" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="245" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H48 J47:M48">
-    <cfRule type="containsText" dxfId="200" priority="234" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="216" priority="238" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="235" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="215" priority="239" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="236" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="214" priority="240" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="241" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47:XFD47">
-    <cfRule type="containsText" dxfId="196" priority="230" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="212" priority="234" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="231" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="211" priority="235" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="232" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="210" priority="236" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="237" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:XFD48">
-    <cfRule type="containsText" dxfId="192" priority="226" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="208" priority="230" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="227" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="207" priority="231" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="228" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="206" priority="232" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="233" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:N50">
-    <cfRule type="containsText" dxfId="188" priority="178" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="204" priority="182" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="179" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="203" priority="183" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="180" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="202" priority="184" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="185" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H50 J49:M50">
-    <cfRule type="containsText" dxfId="184" priority="174" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="200" priority="178" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="175" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="199" priority="179" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="176" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="198" priority="180" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="181" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:XFD49">
-    <cfRule type="containsText" dxfId="180" priority="170" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="196" priority="174" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="171" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="195" priority="175" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="172" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="194" priority="176" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="177" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50:XFD50">
-    <cfRule type="containsText" dxfId="176" priority="166" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="192" priority="170" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="167" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="191" priority="171" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="168" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="190" priority="172" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="173" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:I51 J51:M53 F52:H53 E52:E55">
-    <cfRule type="containsText" dxfId="172" priority="162" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="188" priority="166" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="163" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="187" priority="167" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="164" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="186" priority="168" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="169" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:XFD52">
-    <cfRule type="containsText" dxfId="168" priority="158" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="184" priority="162" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="159" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="183" priority="163" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="160" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="182" priority="164" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="165" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:XFD53">
-    <cfRule type="containsText" dxfId="164" priority="154" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="180" priority="158" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="155" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="179" priority="159" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="156" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="178" priority="160" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="161" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="containsText" dxfId="160" priority="150" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="176" priority="154" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="151" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="175" priority="155" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="152" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="174" priority="156" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="157" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B55">
-    <cfRule type="containsText" dxfId="156" priority="146" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="172" priority="150" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="147" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="171" priority="151" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="148" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="170" priority="152" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="153" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D55">
-    <cfRule type="containsText" dxfId="152" priority="142" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="168" priority="146" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="143" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="167" priority="147" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="144" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="166" priority="148" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="149" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="containsText" dxfId="148" priority="138" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="164" priority="142" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="139" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="163" priority="143" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="162" priority="144" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="145" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="144" priority="134" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="160" priority="138" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="135" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="159" priority="139" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="136" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="158" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="141" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:I55">
-    <cfRule type="containsText" dxfId="140" priority="130" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="156" priority="134" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="131" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="155" priority="135" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="132" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="154" priority="136" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="137" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="containsText" dxfId="136" priority="129" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="152" priority="133" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="containsText" dxfId="135" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="151" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="150" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="149" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="containsText" dxfId="131" priority="121" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="147" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="122" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="146" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="145" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="containsText" dxfId="127" priority="117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="143" priority="121" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="142" priority="122" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="141" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="124" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:H54 J54:M54">
-    <cfRule type="containsText" dxfId="123" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="139" priority="117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="138" priority="118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="137" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54:XFD54">
-    <cfRule type="containsText" dxfId="119" priority="109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="135" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="134" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="133" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52:N55">
-    <cfRule type="containsText" dxfId="115" priority="97" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="131" priority="101" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="98" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="130" priority="102" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="129" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="104" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:H55 J55:M55">
-    <cfRule type="containsText" dxfId="111" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="127" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="126" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="125" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:XFD55">
-    <cfRule type="containsText" dxfId="107" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="123" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="122" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="121" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="103" priority="68" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="119" priority="72" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="102" priority="64" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="118" priority="68" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="65" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="117" priority="69" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="66" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="116" priority="70" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="71" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="cellIs" dxfId="98" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="66" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="63" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="113" priority="67" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="containsText" dxfId="96" priority="61" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="112" priority="65" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:XFD35">
-    <cfRule type="containsText" dxfId="95" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="111" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="110" priority="62" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="109" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="64" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38:XFD38">
-    <cfRule type="containsText" dxfId="91" priority="53" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="107" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="54" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="106" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="105" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:XFD37">
-    <cfRule type="containsText" dxfId="87" priority="49" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="103" priority="53" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="50" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="102" priority="54" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="101" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="56" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:XFD36">
-    <cfRule type="containsText" dxfId="83" priority="45" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="99" priority="49" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="46" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="98" priority="50" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="97" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P36)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="52" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:XFD31">
-    <cfRule type="containsText" dxfId="79" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="95" priority="45" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="94" priority="46" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="93" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32:XFD32">
-    <cfRule type="containsText" dxfId="75" priority="37" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="91" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="38" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="90" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="89" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:XFD33">
-    <cfRule type="containsText" dxfId="71" priority="33" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="87" priority="37" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="34" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="86" priority="38" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="85" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="40" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:XFD39">
-    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="83" priority="33" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="82" priority="34" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="81" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="36" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N40">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="79" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="26" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="78" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="77" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:XFD34">
-    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="75" priority="25" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="74" priority="26" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36:E40">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",E36)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26891,7 +27076,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" sqref="A1:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26912,25 +27097,25 @@
         <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -26938,10 +27123,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>232</v>
@@ -26950,7 +27135,7 @@
         <v>236</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="44" t="s">
         <v>208</v>
@@ -26967,10 +27152,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>231</v>
@@ -26979,7 +27164,7 @@
         <v>235</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G3" s="44" t="s">
         <v>208</v>
@@ -26996,19 +27181,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>208</v>
@@ -27025,19 +27210,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>282</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>208</v>
@@ -27054,19 +27239,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>208</v>
@@ -27083,19 +27268,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>208</v>
@@ -27112,19 +27297,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G8" s="44" t="s">
         <v>208</v>
@@ -27141,19 +27326,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>208</v>
@@ -27170,19 +27355,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>208</v>
@@ -27199,19 +27384,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>208</v>
@@ -27228,16 +27413,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F12" s="19">
         <v>1</v>
@@ -27257,16 +27442,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F13" s="19">
         <v>1</v>
@@ -27286,16 +27471,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F14" s="19">
         <v>1</v>
@@ -27311,7 +27496,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15"/>
+      <c r="A15" s="4">
+        <v>15</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>618</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>554</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16"/>
@@ -28948,200 +29159,242 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A560:A1048576">
-    <cfRule type="containsText" dxfId="55" priority="249" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="67" priority="261" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A560)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="250" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="66" priority="262" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A560)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="251" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="65" priority="263" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A560)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="264" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A560:A1048576 B1:I1">
-    <cfRule type="containsText" dxfId="51" priority="248" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="63" priority="260" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 J4:XFD4 F6 A2:C9 A1:XFD1 J6:XFD6 B10:C12 A10:A14">
-    <cfRule type="containsText" dxfId="50" priority="244" operator="containsText" text="_">
+  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 J4:XFD4 F6 A1:XFD1 J6:XFD6 B2:C12 A2:A15">
+    <cfRule type="containsText" dxfId="62" priority="256" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="245" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="61" priority="257" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="246" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="60" priority="258" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="259" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="cellIs" dxfId="46" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="254" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="243" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="57" priority="255" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="containsText" dxfId="44" priority="241" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="56" priority="253" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8">
-    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="55" priority="97" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="54" priority="98" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="53" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="51" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="50" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="49" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 D10:F10">
-    <cfRule type="containsText" dxfId="35" priority="65" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="47" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="66" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="46" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="45" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F12">
-    <cfRule type="containsText" dxfId="31" priority="61" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="42" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="41" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I12">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="38" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:F13">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:I13">
     <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",G13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",G13)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G13)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:C13">
+  <conditionalFormatting sqref="B14:C14">
     <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B14)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:F13">
+  <conditionalFormatting sqref="D14:F14">
     <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D14)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13:I13">
+  <conditionalFormatting sqref="G14:I14">
     <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",G14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",G14)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G14)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B14:C14">
+  <conditionalFormatting sqref="B15:C15">
     <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",B14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",B15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",B14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",B15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B15)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14">
+  <conditionalFormatting sqref="D15:F15">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",D15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D15)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:I14">
+  <conditionalFormatting sqref="G15:I15">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="_">
-      <formula>NOT(ISERROR(SEARCH("_",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("_",G15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Functional">
-      <formula>NOT(ISERROR(SEARCH("Functional",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Functional",G15)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
-      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G15)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"VNulo"</formula>
@@ -29153,4 +29406,27 @@
     <ignoredError sqref="F9:F10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52324830-75E2-43E1-A323-8A73C02DA6D3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ontologia_Ambientes.xlsx
+++ b/Ontologia_Ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05BD346-5722-449B-8886-6A6E61ED5DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A25034F-FC28-41F7-814D-B24939299461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -1674,9 +1674,6 @@
     <t>Hospitalar</t>
   </si>
   <si>
-    <t>Geral</t>
-  </si>
-  <si>
     <t>Setores orientados ao Zenit significa estar na cobertura ou telhado, considerados como a quinta fachada</t>
   </si>
   <si>
@@ -2010,15 +2007,6 @@
     <t>Nivel</t>
   </si>
   <si>
-    <t>Construtivo</t>
-  </si>
-  <si>
-    <t>Legal</t>
-  </si>
-  <si>
-    <t>Natural</t>
-  </si>
-  <si>
     <t>setorfuncional</t>
   </si>
   <si>
@@ -2104,6 +2092,18 @@
   </si>
   <si>
     <t>"orientado ao norte"</t>
+  </si>
+  <si>
+    <t>SetorGeral</t>
+  </si>
+  <si>
+    <t>CotaConstrutiva</t>
+  </si>
+  <si>
+    <t>CotaLegal</t>
+  </si>
+  <si>
+    <t>CotaNatural</t>
   </si>
 </sst>
 </file>
@@ -16126,9 +16126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
   <dimension ref="A1:O97"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16219,16 +16219,16 @@
         <v>527</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K2" s="45" t="str">
         <f>_xlfn.CONCAT("ZON-",A2)</f>
@@ -16276,7 +16276,7 @@
         <v>208</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="K3" s="45" t="str">
         <f t="shared" ref="K3:K24" si="0">_xlfn.CONCAT("ZON-",A3)</f>
@@ -16324,7 +16324,7 @@
         <v>208</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K4" s="45" t="str">
         <f t="shared" si="0"/>
@@ -16372,7 +16372,7 @@
         <v>208</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="K5" s="45" t="str">
         <f t="shared" ref="K5:K6" si="1">_xlfn.CONCAT("ZON-",A5)</f>
@@ -16420,7 +16420,7 @@
         <v>208</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="K6" s="45" t="str">
         <f t="shared" si="1"/>
@@ -16436,7 +16436,7 @@
         <v>539</v>
       </c>
       <c r="O6" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16468,7 +16468,7 @@
         <v>208</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="K7" s="45" t="str">
         <f t="shared" si="0"/>
@@ -16484,7 +16484,7 @@
         <v>539</v>
       </c>
       <c r="O7" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16510,7 +16510,7 @@
         <v>208</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>208</v>
@@ -16529,10 +16529,10 @@
         <v>444</v>
       </c>
       <c r="N8" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O8" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16577,10 +16577,10 @@
         <v>444</v>
       </c>
       <c r="N9" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O9" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16625,10 +16625,10 @@
         <v>444</v>
       </c>
       <c r="N10" s="35" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O10" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -16670,10 +16670,10 @@
         <v>457</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N11" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O11" s="39" t="s">
         <v>357</v>
@@ -16718,10 +16718,10 @@
         <v>457</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N12" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O12" s="39" t="s">
         <v>358</v>
@@ -16766,10 +16766,10 @@
         <v>457</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N13" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O13" s="39" t="s">
         <v>359</v>
@@ -16814,10 +16814,10 @@
         <v>457</v>
       </c>
       <c r="M14" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N14" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O14" s="39" t="s">
         <v>360</v>
@@ -16846,7 +16846,7 @@
         <v>208</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>208</v>
@@ -16865,7 +16865,7 @@
         <v>444</v>
       </c>
       <c r="N15" s="35" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O15" s="39" t="s">
         <v>361</v>
@@ -16913,7 +16913,7 @@
         <v>444</v>
       </c>
       <c r="N16" s="35" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O16" s="39" t="s">
         <v>362</v>
@@ -16933,7 +16933,7 @@
         <v>483</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>324</v>
@@ -16961,7 +16961,7 @@
         <v>444</v>
       </c>
       <c r="N17" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O17" s="39" t="s">
         <v>355</v>
@@ -16981,7 +16981,7 @@
         <v>483</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>323</v>
@@ -17009,7 +17009,7 @@
         <v>444</v>
       </c>
       <c r="N18" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O18" s="39" t="s">
         <v>356</v>
@@ -17029,7 +17029,7 @@
         <v>483</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>542</v>
+        <v>681</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>325</v>
@@ -17057,7 +17057,7 @@
         <v>444</v>
       </c>
       <c r="N19" s="35" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O19" s="39" t="s">
         <v>356</v>
@@ -17086,7 +17086,7 @@
         <v>208</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="I20" s="11" t="s">
         <v>208</v>
@@ -17102,10 +17102,10 @@
         <v>457</v>
       </c>
       <c r="M20" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N20" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O20" s="39" t="s">
         <v>363</v>
@@ -17153,7 +17153,7 @@
         <v>458</v>
       </c>
       <c r="N21" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O21" s="39" t="s">
         <v>364</v>
@@ -17201,7 +17201,7 @@
         <v>458</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O22" s="39" t="s">
         <v>443</v>
@@ -17249,7 +17249,7 @@
         <v>458</v>
       </c>
       <c r="N23" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O23" s="39" t="s">
         <v>365</v>
@@ -17297,7 +17297,7 @@
         <v>458</v>
       </c>
       <c r="N24" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O24" s="39" t="s">
         <v>366</v>
@@ -17314,13 +17314,13 @@
         <v>345</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>208</v>
@@ -17339,16 +17339,16 @@
         <v>AND-25</v>
       </c>
       <c r="L25" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="N25" s="36" t="s">
+        <v>602</v>
+      </c>
+      <c r="O25" s="35" t="s">
         <v>572</v>
-      </c>
-      <c r="M25" s="35" t="s">
-        <v>585</v>
-      </c>
-      <c r="N25" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="O25" s="35" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17362,13 +17362,13 @@
         <v>345</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>208</v>
@@ -17387,16 +17387,16 @@
         <v>AND-26</v>
       </c>
       <c r="L26" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M26" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17410,13 +17410,13 @@
         <v>345</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>208</v>
@@ -17435,16 +17435,16 @@
         <v>AND-27</v>
       </c>
       <c r="L27" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M27" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N27" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17458,13 +17458,13 @@
         <v>345</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>208</v>
@@ -17483,16 +17483,16 @@
         <v>AND-28</v>
       </c>
       <c r="L28" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M28" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N28" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17506,13 +17506,13 @@
         <v>345</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>208</v>
@@ -17531,16 +17531,16 @@
         <v>AND-29</v>
       </c>
       <c r="L29" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M29" s="35" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17554,13 +17554,13 @@
         <v>345</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G30" s="11" t="s">
         <v>208</v>
@@ -17579,16 +17579,16 @@
         <v>AND-30</v>
       </c>
       <c r="L30" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M30" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N30" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17602,13 +17602,13 @@
         <v>345</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>208</v>
@@ -17627,16 +17627,16 @@
         <v>AND-31</v>
       </c>
       <c r="L31" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M31" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N31" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17650,13 +17650,13 @@
         <v>345</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>208</v>
@@ -17675,16 +17675,16 @@
         <v>AND-32</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M32" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N32" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17698,13 +17698,13 @@
         <v>345</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>208</v>
@@ -17723,16 +17723,16 @@
         <v>AND-33</v>
       </c>
       <c r="L33" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M33" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N33" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17746,13 +17746,13 @@
         <v>345</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>208</v>
@@ -17771,16 +17771,16 @@
         <v>AND-34</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M34" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N34" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17794,13 +17794,13 @@
         <v>345</v>
       </c>
       <c r="D35" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>649</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G35" s="11" t="s">
         <v>208</v>
@@ -17819,16 +17819,16 @@
         <v>AND-35</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M35" s="35" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="N35" s="36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O35" s="35" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17842,13 +17842,13 @@
         <v>345</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>653</v>
+        <v>682</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>208</v>
@@ -17867,16 +17867,16 @@
         <v>AND-36</v>
       </c>
       <c r="L36" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M36" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="N36" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="N36" s="36" t="s">
-        <v>589</v>
-      </c>
       <c r="O36" s="35" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17890,13 +17890,13 @@
         <v>345</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>208</v>
@@ -17915,16 +17915,16 @@
         <v>AND-37</v>
       </c>
       <c r="L37" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M37" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N37" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O37" s="35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17938,13 +17938,13 @@
         <v>345</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>654</v>
+        <v>683</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G38" s="11" t="s">
         <v>208</v>
@@ -17963,16 +17963,16 @@
         <v>AND-38</v>
       </c>
       <c r="L38" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M38" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N38" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="O38" s="35" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17986,13 +17986,13 @@
         <v>345</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G39" s="11" t="s">
         <v>208</v>
@@ -18011,16 +18011,16 @@
         <v>AND-39</v>
       </c>
       <c r="L39" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M39" s="36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="N39" s="35" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O39" s="35" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18065,10 +18065,10 @@
         <v>456</v>
       </c>
       <c r="N40" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="O40" s="39" t="s">
         <v>555</v>
-      </c>
-      <c r="O40" s="39" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18113,7 +18113,7 @@
         <v>456</v>
       </c>
       <c r="N41" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O41" s="39" t="s">
         <v>368</v>
@@ -18161,7 +18161,7 @@
         <v>456</v>
       </c>
       <c r="N42" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O42" s="40" t="s">
         <v>367</v>
@@ -18209,7 +18209,7 @@
         <v>456</v>
       </c>
       <c r="N43" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O43" s="40" t="s">
         <v>369</v>
@@ -18257,7 +18257,7 @@
         <v>456</v>
       </c>
       <c r="N44" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O44" s="40" t="s">
         <v>370</v>
@@ -18305,7 +18305,7 @@
         <v>456</v>
       </c>
       <c r="N45" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O45" s="40" t="s">
         <v>371</v>
@@ -18325,7 +18325,7 @@
         <v>391</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>255</v>
@@ -18353,7 +18353,7 @@
         <v>456</v>
       </c>
       <c r="N46" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O46" s="40" t="s">
         <v>372</v>
@@ -18373,7 +18373,7 @@
         <v>391</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>256</v>
@@ -18401,7 +18401,7 @@
         <v>456</v>
       </c>
       <c r="N47" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O47" s="40" t="s">
         <v>373</v>
@@ -18449,7 +18449,7 @@
         <v>456</v>
       </c>
       <c r="N48" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O48" s="40" t="s">
         <v>374</v>
@@ -18497,7 +18497,7 @@
         <v>456</v>
       </c>
       <c r="N49" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O49" s="40" t="s">
         <v>375</v>
@@ -18545,7 +18545,7 @@
         <v>456</v>
       </c>
       <c r="N50" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O50" s="40" t="s">
         <v>376</v>
@@ -18593,10 +18593,10 @@
         <v>456</v>
       </c>
       <c r="N51" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O51" s="40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18641,10 +18641,10 @@
         <v>456</v>
       </c>
       <c r="N52" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O52" s="40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18689,10 +18689,10 @@
         <v>456</v>
       </c>
       <c r="N53" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O53" s="40" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -18737,7 +18737,7 @@
         <v>456</v>
       </c>
       <c r="N54" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O54" s="40" t="s">
         <v>377</v>
@@ -18785,7 +18785,7 @@
         <v>456</v>
       </c>
       <c r="N55" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O55" s="40" t="s">
         <v>378</v>
@@ -18833,7 +18833,7 @@
         <v>456</v>
       </c>
       <c r="N56" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O56" s="40" t="s">
         <v>379</v>
@@ -18881,7 +18881,7 @@
         <v>456</v>
       </c>
       <c r="N57" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O57" s="40" t="s">
         <v>380</v>
@@ -18929,7 +18929,7 @@
         <v>456</v>
       </c>
       <c r="N58" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O58" s="40" t="s">
         <v>381</v>
@@ -18977,7 +18977,7 @@
         <v>456</v>
       </c>
       <c r="N59" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O59" s="40" t="s">
         <v>382</v>
@@ -19025,7 +19025,7 @@
         <v>456</v>
       </c>
       <c r="N60" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O60" s="40" t="s">
         <v>383</v>
@@ -19073,7 +19073,7 @@
         <v>456</v>
       </c>
       <c r="N61" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O61" s="40" t="s">
         <v>384</v>
@@ -19121,10 +19121,10 @@
         <v>456</v>
       </c>
       <c r="N62" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O62" s="35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19144,7 +19144,7 @@
         <v>437</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G63" s="11" t="s">
         <v>208</v>
@@ -19169,10 +19169,10 @@
         <v>456</v>
       </c>
       <c r="N63" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O63" s="35" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19192,7 +19192,7 @@
         <v>437</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>208</v>
@@ -19217,10 +19217,10 @@
         <v>456</v>
       </c>
       <c r="N64" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O64" s="35" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19240,7 +19240,7 @@
         <v>437</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G65" s="11" t="s">
         <v>208</v>
@@ -19265,10 +19265,10 @@
         <v>456</v>
       </c>
       <c r="N65" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O65" s="35" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19288,7 +19288,7 @@
         <v>437</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G66" s="11" t="s">
         <v>208</v>
@@ -19313,10 +19313,10 @@
         <v>456</v>
       </c>
       <c r="N66" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O66" s="35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19336,7 +19336,7 @@
         <v>437</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>208</v>
@@ -19361,10 +19361,10 @@
         <v>456</v>
       </c>
       <c r="N67" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O67" s="35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19384,7 +19384,7 @@
         <v>437</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G68" s="11" t="s">
         <v>208</v>
@@ -19409,10 +19409,10 @@
         <v>456</v>
       </c>
       <c r="N68" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O68" s="35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19432,7 +19432,7 @@
         <v>437</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>208</v>
@@ -19457,10 +19457,10 @@
         <v>456</v>
       </c>
       <c r="N69" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O69" s="35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19480,7 +19480,7 @@
         <v>437</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G70" s="11" t="s">
         <v>208</v>
@@ -19505,10 +19505,10 @@
         <v>456</v>
       </c>
       <c r="N70" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O70" s="35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19553,10 +19553,10 @@
         <v>456</v>
       </c>
       <c r="N71" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O71" s="40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19601,7 +19601,7 @@
         <v>456</v>
       </c>
       <c r="N72" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="O72" s="40" t="s">
         <v>268</v>
@@ -19615,7 +19615,7 @@
         <v>230</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>392</v>
@@ -19663,7 +19663,7 @@
         <v>230</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>392</v>
@@ -19711,7 +19711,7 @@
         <v>230</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>392</v>
@@ -19729,10 +19729,10 @@
         <v>208</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K75" s="45" t="str">
         <f t="shared" si="9"/>
@@ -19759,7 +19759,7 @@
         <v>230</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>392</v>
@@ -19780,7 +19780,7 @@
         <v>208</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K76" s="45" t="str">
         <f t="shared" si="9"/>
@@ -19807,7 +19807,7 @@
         <v>230</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>392</v>
@@ -19828,7 +19828,7 @@
         <v>516</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K77" s="45" t="str">
         <f t="shared" si="9"/>
@@ -19844,7 +19844,7 @@
         <v>507</v>
       </c>
       <c r="O77" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19855,7 +19855,7 @@
         <v>230</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>392</v>
@@ -19876,7 +19876,7 @@
         <v>208</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K78" s="45" t="str">
         <f t="shared" si="9"/>
@@ -19892,7 +19892,7 @@
         <v>507</v>
       </c>
       <c r="O78" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19903,7 +19903,7 @@
         <v>230</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>392</v>
@@ -19924,7 +19924,7 @@
         <v>208</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K79" s="45" t="str">
         <f t="shared" si="9"/>
@@ -19940,7 +19940,7 @@
         <v>507</v>
       </c>
       <c r="O79" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19951,7 +19951,7 @@
         <v>230</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>392</v>
@@ -19960,7 +19960,7 @@
         <v>508</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G80" s="11" t="s">
         <v>208</v>
@@ -19972,7 +19972,7 @@
         <v>208</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K80" s="45" t="str">
         <f t="shared" ref="K80:K82" si="10">_xlfn.CONCAT("NUC-",A80)</f>
@@ -19988,7 +19988,7 @@
         <v>507</v>
       </c>
       <c r="O80" s="36" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -19999,7 +19999,7 @@
         <v>230</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>392</v>
@@ -20008,7 +20008,7 @@
         <v>508</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>208</v>
@@ -20020,7 +20020,7 @@
         <v>208</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K81" s="45" t="str">
         <f t="shared" si="10"/>
@@ -20036,7 +20036,7 @@
         <v>507</v>
       </c>
       <c r="O81" s="36" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20047,7 +20047,7 @@
         <v>230</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>392</v>
@@ -20056,7 +20056,7 @@
         <v>508</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G82" s="11" t="s">
         <v>208</v>
@@ -20068,7 +20068,7 @@
         <v>208</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K82" s="45" t="str">
         <f t="shared" si="10"/>
@@ -20084,7 +20084,7 @@
         <v>507</v>
       </c>
       <c r="O82" s="36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20095,7 +20095,7 @@
         <v>230</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>392</v>
@@ -20104,7 +20104,7 @@
         <v>508</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G83" s="11" t="s">
         <v>208</v>
@@ -20116,7 +20116,7 @@
         <v>208</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K83" s="45" t="str">
         <f t="shared" si="9"/>
@@ -20132,7 +20132,7 @@
         <v>507</v>
       </c>
       <c r="O83" s="36" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20143,7 +20143,7 @@
         <v>230</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>392</v>
@@ -20164,7 +20164,7 @@
         <v>208</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K84" s="45" t="str">
         <f t="shared" si="9"/>
@@ -20180,7 +20180,7 @@
         <v>507</v>
       </c>
       <c r="O84" s="36" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20191,7 +20191,7 @@
         <v>230</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>392</v>
@@ -20212,7 +20212,7 @@
         <v>208</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K85" s="45" t="str">
         <f t="shared" si="9"/>
@@ -20228,7 +20228,7 @@
         <v>507</v>
       </c>
       <c r="O85" s="36" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -20239,10 +20239,10 @@
         <v>230</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>229</v>
@@ -20287,10 +20287,10 @@
         <v>230</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>229</v>
@@ -20335,10 +20335,10 @@
         <v>230</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>229</v>
@@ -20383,10 +20383,10 @@
         <v>230</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>229</v>
@@ -20431,10 +20431,10 @@
         <v>230</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>271</v>
@@ -20479,10 +20479,10 @@
         <v>230</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>271</v>
@@ -20527,10 +20527,10 @@
         <v>230</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D92" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>271</v>
@@ -20575,10 +20575,10 @@
         <v>230</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>271</v>
@@ -20623,10 +20623,10 @@
         <v>230</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>271</v>
@@ -20671,10 +20671,10 @@
         <v>230</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>271</v>
@@ -20719,10 +20719,10 @@
         <v>230</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>271</v>
@@ -20767,10 +20767,10 @@
         <v>230</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>271</v>
@@ -20812,7 +20812,7 @@
     <sortCondition ref="E1:E91"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H92:J97 B92 A98:XFD1048576 P1:XFD1 A1:K1 K73:K79 D93:D97 M37:N39 N31:XFD36 J76:J79 L71:XFD79 B3:F85 J74 J83:J90 L83:O85 K83:K97 P83:XFD97 J80:XFD82 L70:N70 O37:XFD70 A2:A97 H74 H70:K72 H76 H77:J77 H75:J75 H40:N69 H78:H85 H73:J73 G3:G97 H31:M39 B2:H2 H8:XFD30 H3:H7 I2:XFD7">
+  <conditionalFormatting sqref="H92:J97 B92 A98:XFD1048576 P1:XFD1 A1:K1 K73:K79 D93:D97 M37:N39 N31:XFD36 J76:J79 L71:XFD79 J74 J83:J90 L83:O85 K83:K97 P83:XFD97 J80:XFD82 L70:N70 O37:XFD70 A2:A97 H74 H70:K72 H76 H77:J77 H75:J75 H40:N69 H78:H85 H73:J73 G3:G97 H31:M39 B2:H2 H8:XFD30 H3:H7 I2:XFD7 B3:F85">
     <cfRule type="containsText" dxfId="797" priority="435" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
@@ -22724,7 +22724,7 @@
         <v>401</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D31" s="18" t="str">
         <f t="shared" ref="D31" si="4">_xlfn.CONCAT("em_",C31)</f>
@@ -22761,7 +22761,7 @@
         <v>215</v>
       </c>
       <c r="O31" s="36" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22772,7 +22772,7 @@
         <v>401</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D32" s="18" t="str">
         <f t="shared" si="3"/>
@@ -22809,7 +22809,7 @@
         <v>215</v>
       </c>
       <c r="O32" s="36" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22820,7 +22820,7 @@
         <v>401</v>
       </c>
       <c r="C33" s="48" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D33" s="18" t="str">
         <f t="shared" si="3"/>
@@ -22857,7 +22857,7 @@
         <v>215</v>
       </c>
       <c r="O33" s="36" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22868,7 +22868,7 @@
         <v>401</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D34" s="18" t="str">
         <f t="shared" si="3"/>
@@ -22905,7 +22905,7 @@
         <v>215</v>
       </c>
       <c r="O34" s="36" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -22916,7 +22916,7 @@
         <v>401</v>
       </c>
       <c r="C35" s="48" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D35" s="18" t="str">
         <f t="shared" si="3"/>
@@ -22953,7 +22953,7 @@
         <v>215</v>
       </c>
       <c r="O35" s="36" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -23149,7 +23149,7 @@
         <v>208</v>
       </c>
       <c r="O39" s="36" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -28246,7 +28246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CC16DFF-EFED-4A4F-AD49-C719B19693F4}">
   <dimension ref="A1:I557"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -28597,7 +28597,7 @@
         <v>492</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>208</v>
@@ -28620,13 +28620,13 @@
         <v>331</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G13" s="42" t="s">
         <v>208</v>
@@ -28649,13 +28649,13 @@
         <v>331</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G14" s="42" t="s">
         <v>208</v>
@@ -28678,13 +28678,13 @@
         <v>331</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>208</v>
@@ -30631,7 +30631,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/Ontologia_Ambientes.xlsx
+++ b/Ontologia_Ambientes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EFE6D1-334A-4B98-BFA8-C17A7E86ECA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A215650E-EE31-44ED-865A-CE2496ABA570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
@@ -2720,327 +2720,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1244">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
+  <dxfs count="1204">
     <dxf>
       <font>
         <b val="0"/>
@@ -19867,21 +19547,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="1243" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1203" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1202" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1241" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1201" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1240" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1200" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="1239" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1199" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25444,606 +25124,606 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H110:J115 B110 P1:XFD1 A1:K1 D111:D115 J66:J69 J64 J70:K75 H64 H66 H67:J67 H65:J65 H25:N25 H68:H75 H63:J63 B2:XFD2 K63:K69 D63:G75 D60:K62 B59:C75 N82:XFD87 M88:XFD89 H76:XFD76 B76:G89 O25:XFD55 H3:XFD24 M26:N55 H26:L57 H77:L89 M82:M89 M77:XFD81 L59:L75 M56:XFD75 A116:XFD1048576 B101:XFD101 J108 K108:K115 G102:G115 P102:XFD115 J102:K107 B3:G58 I58:L58 D59:G59 I59:K59 H58:H59 P90:XFD100 A2:A115 G90:K100">
-    <cfRule type="containsText" dxfId="1238" priority="793" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1198" priority="793" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1237" priority="794" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1197" priority="794" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1236" priority="795" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1196" priority="795" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1235" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="1195" priority="796" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:I103 B103">
-    <cfRule type="containsText" dxfId="1234" priority="455" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1194" priority="455" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1233" priority="456" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1193" priority="456" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1232" priority="457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1192" priority="457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B103)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1231" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="1191" priority="458" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104:I104 B104">
-    <cfRule type="containsText" dxfId="1230" priority="451" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1190" priority="451" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1229" priority="452" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1189" priority="452" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1188" priority="453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B104)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1227" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="1187" priority="454" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:I102 B102:E102 I68:I75 D107:D110 C103:E106">
-    <cfRule type="containsText" dxfId="1226" priority="447" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1186" priority="447" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1225" priority="448" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1185" priority="448" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1224" priority="449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1184" priority="449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1223" priority="450" operator="equal">
+    <cfRule type="cellIs" dxfId="1183" priority="450" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H108:I108 B108:C108 C109:C115">
-    <cfRule type="containsText" dxfId="1222" priority="443" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1182" priority="443" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1221" priority="444" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1181" priority="444" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B108)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1220" priority="445" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1180" priority="445" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B108)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1219" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="1179" priority="446" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F107:F108">
-    <cfRule type="cellIs" dxfId="1218" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="442" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109:J109 B109">
-    <cfRule type="containsText" dxfId="1217" priority="437" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1177" priority="437" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1216" priority="438" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1176" priority="438" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B109)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1215" priority="439" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1175" priority="439" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B109)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1214" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="440" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F109">
-    <cfRule type="cellIs" dxfId="1213" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="1173" priority="436" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F110">
-    <cfRule type="cellIs" dxfId="1212" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="1172" priority="434" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B106">
-    <cfRule type="containsText" dxfId="1211" priority="429" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1171" priority="429" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1210" priority="430" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1170" priority="430" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1209" priority="431" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1169" priority="431" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B105)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1208" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="1168" priority="432" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:I106">
-    <cfRule type="containsText" dxfId="1207" priority="425" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1167" priority="425" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1206" priority="426" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1166" priority="426" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1205" priority="427" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1165" priority="427" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H106)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1204" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="1164" priority="428" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B111">
-    <cfRule type="containsText" dxfId="1203" priority="412" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1163" priority="412" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1202" priority="413" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1162" priority="413" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1201" priority="414" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1161" priority="414" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B111)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1200" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="1160" priority="415" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112">
-    <cfRule type="containsText" dxfId="1199" priority="408" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1159" priority="408" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1198" priority="409" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1158" priority="409" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1197" priority="410" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1157" priority="410" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B112)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1196" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="1156" priority="411" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B114">
-    <cfRule type="containsText" dxfId="1195" priority="404" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1155" priority="404" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1194" priority="405" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1154" priority="405" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1193" priority="406" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1153" priority="406" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B114)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1192" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="1152" priority="407" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B115">
-    <cfRule type="containsText" dxfId="1191" priority="399" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1151" priority="399" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1190" priority="400" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1150" priority="400" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1189" priority="401" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1149" priority="401" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B115)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1188" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="1148" priority="402" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113">
-    <cfRule type="containsText" dxfId="1187" priority="393" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1147" priority="393" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1186" priority="394" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1146" priority="394" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1185" priority="395" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1145" priority="395" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B113)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1184" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="1144" priority="396" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:O1">
-    <cfRule type="containsText" dxfId="1183" priority="382" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1143" priority="382" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1182" priority="383" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1142" priority="383" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1181" priority="384" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1141" priority="384" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",L1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1180" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="1140" priority="385" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O111:O112">
-    <cfRule type="containsText" dxfId="1179" priority="374" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1139" priority="374" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1178" priority="375" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1138" priority="375" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1177" priority="376" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1137" priority="376" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O111)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1176" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="1136" priority="377" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O107:O108">
-    <cfRule type="cellIs" dxfId="1175" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="1135" priority="373" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O109">
-    <cfRule type="cellIs" dxfId="1174" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="372" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O110">
-    <cfRule type="cellIs" dxfId="1173" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="1133" priority="371" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E115">
-    <cfRule type="containsText" dxfId="1172" priority="367" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1132" priority="367" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="368" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1131" priority="368" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1170" priority="369" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1130" priority="369" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E107)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1169" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="1129" priority="370" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="containsText" dxfId="1168" priority="363" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1128" priority="363" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1167" priority="364" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1127" priority="364" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1166" priority="365" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1126" priority="365" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I66)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1165" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="1125" priority="366" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="containsText" dxfId="1164" priority="359" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1124" priority="359" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1163" priority="360" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1123" priority="360" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1162" priority="361" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1122" priority="361" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1161" priority="362" operator="equal">
+    <cfRule type="cellIs" dxfId="1121" priority="362" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E100">
-    <cfRule type="containsText" dxfId="1160" priority="89" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1120" priority="89" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1159" priority="90" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1119" priority="90" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1158" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1118" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1157" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="1117" priority="92" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="containsText" dxfId="1156" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1116" priority="85" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1155" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1115" priority="86" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1154" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1114" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B98)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1153" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="1113" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
-    <cfRule type="containsText" dxfId="1152" priority="81" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1112" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1151" priority="82" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1111" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1150" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1110" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B99)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1149" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="1109" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsText" dxfId="1148" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1108" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1147" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1107" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1146" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1106" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C98)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1145" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1105" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C100">
-    <cfRule type="containsText" dxfId="1144" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1104" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1143" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1103" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1142" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1102" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C99)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1141" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="1101" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="1140" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1100" priority="69" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1139" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1099" priority="70" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1138" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1098" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B94)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1137" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="1097" priority="72" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="1136" priority="65" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1096" priority="65" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1135" priority="66" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1095" priority="66" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1134" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1094" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B95)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1133" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1093" priority="68" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="1132" priority="61" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1092" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1131" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1091" priority="62" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1130" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1090" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C94)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1129" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="1089" priority="64" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="1128" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1088" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1127" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1087" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1126" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1086" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C95)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1125" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1085" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="containsText" dxfId="1124" priority="53" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1084" priority="53" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1123" priority="54" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1083" priority="54" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1122" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1082" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B96)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1121" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1081" priority="56" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="1120" priority="49" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1080" priority="49" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1119" priority="50" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1079" priority="50" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1118" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1078" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B97)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1117" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="1077" priority="52" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="1116" priority="45" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1076" priority="45" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1115" priority="46" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1075" priority="46" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1114" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1074" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C96)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1113" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1073" priority="48" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="containsText" dxfId="1112" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1072" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1111" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1071" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1110" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1070" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C97)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1109" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1069" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsText" dxfId="1108" priority="37" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1068" priority="37" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="38" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1067" priority="38" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1106" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1066" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1105" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1065" priority="40" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="1104" priority="33" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1064" priority="33" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1103" priority="34" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1063" priority="34" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1102" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1062" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1101" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1061" priority="36" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="containsText" dxfId="1100" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1060" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1099" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1059" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1098" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1058" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1097" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1057" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="1096" priority="25" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1056" priority="25" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="26" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1055" priority="26" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1094" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1054" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1093" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="28" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="1092" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1052" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1091" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1051" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1050" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B92)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1089" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1049" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="1088" priority="17" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1048" priority="17" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1087" priority="18" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1047" priority="18" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1086" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1046" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B93)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1085" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1045" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="1084" priority="13" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1044" priority="13" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="14" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1043" priority="14" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1082" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1042" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C92)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1081" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="16" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="1080" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1040" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1079" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1039" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1078" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1038" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C93)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1077" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H107:I107 B107:C107">
-    <cfRule type="containsText" dxfId="1076" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1036" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1035" priority="6" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1074" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1034" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B107)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1073" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105:I105">
-    <cfRule type="containsText" dxfId="1072" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1032" priority="1" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1071" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1031" priority="2" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1070" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1030" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H105)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1069" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26158,30 +25838,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:XFD2 A2 A3:XFD1048576 A1:XFD1">
-    <cfRule type="containsText" dxfId="1068" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1028" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1067" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1027" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1066" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1026" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1065" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:M2">
-    <cfRule type="containsText" dxfId="1064" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1024" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1063" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1023" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1062" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1022" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1061" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31340,2795 +31020,2795 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A617:B1048576">
-    <cfRule type="containsText" dxfId="1060" priority="2223" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1020" priority="2223" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A617)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1059" priority="2224" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1019" priority="2224" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A617)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1058" priority="2225" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1018" priority="2225" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A617)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1057" priority="2226" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="2226" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A617:B1048576 D1:M1 C19:C20 C14 N1:N21 N33:N36">
-    <cfRule type="containsText" dxfId="1056" priority="2222" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="1016" priority="2222" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 G2:H12 A1:B1 F27:G30 D1:H1 C1:C2 C12:C13 G26:I26 I12:M12 I1:M2 I22:M22 J7:K11 L3:M11 P1:XFD2 G18:M18 B19:H21 J19:M21 P19:XFD20 C17:C22 J13:M14 P13:XFD14 N1:N14 C31:C32 J42:M43 F42:H43 P40:XFD40 B42:B47 I42:I47 D42:E47 O2:O14 B32 D32 I32 B33:I36 N33:N36 J23:M39 N17:N21 P17:XFD17 J17:M17 J15:XFD16 B13:H17 C37:C40 O17:O40 P42:XFD42 B41:O41 O42:O55 C42:C55 P55:XFD55 N57:O60 A2:A55 P57:XFD57 N56:XFD56 A56:D60">
-    <cfRule type="containsText" dxfId="1055" priority="2218" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1015" priority="2218" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1054" priority="2219" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1014" priority="2219" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1053" priority="2220" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1013" priority="2220" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1052" priority="2221" operator="equal">
+    <cfRule type="cellIs" dxfId="1012" priority="2221" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C19:C20 C14 N1:N21 N33:N36">
-    <cfRule type="cellIs" dxfId="1051" priority="2216" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="2216" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1050" priority="2217" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1010" priority="2217" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:M1 C19:C20 C14 N1:N21 N33:N36">
-    <cfRule type="containsText" dxfId="1049" priority="2215" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1009" priority="2215" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F11 D2:F2">
-    <cfRule type="containsText" dxfId="1048" priority="2206" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1008" priority="2206" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1047" priority="2207" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1007" priority="2207" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1046" priority="2208" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1006" priority="2208" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1045" priority="2209" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="2209" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B11">
-    <cfRule type="containsText" dxfId="1044" priority="2184" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1004" priority="2184" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:XFD11 B7:B11 E7:E11">
-    <cfRule type="containsText" dxfId="1043" priority="2164" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1003" priority="2164" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1042" priority="2165" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1002" priority="2165" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1041" priority="2166" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1001" priority="2166" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1040" priority="2167" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="2167" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:XFD12">
-    <cfRule type="containsText" dxfId="1039" priority="2120" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="999" priority="2120" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1038" priority="2121" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="998" priority="2121" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1037" priority="2122" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="997" priority="2122" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1036" priority="2123" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="2123" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="containsText" dxfId="1035" priority="2116" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="995" priority="2116" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1034" priority="2117" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="994" priority="2117" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1033" priority="2118" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="993" priority="2118" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1032" priority="2119" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="2119" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:XFD27">
-    <cfRule type="containsText" dxfId="1031" priority="2108" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="991" priority="2108" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1030" priority="2109" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="990" priority="2109" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1029" priority="2110" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="989" priority="2110" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1028" priority="2111" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="2111" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="1027" priority="1984" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="987" priority="1984" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12 B18 P21:XFD21">
-    <cfRule type="containsText" dxfId="1026" priority="1980" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="986" priority="1980" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1025" priority="1981" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="985" priority="1981" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1024" priority="1982" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="984" priority="1982" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1023" priority="1983" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1983" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="1022" priority="1975" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="982" priority="1975" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1021" priority="1976" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="981" priority="1976" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1020" priority="1977" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="980" priority="1977" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1019" priority="1978" operator="equal">
+    <cfRule type="cellIs" dxfId="979" priority="1978" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="containsText" dxfId="1018" priority="1971" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="978" priority="1971" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1017" priority="1972" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="977" priority="1972" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1016" priority="1973" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="976" priority="1973" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1015" priority="1974" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="1974" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B11 P6:XFD6">
-    <cfRule type="containsText" dxfId="1014" priority="1947" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="974" priority="1947" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1013" priority="1948" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="973" priority="1948" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1012" priority="1949" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="972" priority="1949" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1011" priority="1950" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="1950" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:K6">
-    <cfRule type="containsText" dxfId="1010" priority="1943" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="970" priority="1943" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1009" priority="1944" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="969" priority="1944" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1008" priority="1945" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="968" priority="1945" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1007" priority="1946" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1946" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="1006" priority="1939" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="966" priority="1939" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1005" priority="1940" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="965" priority="1940" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1004" priority="1941" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="964" priority="1941" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="1942" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1942" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:XFD24">
-    <cfRule type="containsText" dxfId="1002" priority="1902" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="962" priority="1902" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1001" priority="1903" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="961" priority="1903" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1000" priority="1904" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="960" priority="1904" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="999" priority="1905" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="1905" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:XFD3 D3:D11 B3:B11">
-    <cfRule type="containsText" dxfId="998" priority="1898" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="958" priority="1898" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="997" priority="1899" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="957" priority="1899" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="996" priority="1900" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="956" priority="1900" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="1901" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1901" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4 P4:XFD4">
-    <cfRule type="containsText" dxfId="994" priority="1894" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="954" priority="1894" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="993" priority="1895" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="953" priority="1895" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="992" priority="1896" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="952" priority="1896" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1897" operator="equal">
+    <cfRule type="cellIs" dxfId="951" priority="1897" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 P5:XFD5">
-    <cfRule type="containsText" dxfId="990" priority="1890" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="950" priority="1890" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="989" priority="1891" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="949" priority="1891" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="988" priority="1892" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="948" priority="1892" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="1893" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="1893" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 B23:B25">
-    <cfRule type="containsText" dxfId="986" priority="1886" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="946" priority="1886" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="985" priority="1887" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="945" priority="1887" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="984" priority="1888" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="944" priority="1888" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="1889" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1889" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 B23:B25">
-    <cfRule type="containsText" dxfId="982" priority="1885" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="942" priority="1885" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 B23:B25">
-    <cfRule type="cellIs" dxfId="981" priority="1883" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="1883" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="980" priority="1884" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="940" priority="1884" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H22 B23:B25">
-    <cfRule type="containsText" dxfId="979" priority="1882" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="939" priority="1882" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="978" priority="1881" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="938" priority="1881" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="containsText" dxfId="977" priority="1880" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="937" priority="1880" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22 P28:XFD28 E22:F22">
-    <cfRule type="containsText" dxfId="976" priority="1876" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="936" priority="1876" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="975" priority="1877" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="935" priority="1877" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="974" priority="1878" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="934" priority="1878" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1879" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1879" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="cellIs" dxfId="972" priority="1874" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1874" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="971" priority="1875" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="931" priority="1875" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="containsText" dxfId="970" priority="1873" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="930" priority="1873" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="containsText" dxfId="969" priority="1869" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="929" priority="1869" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="968" priority="1870" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="928" priority="1870" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="1871" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="927" priority="1871" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="1872" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1872" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:XFD30">
-    <cfRule type="containsText" dxfId="965" priority="1865" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="925" priority="1865" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="964" priority="1866" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="924" priority="1866" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="963" priority="1867" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="923" priority="1867" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1868" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="1868" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:XFD29">
-    <cfRule type="containsText" dxfId="961" priority="1861" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="921" priority="1861" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="1862" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="920" priority="1862" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="959" priority="1863" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="919" priority="1863" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1864" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="1864" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:G25">
-    <cfRule type="containsText" dxfId="957" priority="1853" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="917" priority="1853" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="956" priority="1854" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="916" priority="1854" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="955" priority="1855" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="915" priority="1855" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1856" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="1856" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H25">
-    <cfRule type="containsText" dxfId="953" priority="1849" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="913" priority="1849" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="1850" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="912" priority="1850" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="951" priority="1851" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="911" priority="1851" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="1852" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="1852" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H30">
-    <cfRule type="containsText" dxfId="949" priority="1537" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="909" priority="1537" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="948" priority="1538" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="908" priority="1538" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="947" priority="1539" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="907" priority="1539" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="1540" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="1540" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="945" priority="1536" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="905" priority="1536" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="944" priority="1532" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="904" priority="1532" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="943" priority="1533" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="903" priority="1533" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="942" priority="1534" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="902" priority="1534" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="941" priority="1535" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="1535" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30 E26:F26">
-    <cfRule type="containsText" dxfId="940" priority="1528" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="900" priority="1528" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="939" priority="1529" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="899" priority="1529" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="938" priority="1530" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="898" priority="1530" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="937" priority="1531" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="1531" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:E30">
-    <cfRule type="containsText" dxfId="936" priority="1523" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="896" priority="1523" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="935" priority="1519" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="895" priority="1519" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="934" priority="1520" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="894" priority="1520" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="933" priority="1521" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="893" priority="1521" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1522" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="1522" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:B30">
-    <cfRule type="containsText" dxfId="931" priority="1515" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="891" priority="1515" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="1516" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="890" priority="1516" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="929" priority="1517" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="889" priority="1517" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="1518" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="1518" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="927" priority="1511" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="887" priority="1511" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="926" priority="1512" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="886" priority="1512" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="925" priority="1513" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="885" priority="1513" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1514" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="1514" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="containsText" dxfId="923" priority="1507" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="883" priority="1507" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="922" priority="1508" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="882" priority="1508" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="921" priority="1509" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="881" priority="1509" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="1510" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="1510" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="containsText" dxfId="919" priority="1503" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="879" priority="1503" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="1504" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="878" priority="1504" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="917" priority="1505" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="877" priority="1505" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1506" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="1506" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="915" priority="1314" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="875" priority="1314" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="cellIs" dxfId="914" priority="1312" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="1312" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="913" priority="1313" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="873" priority="1313" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C12">
-    <cfRule type="containsText" dxfId="912" priority="1311" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="872" priority="1311" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="911" priority="1310" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="871" priority="1310" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3 C7:C11">
-    <cfRule type="containsText" dxfId="910" priority="1302" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="870" priority="1302" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="909" priority="1303" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="869" priority="1303" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="908" priority="1304" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="868" priority="1304" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1305" operator="equal">
+    <cfRule type="cellIs" dxfId="867" priority="1305" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="906" priority="1301" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="866" priority="1301" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="905" priority="1297" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="865" priority="1297" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="1298" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="864" priority="1298" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="1299" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="863" priority="1299" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1300" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="1300" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="cellIs" dxfId="901" priority="1295" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="1295" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="1296" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="860" priority="1296" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="899" priority="1294" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="859" priority="1294" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="898" priority="1286" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="858" priority="1286" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="1287" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="857" priority="1287" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="896" priority="1288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="856" priority="1288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="895" priority="1289" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="1289" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="894" priority="1270" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="854" priority="1270" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="893" priority="1271" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="853" priority="1271" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="1272" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="852" priority="1272" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="1273" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="890" priority="1266" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="850" priority="1266" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="1267" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="849" priority="1267" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="888" priority="1268" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="848" priority="1268" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="1269" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="1269" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="886" priority="1262" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="846" priority="1262" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="885" priority="1263" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="845" priority="1263" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="884" priority="1264" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="844" priority="1264" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="1265" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="1265" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="882" priority="1257" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="842" priority="1257" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="881" priority="1253" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="841" priority="1253" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="1254" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="840" priority="1254" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="1255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="839" priority="1255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1256" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="1256" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="877" priority="1252" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="837" priority="1252" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="876" priority="1248" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="836" priority="1248" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="875" priority="1249" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="835" priority="1249" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="874" priority="1250" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="834" priority="1250" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1251" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="1251" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="872" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="1246" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="1247" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="831" priority="1247" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="870" priority="1245" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="830" priority="1245" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:C30">
-    <cfRule type="containsText" dxfId="869" priority="1237" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="829" priority="1237" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="868" priority="1238" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="828" priority="1238" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="1239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="827" priority="1239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="1240" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="865" priority="1236" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="825" priority="1236" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="864" priority="1232" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="824" priority="1232" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="1233" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="823" priority="1233" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="862" priority="1234" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="822" priority="1234" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="1235" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="860" priority="1230" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="1230" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="1231" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="819" priority="1231" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="858" priority="1229" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="818" priority="1229" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D25">
-    <cfRule type="containsText" dxfId="857" priority="1209" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="817" priority="1209" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="856" priority="1210" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="816" priority="1210" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="1211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="815" priority="1211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="1212" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="1212" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30">
-    <cfRule type="containsText" dxfId="853" priority="1205" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="813" priority="1205" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="852" priority="1206" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="812" priority="1206" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="851" priority="1207" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="811" priority="1207" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="1208" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="1208" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="849" priority="1189" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="809" priority="1189" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="848" priority="1190" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="808" priority="1190" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="1191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="807" priority="1191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="1192" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="1192" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="845" priority="1185" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="805" priority="1185" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="1186" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="804" priority="1186" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="1187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="803" priority="1187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N5)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="1188" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6">
-    <cfRule type="containsText" dxfId="841" priority="1181" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="801" priority="1181" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="1182" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="800" priority="1182" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="839" priority="1183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="799" priority="1183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N4)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1184" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3:N5">
-    <cfRule type="containsText" dxfId="837" priority="1177" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="797" priority="1177" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="1178" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="796" priority="1178" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="1179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="795" priority="1179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="1180" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="833" priority="1176" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="793" priority="1176" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="832" priority="1172" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="792" priority="1172" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="831" priority="1173" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="791" priority="1173" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="1174" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="790" priority="1174" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1175" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="828" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1170" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="1171" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="787" priority="1171" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="826" priority="1169" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="786" priority="1169" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="containsText" dxfId="825" priority="1165" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="785" priority="1165" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="1166" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="784" priority="1166" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="1167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="783" priority="1167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="1168" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N30">
-    <cfRule type="containsText" dxfId="821" priority="1161" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="781" priority="1161" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="820" priority="1162" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="780" priority="1162" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="1163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="779" priority="1163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="1164" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="1164" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="817" priority="1160" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="777" priority="1160" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="816" priority="1156" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="776" priority="1156" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="815" priority="1157" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="775" priority="1157" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="1158" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="774" priority="1158" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="1159" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="1159" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="cellIs" dxfId="812" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="1154" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="811" priority="1155" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="771" priority="1155" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="810" priority="1153" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="770" priority="1153" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N11">
-    <cfRule type="containsText" dxfId="809" priority="1145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="769" priority="1145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="808" priority="1146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="768" priority="1146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="807" priority="1147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="767" priority="1147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="1148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="805" priority="1141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="765" priority="1141" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="1142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="764" priority="1142" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="803" priority="1143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="763" priority="1143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="1144" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="1144" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="containsText" dxfId="801" priority="1137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="761" priority="1137" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="1138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="760" priority="1138" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="1139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="759" priority="1139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="1140" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="containsText" dxfId="797" priority="1133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="757" priority="1133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="796" priority="1134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="756" priority="1134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="1135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="755" priority="1135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="1136" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="1136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31:I31 F32:H32 G37:I37 E38:H39">
-    <cfRule type="containsText" dxfId="793" priority="1117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="753" priority="1117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="1118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="752" priority="1118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="791" priority="1119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="751" priority="1119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="1120" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="1120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:XFD32">
-    <cfRule type="containsText" dxfId="789" priority="1109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="749" priority="1109" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="788" priority="1110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="748" priority="1110" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="1111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="747" priority="1111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="1112" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="1112" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="785" priority="1104" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="745" priority="1104" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="784" priority="1100" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="744" priority="1100" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="1101" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="743" priority="1101" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="1102" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="742" priority="1102" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="1103" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="1103" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="containsText" dxfId="780" priority="1096" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="740" priority="1096" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="779" priority="1097" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="739" priority="1097" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="1098" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="738" priority="1098" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="1099" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="1099" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="776" priority="1092" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="736" priority="1092" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="1093" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="735" priority="1093" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="1094" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="734" priority="1094" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="1095" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="1095" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="containsText" dxfId="772" priority="1084" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="732" priority="1084" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="1085" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="731" priority="1085" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="1086" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="730" priority="1086" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="769" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="1087" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="768" priority="1080" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="728" priority="1080" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="767" priority="1081" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="727" priority="1081" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="1082" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="726" priority="1082" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="1083" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31">
-    <cfRule type="containsText" dxfId="764" priority="1072" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="724" priority="1072" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="1073" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="723" priority="1073" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="1074" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="722" priority="1074" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="1075" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="containsText" dxfId="760" priority="1068" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="720" priority="1068" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="1069" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="719" priority="1069" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="1070" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="718" priority="1070" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1071" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="756" priority="1067" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="716" priority="1067" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="755" priority="1063" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="715" priority="1063" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="1064" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="714" priority="1064" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="1065" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="713" priority="1065" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="1066" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="1066" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="cellIs" dxfId="751" priority="1061" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="1061" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="1062" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="710" priority="1062" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="749" priority="1060" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="709" priority="1060" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="748" priority="1056" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="708" priority="1056" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="747" priority="1057" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="707" priority="1057" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="1058" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="706" priority="1058" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="1059" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="744" priority="1052" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="704" priority="1052" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="743" priority="1053" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="703" priority="1053" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="1054" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="702" priority="1054" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="741" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="1055" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="containsText" dxfId="740" priority="1048" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="700" priority="1048" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="1049" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="699" priority="1049" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1050" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="698" priority="1050" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="1051" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="1051" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37:XFD38">
-    <cfRule type="containsText" dxfId="736" priority="1024" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="696" priority="1024" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="1025" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="695" priority="1025" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="1026" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="694" priority="1026" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="1027" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="1027" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39:XFD39">
-    <cfRule type="containsText" dxfId="732" priority="1020" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="692" priority="1020" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="1021" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="691" priority="1021" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="1022" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="690" priority="1022" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="1023" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="1023" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="728" priority="1019" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="688" priority="1019" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="727" priority="1015" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="687" priority="1015" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="726" priority="1016" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="686" priority="1016" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="1017" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="685" priority="1017" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="1018" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="1018" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:F37">
-    <cfRule type="containsText" dxfId="723" priority="1011" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="683" priority="1011" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="722" priority="1012" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="682" priority="1012" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="1013" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="681" priority="1013" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="1014" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="1014" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="719" priority="1007" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="679" priority="1007" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="718" priority="1008" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="678" priority="1008" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="1009" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="677" priority="1009" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="1010" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="1010" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:B39">
-    <cfRule type="containsText" dxfId="715" priority="1003" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="675" priority="1003" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="714" priority="1004" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="674" priority="1004" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="1005" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="673" priority="1005" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="1006" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="711" priority="999" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="671" priority="999" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="710" priority="1000" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="670" priority="1000" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="1001" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="669" priority="1001" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="1002" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D39">
-    <cfRule type="containsText" dxfId="707" priority="995" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="667" priority="995" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="706" priority="996" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="666" priority="996" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="997" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="665" priority="997" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="998" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N37">
-    <cfRule type="containsText" dxfId="703" priority="991" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="663" priority="991" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="702" priority="992" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="662" priority="992" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="701" priority="993" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="661" priority="993" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="994" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="containsText" dxfId="699" priority="987" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="659" priority="987" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="698" priority="988" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="658" priority="988" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="989" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="657" priority="989" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="990" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="695" priority="986" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="655" priority="986" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="694" priority="982" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="654" priority="982" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="983" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="653" priority="983" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="984" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="652" priority="984" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="985" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="cellIs" dxfId="690" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="980" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="981" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="649" priority="981" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="688" priority="979" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="648" priority="979" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="687" priority="975" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="647" priority="975" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="976" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="646" priority="976" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="977" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="645" priority="977" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="978" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="683" priority="971" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="643" priority="971" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="972" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="642" priority="972" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="973" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="641" priority="973" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="974" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="containsText" dxfId="679" priority="967" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="639" priority="967" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="968" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="638" priority="968" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="969" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="637" priority="969" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="970" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="675" priority="966" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="635" priority="966" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="674" priority="962" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="634" priority="962" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="963" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="633" priority="963" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="964" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="632" priority="964" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="965" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="cellIs" dxfId="670" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="960" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="669" priority="961" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="629" priority="961" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="668" priority="959" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="628" priority="959" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="667" priority="955" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="627" priority="955" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="956" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="626" priority="956" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="957" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="625" priority="957" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="958" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="663" priority="951" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="623" priority="951" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="952" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="622" priority="952" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="953" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="621" priority="953" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="954" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="containsText" dxfId="659" priority="947" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="619" priority="947" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="948" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="618" priority="948" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="949" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="617" priority="949" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N39)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="950" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:I39">
-    <cfRule type="containsText" dxfId="655" priority="939" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="615" priority="939" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="654" priority="940" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="614" priority="940" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="653" priority="941" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="613" priority="941" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="942" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="containsText" dxfId="651" priority="931" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="611" priority="931" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="932" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="610" priority="932" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="649" priority="933" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="609" priority="933" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="934" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="934" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:XFD18">
-    <cfRule type="containsText" dxfId="647" priority="816" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="607" priority="816" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="817" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="606" priority="817" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="818" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="605" priority="818" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="819" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="containsText" dxfId="643" priority="812" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="603" priority="812" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="642" priority="813" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="602" priority="813" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="641" priority="814" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="601" priority="814" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="815" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="639" priority="807" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="599" priority="807" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="638" priority="803" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="598" priority="803" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="637" priority="804" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="597" priority="804" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="805" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="596" priority="805" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="806" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="containsText" dxfId="634" priority="799" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="594" priority="799" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="800" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="593" priority="800" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="801" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="592" priority="801" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="802" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="630" priority="798" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="590" priority="798" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="629" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="796" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="797" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="588" priority="797" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="627" priority="795" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="587" priority="795" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="626" priority="787" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="586" priority="787" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="788" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="585" priority="788" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="789" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="584" priority="789" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="790" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="622" priority="777" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="582" priority="777" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="621" priority="773" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="581" priority="773" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="774" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="580" priority="774" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="775" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="579" priority="775" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="776" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="617" priority="771" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="771" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="772" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="576" priority="772" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="615" priority="770" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="575" priority="770" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="614" priority="769" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="574" priority="769" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="613" priority="765" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="573" priority="765" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="766" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="572" priority="766" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="767" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="571" priority="767" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="768" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="609" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="763" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="764" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="568" priority="764" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="607" priority="762" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="567" priority="762" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="containsText" dxfId="606" priority="758" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="566" priority="758" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="605" priority="759" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="565" priority="759" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="760" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="564" priority="760" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="761" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40:M40">
-    <cfRule type="containsText" dxfId="602" priority="754" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="562" priority="754" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="601" priority="755" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="561" priority="755" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="756" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="560" priority="756" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="757" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="757" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P43:XFD43">
-    <cfRule type="containsText" dxfId="598" priority="746" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="558" priority="746" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="597" priority="747" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="557" priority="747" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="596" priority="748" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="556" priority="748" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P43)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="749" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="749" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="containsText" dxfId="594" priority="737" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="554" priority="737" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="593" priority="738" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="553" priority="738" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="739" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="552" priority="739" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="740" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="containsText" dxfId="590" priority="717" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="550" priority="717" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="589" priority="718" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="549" priority="718" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="719" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="548" priority="719" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="587" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="720" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="586" priority="713" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="546" priority="713" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="714" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="545" priority="714" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="715" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="544" priority="715" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="716" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="582" priority="668" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="542" priority="668" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="581" priority="664" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="541" priority="664" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="665" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="540" priority="665" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="666" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="539" priority="666" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="667" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="577" priority="660" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="537" priority="660" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="661" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="536" priority="661" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="662" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="535" priority="662" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="663" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="573" priority="656" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="533" priority="656" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="657" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="532" priority="657" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="658" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="531" priority="658" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="659" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="659" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H45 J44:M45">
-    <cfRule type="containsText" dxfId="569" priority="652" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="529" priority="652" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="653" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="528" priority="653" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="654" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="527" priority="654" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="655" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44:XFD44">
-    <cfRule type="containsText" dxfId="565" priority="648" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="525" priority="648" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="649" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="524" priority="649" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="650" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="523" priority="650" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="651" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:XFD45">
-    <cfRule type="containsText" dxfId="561" priority="644" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="521" priority="644" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="645" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="520" priority="645" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="646" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="519" priority="646" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="647" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H47 J46:M47">
-    <cfRule type="containsText" dxfId="557" priority="592" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="517" priority="592" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="593" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="516" priority="593" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="555" priority="594" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="515" priority="594" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F46)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="595" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:XFD46">
-    <cfRule type="containsText" dxfId="553" priority="588" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="513" priority="588" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="589" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="512" priority="589" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="551" priority="590" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="511" priority="590" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P46)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="591" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47:XFD47">
-    <cfRule type="containsText" dxfId="549" priority="584" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="509" priority="584" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="585" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="508" priority="585" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="547" priority="586" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="507" priority="586" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="587" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55:M55 E57:E60 F57:I58 L56:M58 E56:I56">
-    <cfRule type="containsText" dxfId="545" priority="580" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="505" priority="580" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="581" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="504" priority="581" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="543" priority="582" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="503" priority="582" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="583" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P58:XFD58">
-    <cfRule type="containsText" dxfId="541" priority="572" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="501" priority="572" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="573" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="500" priority="573" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="539" priority="574" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="499" priority="574" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="575" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:F55">
-    <cfRule type="containsText" dxfId="537" priority="568" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="497" priority="568" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="569" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="496" priority="569" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="570" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="495" priority="570" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="571" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="533" priority="556" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="493" priority="556" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="557" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="492" priority="557" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="558" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="491" priority="558" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="559" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="529" priority="552" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="489" priority="552" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="553" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="488" priority="553" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="554" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="487" priority="554" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="555" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="525" priority="547" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="485" priority="547" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="524" priority="543" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="484" priority="543" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="544" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="483" priority="544" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="545" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="482" priority="545" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="546" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="520" priority="539" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="480" priority="539" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="519" priority="540" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="479" priority="540" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="541" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="478" priority="541" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="517" priority="542" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="542" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="516" priority="535" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="476" priority="535" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="536" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="475" priority="536" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="537" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="474" priority="537" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="538" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:M59">
-    <cfRule type="containsText" dxfId="512" priority="531" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="472" priority="531" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="532" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="471" priority="532" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="533" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="470" priority="533" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="534" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:XFD59">
-    <cfRule type="containsText" dxfId="508" priority="527" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="468" priority="527" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="507" priority="528" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="467" priority="528" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="529" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="466" priority="529" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="530" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:M60">
-    <cfRule type="containsText" dxfId="504" priority="491" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="464" priority="491" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="503" priority="492" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="463" priority="492" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="493" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="462" priority="493" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="494" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P60:XFD60">
-    <cfRule type="containsText" dxfId="500" priority="487" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="460" priority="487" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="499" priority="488" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="459" priority="488" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="489" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="458" priority="489" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="490" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="496" priority="486" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="456" priority="486" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="495" priority="482" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="455" priority="482" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="483" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="454" priority="483" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="484" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="453" priority="484" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="485" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="485" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="cellIs" dxfId="491" priority="480" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="480" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="481" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="450" priority="481" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N25">
-    <cfRule type="containsText" dxfId="489" priority="479" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="449" priority="479" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P36:XFD36">
-    <cfRule type="containsText" dxfId="488" priority="395" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="448" priority="395" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="487" priority="396" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="447" priority="396" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P36)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="397" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="446" priority="397" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P36)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="398" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:XFD35">
-    <cfRule type="containsText" dxfId="484" priority="391" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="444" priority="391" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="483" priority="392" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="443" priority="392" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="393" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="442" priority="393" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="394" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34:XFD34">
-    <cfRule type="containsText" dxfId="480" priority="387" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="440" priority="387" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="388" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="439" priority="388" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="389" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="438" priority="389" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="390" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33:XFD33">
-    <cfRule type="containsText" dxfId="476" priority="383" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="436" priority="383" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="475" priority="384" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="435" priority="384" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="385" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="434" priority="385" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="386" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="472" priority="302" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="432" priority="302" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="471" priority="298" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="431" priority="298" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="299" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="430" priority="299" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="300" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="429" priority="300" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="301" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="cellIs" dxfId="467" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="296" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="297" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="426" priority="297" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="465" priority="295" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="425" priority="295" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N42)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="464" priority="291" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="424" priority="291" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="463" priority="292" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="423" priority="292" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="293" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="422" priority="293" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="461" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="294" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="460" priority="287" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="420" priority="287" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="288" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="419" priority="288" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="289" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="418" priority="289" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="290" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N42:N47">
-    <cfRule type="containsText" dxfId="456" priority="283" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="416" priority="283" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="455" priority="284" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="415" priority="284" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N42)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="285" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="414" priority="285" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N42)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="286" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:M48 J49:M54 F49:H54">
-    <cfRule type="containsText" dxfId="452" priority="166" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="412" priority="166" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="167" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="411" priority="167" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="168" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="410" priority="168" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="169" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:XFD54">
-    <cfRule type="containsText" dxfId="448" priority="162" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="408" priority="162" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="447" priority="163" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="407" priority="163" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="164" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="406" priority="164" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="165" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="containsText" dxfId="444" priority="158" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="404" priority="158" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="159" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="403" priority="159" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="160" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="402" priority="160" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="161" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:B54">
-    <cfRule type="containsText" dxfId="440" priority="154" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="400" priority="154" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="439" priority="155" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="399" priority="155" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="156" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="398" priority="156" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="157" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49:D54">
-    <cfRule type="containsText" dxfId="436" priority="150" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="396" priority="150" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="151" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="395" priority="151" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="152" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="394" priority="152" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="433" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="153" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="containsText" dxfId="432" priority="146" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="392" priority="146" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="431" priority="147" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="391" priority="147" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="148" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="390" priority="148" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="149" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="428" priority="142" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="388" priority="142" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="427" priority="143" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="387" priority="143" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="144" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="386" priority="144" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="145" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49:I54">
-    <cfRule type="containsText" dxfId="424" priority="138" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="384" priority="138" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="423" priority="139" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="383" priority="139" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="382" priority="140" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="141" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="420" priority="137" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="380" priority="137" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="419" priority="133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="379" priority="133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="378" priority="134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="377" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="415" priority="129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="375" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="374" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="373" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="containsText" dxfId="411" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="371" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="370" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="369" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="407" priority="124" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="367" priority="124" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="406" priority="120" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="366" priority="120" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="121" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="365" priority="121" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="122" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="364" priority="122" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="123" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="402" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="118" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="119" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="361" priority="119" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="400" priority="117" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="360" priority="117" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="399" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="359" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="358" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="357" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="395" priority="109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="355" priority="109" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="354" priority="110" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="353" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="112" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="391" priority="105" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="351" priority="105" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="106" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="350" priority="106" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="349" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="108" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="containsText" dxfId="387" priority="104" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="347" priority="104" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="cellIs" dxfId="386" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="102" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="103" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="345" priority="103" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="containsText" dxfId="384" priority="101" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="344" priority="101" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41:XFD41">
-    <cfRule type="containsText" dxfId="383" priority="97" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="343" priority="97" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="98" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="342" priority="98" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="341" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P41)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="379" priority="96" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="339" priority="96" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="378" priority="92" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="338" priority="92" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="93" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="337" priority="93" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="94" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="336" priority="94" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="95" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="374" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="90" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="91" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="333" priority="91" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="372" priority="89" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="332" priority="89" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="containsText" dxfId="371" priority="88" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="331" priority="88" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="containsText" dxfId="370" priority="84" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="330" priority="84" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="85" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="329" priority="85" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="86" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="328" priority="86" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="87" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="cellIs" dxfId="366" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="82" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="83" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="325" priority="83" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="containsText" dxfId="364" priority="81" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="324" priority="81" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="containsText" dxfId="363" priority="80" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="323" priority="80" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="containsText" dxfId="362" priority="76" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="322" priority="76" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="77" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="321" priority="77" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="78" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="320" priority="78" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="79" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="cellIs" dxfId="358" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="74" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="75" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="317" priority="75" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="containsText" dxfId="356" priority="73" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="316" priority="73" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="355" priority="72" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="315" priority="72" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="354" priority="68" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="314" priority="68" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="69" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="313" priority="69" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="70" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="312" priority="70" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="71" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="cellIs" dxfId="350" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="66" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="67" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="309" priority="67" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="containsText" dxfId="348" priority="65" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="308" priority="65" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="containsText" dxfId="347" priority="53" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="307" priority="53" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="54" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="306" priority="54" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="305" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="56" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="343" priority="49" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="303" priority="49" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="50" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="302" priority="50" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="301" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="52" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="containsText" dxfId="339" priority="45" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="299" priority="45" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="46" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="298" priority="46" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="297" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="48" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="containsText" dxfId="335" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="295" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="294" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="293" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="containsText" dxfId="331" priority="37" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="291" priority="37" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="38" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="290" priority="38" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="289" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="40" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="containsText" dxfId="327" priority="32" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="287" priority="32" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="containsText" dxfId="326" priority="28" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="286" priority="28" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="29" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="285" priority="29" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="30" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="284" priority="30" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="31" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="cellIs" dxfId="322" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="26" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="27" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="281" priority="27" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="containsText" dxfId="320" priority="25" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="280" priority="25" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="319" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="279" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="278" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="277" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:K60">
-    <cfRule type="containsText" dxfId="315" priority="17" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="275" priority="17" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="18" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="274" priority="18" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="273" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57:K58">
-    <cfRule type="containsText" dxfId="311" priority="13" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="271" priority="13" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="14" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="270" priority="14" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="269" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="16" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I60">
-    <cfRule type="containsText" dxfId="307" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="267" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="266" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="265" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:K56">
-    <cfRule type="containsText" dxfId="303" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="263" priority="5" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="262" priority="6" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="261" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="8" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56:K56">
-    <cfRule type="containsText" dxfId="299" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="259" priority="1" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="258" priority="2" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="257" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34146,7 +33826,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -34958,7 +34638,7 @@
       <c r="E28" s="26" t="s">
         <v>768</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="42" t="s">
@@ -34987,7 +34667,7 @@
       <c r="E29" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="42" t="s">
@@ -35016,7 +34696,7 @@
       <c r="E30" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="19" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="42" t="s">
@@ -36613,832 +36293,832 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A558:A1048576">
-    <cfRule type="containsText" dxfId="295" priority="517" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="255" priority="517" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A558)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="518" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="254" priority="518" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A558)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="519" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="253" priority="519" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A558)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="520" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A558:A1048576 B1:I1">
-    <cfRule type="containsText" dxfId="291" priority="516" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="251" priority="516" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 J4:XFD4 F6 A1:XFD1 J6:XFD6 B2:C11 A2:A30">
-    <cfRule type="containsText" dxfId="290" priority="512" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="250" priority="512" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="513" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="249" priority="513" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="514" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="248" priority="514" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="515" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="cellIs" dxfId="286" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="510" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="511" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="245" priority="511" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="containsText" dxfId="284" priority="509" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="244" priority="509" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8">
-    <cfRule type="containsText" dxfId="283" priority="353" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="243" priority="353" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="354" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="242" priority="354" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="355" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="241" priority="355" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="356" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="279" priority="337" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="239" priority="337" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="338" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="238" priority="338" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="339" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="237" priority="339" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="340" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 D10:F10">
-    <cfRule type="containsText" dxfId="275" priority="333" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="235" priority="333" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="334" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="234" priority="334" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="335" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="233" priority="335" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="336" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="containsText" dxfId="271" priority="329" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="231" priority="329" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="330" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="230" priority="330" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="331" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="229" priority="331" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="332" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I11">
-    <cfRule type="containsText" dxfId="267" priority="293" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="227" priority="293" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="294" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="226" priority="294" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="225" priority="295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="296" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="containsText" dxfId="263" priority="289" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="223" priority="289" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="290" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="222" priority="290" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="221" priority="291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="292" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F13 F14:F15">
-    <cfRule type="containsText" dxfId="259" priority="285" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="219" priority="285" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="286" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="218" priority="286" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="287" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="217" priority="287" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="288" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I13">
-    <cfRule type="containsText" dxfId="255" priority="281" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="215" priority="281" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="282" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="214" priority="282" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="283" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="213" priority="283" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="284" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="containsText" dxfId="251" priority="277" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="211" priority="277" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="278" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="210" priority="278" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="279" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="209" priority="279" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="280" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="containsText" dxfId="247" priority="273" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="207" priority="273" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="274" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="206" priority="274" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="275" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="205" priority="275" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="276" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:I14">
-    <cfRule type="containsText" dxfId="243" priority="269" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="203" priority="269" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="270" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="202" priority="270" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="271" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="201" priority="271" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="272" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C15">
-    <cfRule type="containsText" dxfId="239" priority="253" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="199" priority="253" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="254" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="198" priority="254" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="197" priority="255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="256" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="containsText" dxfId="235" priority="249" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="195" priority="249" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="250" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="194" priority="250" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="251" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="193" priority="251" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="252" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:I15">
-    <cfRule type="containsText" dxfId="231" priority="245" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="191" priority="245" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="246" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="190" priority="246" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="247" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="189" priority="247" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="248" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="containsText" dxfId="227" priority="241" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="187" priority="241" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="242" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="186" priority="242" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="243" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="185" priority="243" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="244" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="containsText" dxfId="223" priority="237" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="183" priority="237" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="238" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="182" priority="238" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="181" priority="239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="240" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:I12">
-    <cfRule type="containsText" dxfId="219" priority="233" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="179" priority="233" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="234" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="178" priority="234" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="177" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="236" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="containsText" dxfId="215" priority="217" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="175" priority="217" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="218" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="174" priority="218" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="219" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="173" priority="219" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="220" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="containsText" dxfId="211" priority="213" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="171" priority="213" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="214" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="170" priority="214" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="169" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="216" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I16">
-    <cfRule type="containsText" dxfId="207" priority="209" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="167" priority="209" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="210" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="166" priority="210" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="165" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="212" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F30">
-    <cfRule type="containsText" dxfId="203" priority="201" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="163" priority="201" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="202" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="162" priority="202" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="203" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="161" priority="203" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="199" priority="197" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="159" priority="197" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="198" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="158" priority="198" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="199" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="157" priority="199" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="200" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="containsText" dxfId="195" priority="193" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="155" priority="193" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="154" priority="194" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="153" priority="195" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="196" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:I18">
-    <cfRule type="containsText" dxfId="191" priority="189" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="151" priority="189" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="190" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="150" priority="190" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="149" priority="191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="192" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="containsText" dxfId="187" priority="185" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="147" priority="185" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="186" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="146" priority="186" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="145" priority="187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="188" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="containsText" dxfId="183" priority="181" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="143" priority="181" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="182" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="142" priority="182" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="141" priority="183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="184" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:I19">
-    <cfRule type="containsText" dxfId="179" priority="177" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="139" priority="177" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="178" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="138" priority="178" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="137" priority="179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="180" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="containsText" dxfId="175" priority="173" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="135" priority="173" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="134" priority="174" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="133" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="containsText" dxfId="171" priority="169" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="131" priority="169" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="170" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="130" priority="170" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="129" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="172" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20">
-    <cfRule type="containsText" dxfId="167" priority="165" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="127" priority="165" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="166" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="126" priority="166" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="125" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="containsText" dxfId="163" priority="161" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="123" priority="161" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="162" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="122" priority="162" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="121" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="164" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="containsText" dxfId="159" priority="157" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="119" priority="157" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="158" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="118" priority="158" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="117" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="160" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21">
-    <cfRule type="containsText" dxfId="155" priority="153" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="115" priority="153" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="114" priority="154" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="113" priority="155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="156" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="151" priority="149" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="111" priority="149" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="150" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="110" priority="150" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="151" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="109" priority="151" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="152" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="containsText" dxfId="147" priority="145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="107" priority="145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="106" priority="146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="105" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:I24">
-    <cfRule type="containsText" dxfId="143" priority="141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="103" priority="141" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="102" priority="142" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="101" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="144" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="139" priority="137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="99" priority="137" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="98" priority="138" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="97" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="140" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="containsText" dxfId="135" priority="133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="95" priority="133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="94" priority="134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="93" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I25">
-    <cfRule type="containsText" dxfId="131" priority="129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="91" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="90" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="89" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="127" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="87" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="86" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="85" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="83" priority="121" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="122" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="82" priority="122" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="81" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="124" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:I26">
-    <cfRule type="containsText" dxfId="119" priority="117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="79" priority="117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="78" priority="118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="77" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="75" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="74" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="73" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="containsText" dxfId="111" priority="109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="71" priority="109" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="70" priority="110" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="69" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="112" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="containsText" dxfId="107" priority="105" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="67" priority="105" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="106" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="66" priority="106" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="65" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="108" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23:C23 B22 B24:B30">
-    <cfRule type="containsText" dxfId="103" priority="101" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="63" priority="101" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="102" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="62" priority="102" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="61" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="104" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="containsText" dxfId="99" priority="97" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="59" priority="97" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="98" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="58" priority="98" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="57" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:I23">
-    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="55" priority="93" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="54" priority="94" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="53" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="96" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="containsText" dxfId="91" priority="89" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="51" priority="89" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="90" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="50" priority="90" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="49" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="92" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="containsText" dxfId="87" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="47" priority="85" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="46" priority="86" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="45" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:I17">
-    <cfRule type="containsText" dxfId="83" priority="81" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="43" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="82" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="42" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="41" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="79" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="39" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="38" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="37" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="35" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="34" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="33" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:I22">
-    <cfRule type="containsText" dxfId="71" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="31" priority="69" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="30" priority="70" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="29" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="72" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="27" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="26" priority="62" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="25" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="64" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:I30">
-    <cfRule type="containsText" dxfId="59" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="23" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="22" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="21" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Ontologia_Ambientes.xlsx
+++ b/Ontologia_Ambientes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLMenegotto\Projetos\OntoBIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359D683F-79AD-416C-A665-8D9DC1AA2EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED83545-E4D0-4FC3-B9D8-38A7A67FE7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{54713FF2-A43C-4A02-94D3-353C9CB17DF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjInfo" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4742" uniqueCount="809">
   <si>
     <t>IfcPolyline</t>
   </si>
@@ -2418,9 +2418,6 @@
     <t>Poligonal formato L cantonera</t>
   </si>
   <si>
-    <t>fofu:tem_nome some</t>
-  </si>
-  <si>
     <t>edificio</t>
   </si>
   <si>
@@ -2455,6 +2452,30 @@
   </si>
   <si>
     <t>Dados para Geolocalização para todos elementos do prédio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fofu:com_forma some </t>
+  </si>
+  <si>
+    <t>Transformação</t>
+  </si>
+  <si>
+    <t>Geométrica</t>
+  </si>
+  <si>
+    <t>Translação</t>
+  </si>
+  <si>
+    <t>Movimento</t>
+  </si>
+  <si>
+    <t>Rotação</t>
+  </si>
+  <si>
+    <t>Reflexão</t>
+  </si>
+  <si>
+    <t>MudançaEscala</t>
   </si>
 </sst>
 </file>
@@ -2804,7 +2825,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1277">
+  <dxfs count="1297">
     <dxf>
       <font>
         <b val="0"/>
@@ -4793,27 +4814,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4846,13 +4846,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4917,27 +4910,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -4970,34 +4942,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5030,7 +4974,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -5069,8 +5027,7 @@
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -5141,6 +5098,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5173,6 +5151,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5205,8 +5211,7 @@
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -5254,6 +5259,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -5285,35 +5298,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -5338,13 +5322,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5377,27 +5354,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5430,7 +5386,8 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -5501,6 +5458,14 @@
       <font>
         <b val="0"/>
         <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -5593,6 +5558,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5625,21 +5611,7 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -5678,41 +5650,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5745,6 +5682,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5777,6 +5735,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5841,6 +5806,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -5873,6 +5859,41 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6001,27 +6022,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6054,13 +6054,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6189,6 +6182,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6221,21 +6235,7 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -6274,34 +6274,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6334,34 +6306,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6394,34 +6338,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6454,13 +6370,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6493,6 +6402,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6525,6 +6455,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6557,6 +6515,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -6617,6 +6582,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6649,6 +6635,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6722,14 +6715,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -6753,6 +6738,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6785,6 +6791,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -6890,6 +6903,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -7210,14 +7231,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -7378,6 +7391,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -7410,14 +7431,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -7505,34 +7518,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -7606,6 +7591,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -7629,27 +7622,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -7682,13 +7654,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -7721,6 +7686,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -7817,6 +7810,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -7849,6 +7863,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8114,14 +8135,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -8282,6 +8295,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -8305,27 +8326,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8358,34 +8358,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8418,13 +8390,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8457,34 +8422,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8549,8 +8486,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <strike val="0"/>
-        <color theme="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -8589,6 +8539,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8621,6 +8599,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8653,6 +8638,34 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8726,6 +8739,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -8781,27 +8802,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8834,13 +8834,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8937,27 +8930,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -8990,7 +8962,21 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
       </font>
     </dxf>
     <dxf>
@@ -9029,6 +9015,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9125,6 +9118,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9157,6 +9171,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9262,14 +9283,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -9421,21 +9434,8 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
+        <strike val="0"/>
+        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -9474,13 +9474,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9609,6 +9602,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9641,6 +9655,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -9714,14 +9735,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -9882,6 +9895,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -10161,27 +10182,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -10214,13 +10214,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -10261,42 +10254,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
@@ -10385,6 +10342,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -10417,6 +10395,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -10449,7 +10434,36 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1" tint="0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -10529,14 +10543,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -10624,6 +10630,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -10697,6 +10710,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -10921,14 +10942,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -10952,34 +10965,6 @@
       <font>
         <b val="0"/>
         <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -11117,6 +11102,14 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
@@ -11140,6 +11133,27 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -11172,6 +11186,13 @@
       <font>
         <b val="0"/>
         <i/>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -12357,30 +12378,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -12573,6 +12570,30 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -12669,22 +12690,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -12717,14 +12722,6 @@
         <b val="0"/>
         <i/>
         <strike val="0"/>
-        <color theme="2" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
@@ -12750,6 +12747,190 @@
         <i val="0"/>
         <strike val="0"/>
         <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="2" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -20215,21 +20396,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A179 A1:L1">
-    <cfRule type="containsText" dxfId="1276" priority="2" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1296" priority="2" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="3" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1295" priority="3" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1274" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1294" priority="4" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1273" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1293" priority="5" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:B179 A2:A92 C2:L179 A1:L1">
-    <cfRule type="cellIs" dxfId="1272" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1292" priority="1" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20239,24 +20420,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C443A3DD-080C-431B-94F2-F6282C8E2BED}">
-  <dimension ref="A1:O123"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="55.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="40.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="46" style="2" customWidth="1"/>
+    <col min="9" max="9" width="52.5546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="72.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="6" style="46" customWidth="1"/>
     <col min="12" max="13" width="45.77734375" style="2" customWidth="1"/>
@@ -20334,7 +20512,7 @@
         <v>520</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>648</v>
+        <v>208</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>713</v>
@@ -23022,10 +23200,10 @@
         <v>692</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>789</v>
+        <v>648</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>208</v>
+        <v>801</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>767</v>
@@ -25020,7 +25198,7 @@
     </row>
     <row r="100" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="27">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>230</v>
@@ -25051,7 +25229,7 @@
       </c>
       <c r="K100" s="45" t="str">
         <f t="shared" ref="K100:K104" si="12">_xlfn.CONCAT("FOR-",A100)</f>
-        <v>FOR-99</v>
+        <v>FOR-100</v>
       </c>
       <c r="L100" s="35" t="s">
         <v>726</v>
@@ -25068,7 +25246,7 @@
     </row>
     <row r="101" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="27">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>230</v>
@@ -25099,7 +25277,7 @@
       </c>
       <c r="K101" s="45" t="str">
         <f t="shared" si="12"/>
-        <v>FOR-95</v>
+        <v>FOR-101</v>
       </c>
       <c r="L101" s="35" t="s">
         <v>726</v>
@@ -25116,7 +25294,7 @@
     </row>
     <row r="102" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="27">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>230</v>
@@ -25147,7 +25325,7 @@
       </c>
       <c r="K102" s="45" t="str">
         <f t="shared" si="12"/>
-        <v>FOR-96</v>
+        <v>FOR-102</v>
       </c>
       <c r="L102" s="35" t="s">
         <v>726</v>
@@ -25164,7 +25342,7 @@
     </row>
     <row r="103" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="27">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>230</v>
@@ -25195,7 +25373,7 @@
       </c>
       <c r="K103" s="45" t="str">
         <f t="shared" si="12"/>
-        <v>FOR-97</v>
+        <v>FOR-103</v>
       </c>
       <c r="L103" s="35" t="s">
         <v>726</v>
@@ -25212,7 +25390,7 @@
     </row>
     <row r="104" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="27">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>230</v>
@@ -25243,7 +25421,7 @@
       </c>
       <c r="K104" s="45" t="str">
         <f t="shared" si="12"/>
-        <v>FOR-98</v>
+        <v>FOR-104</v>
       </c>
       <c r="L104" s="35" t="s">
         <v>726</v>
@@ -25260,7 +25438,7 @@
     </row>
     <row r="105" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="27">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>230</v>
@@ -25291,7 +25469,7 @@
       </c>
       <c r="K105" s="45" t="str">
         <f t="shared" ref="K105:K108" si="13">_xlfn.CONCAT("FOR-",A105)</f>
-        <v>FOR-95</v>
+        <v>FOR-105</v>
       </c>
       <c r="L105" s="35" t="s">
         <v>726</v>
@@ -25308,7 +25486,7 @@
     </row>
     <row r="106" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="27">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>230</v>
@@ -25339,7 +25517,7 @@
       </c>
       <c r="K106" s="45" t="str">
         <f t="shared" si="13"/>
-        <v>FOR-96</v>
+        <v>FOR-106</v>
       </c>
       <c r="L106" s="35" t="s">
         <v>726</v>
@@ -25356,7 +25534,7 @@
     </row>
     <row r="107" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="27">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>230</v>
@@ -25387,7 +25565,7 @@
       </c>
       <c r="K107" s="45" t="str">
         <f t="shared" si="13"/>
-        <v>FOR-97</v>
+        <v>FOR-107</v>
       </c>
       <c r="L107" s="35" t="s">
         <v>726</v>
@@ -25404,7 +25582,7 @@
     </row>
     <row r="108" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="27">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>230</v>
@@ -25435,7 +25613,7 @@
       </c>
       <c r="K108" s="45" t="str">
         <f t="shared" si="13"/>
-        <v>FOR-98</v>
+        <v>FOR-108</v>
       </c>
       <c r="L108" s="35" t="s">
         <v>726</v>
@@ -25452,7 +25630,7 @@
     </row>
     <row r="109" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="27">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>230</v>
@@ -25483,7 +25661,7 @@
       </c>
       <c r="K109" s="45" t="str">
         <f>_xlfn.CONCAT("AND-",A109)</f>
-        <v>AND-100</v>
+        <v>AND-109</v>
       </c>
       <c r="L109" s="36" t="s">
         <v>702</v>
@@ -25500,7 +25678,7 @@
     </row>
     <row r="110" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="27">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>230</v>
@@ -25531,7 +25709,7 @@
       </c>
       <c r="K110" s="45" t="str">
         <f>_xlfn.CONCAT("BIM-",A110)</f>
-        <v>BIM-101</v>
+        <v>BIM-110</v>
       </c>
       <c r="L110" s="35" t="s">
         <v>457</v>
@@ -25548,7 +25726,7 @@
     </row>
     <row r="111" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="27">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>230</v>
@@ -25579,7 +25757,7 @@
       </c>
       <c r="K111" s="45" t="str">
         <f>_xlfn.CONCAT("BIM-",A111)</f>
-        <v>BIM-102</v>
+        <v>BIM-111</v>
       </c>
       <c r="L111" s="35" t="s">
         <v>457</v>
@@ -25596,7 +25774,7 @@
     </row>
     <row r="112" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="27">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>230</v>
@@ -25627,7 +25805,7 @@
       </c>
       <c r="K112" s="45" t="str">
         <f t="shared" ref="K112:K123" si="14">_xlfn.CONCAT("BIM-",A112)</f>
-        <v>BIM-103</v>
+        <v>BIM-112</v>
       </c>
       <c r="L112" s="35" t="s">
         <v>457</v>
@@ -25644,7 +25822,7 @@
     </row>
     <row r="113" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="27">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>230</v>
@@ -25675,7 +25853,7 @@
       </c>
       <c r="K113" s="45" t="str">
         <f t="shared" ref="K113" si="15">_xlfn.CONCAT("BIM-",A113)</f>
-        <v>BIM-104</v>
+        <v>BIM-113</v>
       </c>
       <c r="L113" s="35" t="s">
         <v>457</v>
@@ -25692,7 +25870,7 @@
     </row>
     <row r="114" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="27">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>230</v>
@@ -25723,7 +25901,7 @@
       </c>
       <c r="K114" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-105</v>
+        <v>BIM-114</v>
       </c>
       <c r="L114" s="35" t="s">
         <v>457</v>
@@ -25740,7 +25918,7 @@
     </row>
     <row r="115" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="27">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>230</v>
@@ -25771,7 +25949,7 @@
       </c>
       <c r="K115" s="45" t="str">
         <f t="shared" ref="K115" si="16">_xlfn.CONCAT("BIM-",A115)</f>
-        <v>BIM-106</v>
+        <v>BIM-115</v>
       </c>
       <c r="L115" s="35" t="s">
         <v>463</v>
@@ -25788,7 +25966,7 @@
     </row>
     <row r="116" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="27">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>230</v>
@@ -25819,7 +25997,7 @@
       </c>
       <c r="K116" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-107</v>
+        <v>BIM-116</v>
       </c>
       <c r="L116" s="35" t="s">
         <v>463</v>
@@ -25836,7 +26014,7 @@
     </row>
     <row r="117" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="27">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>230</v>
@@ -25867,7 +26045,7 @@
       </c>
       <c r="K117" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-108</v>
+        <v>BIM-117</v>
       </c>
       <c r="L117" s="35" t="s">
         <v>463</v>
@@ -25884,7 +26062,7 @@
     </row>
     <row r="118" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="27">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>230</v>
@@ -25915,7 +26093,7 @@
       </c>
       <c r="K118" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-109</v>
+        <v>BIM-118</v>
       </c>
       <c r="L118" s="35" t="s">
         <v>463</v>
@@ -25932,7 +26110,7 @@
     </row>
     <row r="119" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="27">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>230</v>
@@ -25963,7 +26141,7 @@
       </c>
       <c r="K119" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-110</v>
+        <v>BIM-119</v>
       </c>
       <c r="L119" s="35" t="s">
         <v>463</v>
@@ -25980,7 +26158,7 @@
     </row>
     <row r="120" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="27">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>230</v>
@@ -26011,7 +26189,7 @@
       </c>
       <c r="K120" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-111</v>
+        <v>BIM-120</v>
       </c>
       <c r="L120" s="35" t="s">
         <v>463</v>
@@ -26028,7 +26206,7 @@
     </row>
     <row r="121" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="27">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>230</v>
@@ -26059,7 +26237,7 @@
       </c>
       <c r="K121" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-112</v>
+        <v>BIM-121</v>
       </c>
       <c r="L121" s="35" t="s">
         <v>463</v>
@@ -26076,7 +26254,7 @@
     </row>
     <row r="122" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="27">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>230</v>
@@ -26107,7 +26285,7 @@
       </c>
       <c r="K122" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-113</v>
+        <v>BIM-122</v>
       </c>
       <c r="L122" s="35" t="s">
         <v>463</v>
@@ -26124,7 +26302,7 @@
     </row>
     <row r="123" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="27">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>230</v>
@@ -26155,7 +26333,7 @@
       </c>
       <c r="K123" s="45" t="str">
         <f t="shared" si="14"/>
-        <v>BIM-114</v>
+        <v>BIM-123</v>
       </c>
       <c r="L123" s="35" t="s">
         <v>463</v>
@@ -26167,6 +26345,198 @@
         <v>466</v>
       </c>
       <c r="O123" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="27">
+        <v>124</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I124" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J124" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K124" s="45" t="str">
+        <f t="shared" ref="K124" si="17">_xlfn.CONCAT("BIM-",A124)</f>
+        <v>BIM-124</v>
+      </c>
+      <c r="L124" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="M124" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="N124" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="O124" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="27">
+        <v>125</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="G125" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I125" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J125" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K125" s="45" t="str">
+        <f t="shared" ref="K125:K127" si="18">_xlfn.CONCAT("BIM-",A125)</f>
+        <v>BIM-125</v>
+      </c>
+      <c r="L125" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="M125" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="N125" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="O125" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="27">
+        <v>126</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G126" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H126" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I126" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J126" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K126" s="45" t="str">
+        <f t="shared" si="18"/>
+        <v>BIM-126</v>
+      </c>
+      <c r="L126" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="M126" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="N126" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="O126" s="39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="27">
+        <v>127</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H127" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I127" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="J127" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K127" s="45" t="str">
+        <f t="shared" si="18"/>
+        <v>BIM-127</v>
+      </c>
+      <c r="L127" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="M127" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="N127" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="O127" s="39" t="s">
         <v>351</v>
       </c>
     </row>
@@ -26175,803 +26545,803 @@
     <sortCondition ref="E1:E117"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H118:J123 B118 P1:XFD1 A1:K1 D119:D123 J66:J69 J64 J70:K75 H64 H66 H67:J67 H65:J65 H25:N25 H68:H75 H63:J63 B2:XFD2 K63:K69 D63:G75 D60:K62 B59:C75 N82:XFD87 M88:XFD89 H76:XFD76 B76:G89 O25:XFD55 H3:XFD24 M26:N55 H26:L57 H77:L89 M82:M89 M77:XFD81 L59:L75 M56:XFD75 A124:XFD1048576 B109:XFD109 J116 K116:K123 G110:G123 P110:XFD123 J110:K115 I58:L58 D59:G59 I59:K59 H58:H59 P90:XFD108 G90:K108 A2:A123 B3:G58">
-    <cfRule type="containsText" dxfId="1271" priority="849" operator="containsText" text="_">
+  <conditionalFormatting sqref="H118:J123 B118 P1:XFD1 A1:K1 J66:J69 J64 J70:K75 H64 H66 H67:J67 H65:J65 H25:N25 H68:H75 H63:J63 K63:K69 D63:G75 D60:K62 B59:C75 N82:XFD87 M88:XFD89 H76:XFD76 B76:G89 O25:XFD55 H3:XFD24 M26:N55 H26:L57 H77:L89 M82:M89 M77:XFD81 L59:L75 M56:XFD75 A128:XFD1048576 B109:XFD109 J116 K116:K123 G110:G123 J110:K115 I59:K59 P90:XFD108 G90:K108 B2:XFD2 B3:G58 D59:G59 H58:H59 I58:L58 D119:D123 P110:XFD127 A2:A127 E124:K127">
+    <cfRule type="containsText" dxfId="3" priority="857" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="850" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="2" priority="858" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="851" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1" priority="859" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1268" priority="852" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="860" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:I111 B111">
-    <cfRule type="containsText" dxfId="1267" priority="511" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1291" priority="519" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1266" priority="512" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1290" priority="520" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1265" priority="513" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1289" priority="521" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B111)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1264" priority="514" operator="equal">
+    <cfRule type="cellIs" dxfId="1288" priority="522" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H112:I112 B112">
-    <cfRule type="containsText" dxfId="1263" priority="507" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1287" priority="515" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="508" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1286" priority="516" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B112)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1261" priority="509" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1285" priority="517" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B112)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1260" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="1284" priority="518" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H110:I110 B110:E110 I68:I75 D115:D118 C111:E114">
-    <cfRule type="containsText" dxfId="1259" priority="503" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1283" priority="511" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1258" priority="504" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1282" priority="512" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1257" priority="505" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1281" priority="513" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1256" priority="506" operator="equal">
+    <cfRule type="cellIs" dxfId="1280" priority="514" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H116:I116 B116:C116 C117:C123">
-    <cfRule type="containsText" dxfId="1255" priority="499" operator="containsText" text="_">
+  <conditionalFormatting sqref="H116:I116 B116:C116 C117:C123 D124:D127">
+    <cfRule type="containsText" dxfId="1279" priority="507" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="500" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1278" priority="508" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1253" priority="501" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1277" priority="509" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B116)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1252" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="1276" priority="510" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F115:F116">
-    <cfRule type="cellIs" dxfId="1251" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="1275" priority="506" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117:J117 B117">
-    <cfRule type="containsText" dxfId="1250" priority="493" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1274" priority="501" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="494" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1273" priority="502" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1248" priority="495" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1272" priority="503" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B117)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1247" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="1271" priority="504" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F117">
-    <cfRule type="cellIs" dxfId="1246" priority="492" operator="equal">
+    <cfRule type="cellIs" dxfId="1270" priority="500" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F118">
-    <cfRule type="cellIs" dxfId="1245" priority="490" operator="equal">
+    <cfRule type="cellIs" dxfId="1269" priority="498" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B113:B114">
-    <cfRule type="containsText" dxfId="1244" priority="485" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1268" priority="493" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="486" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1267" priority="494" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="487" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1266" priority="495" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B113)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1241" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="1265" priority="496" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H114:I114">
-    <cfRule type="containsText" dxfId="1240" priority="481" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1264" priority="489" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1239" priority="482" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1263" priority="490" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1238" priority="483" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1262" priority="491" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H114)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1237" priority="484" operator="equal">
+    <cfRule type="cellIs" dxfId="1261" priority="492" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B119">
-    <cfRule type="containsText" dxfId="1236" priority="468" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1260" priority="476" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1235" priority="469" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1259" priority="477" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1234" priority="470" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1258" priority="478" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B119)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1233" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="1257" priority="479" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B120">
-    <cfRule type="containsText" dxfId="1232" priority="464" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1256" priority="472" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1231" priority="465" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1255" priority="473" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1230" priority="466" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1254" priority="474" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B120)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1229" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="1253" priority="475" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B122">
-    <cfRule type="containsText" dxfId="1228" priority="460" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1252" priority="468" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1227" priority="461" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1251" priority="469" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B122)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1226" priority="462" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1250" priority="470" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B122)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1225" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="1249" priority="471" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="containsText" dxfId="1224" priority="455" operator="containsText" text="_">
+  <conditionalFormatting sqref="B123:B127 C124:C127">
+    <cfRule type="containsText" dxfId="1248" priority="463" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1223" priority="456" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1247" priority="464" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1222" priority="457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1246" priority="465" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B123)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1221" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="1245" priority="466" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B121">
-    <cfRule type="containsText" dxfId="1220" priority="449" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1244" priority="457" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1219" priority="450" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1243" priority="458" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B121)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1218" priority="451" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1242" priority="459" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B121)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1217" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="1241" priority="460" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:O1">
-    <cfRule type="containsText" dxfId="1216" priority="438" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1240" priority="446" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1215" priority="439" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1239" priority="447" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",L1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1214" priority="440" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1238" priority="448" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",L1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1213" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="1237" priority="449" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O119:O120">
-    <cfRule type="containsText" dxfId="1212" priority="430" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1236" priority="438" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1211" priority="431" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1235" priority="439" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1210" priority="432" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1234" priority="440" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O119)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1209" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="1233" priority="441" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115:O116">
-    <cfRule type="cellIs" dxfId="1208" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="1232" priority="437" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O117">
-    <cfRule type="cellIs" dxfId="1207" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="1231" priority="436" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O118">
-    <cfRule type="cellIs" dxfId="1206" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="1230" priority="435" operator="equal">
       <formula>"Vnulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E115:E123">
-    <cfRule type="containsText" dxfId="1205" priority="423" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1229" priority="431" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1204" priority="424" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1228" priority="432" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1203" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1227" priority="433" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E115)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1202" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="1226" priority="434" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="containsText" dxfId="1201" priority="419" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1225" priority="427" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1200" priority="420" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1224" priority="428" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1199" priority="421" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1223" priority="429" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I66)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1198" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="1222" priority="430" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="containsText" dxfId="1197" priority="415" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1221" priority="423" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1196" priority="416" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1220" priority="424" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1195" priority="417" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1219" priority="425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1194" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="1218" priority="426" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90:E108">
-    <cfRule type="containsText" dxfId="1193" priority="145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1217" priority="153" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1192" priority="146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1216" priority="154" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1191" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1215" priority="155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1190" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="1214" priority="156" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B98">
-    <cfRule type="containsText" dxfId="1189" priority="141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1213" priority="149" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1188" priority="142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1212" priority="150" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1187" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1211" priority="151" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B98)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1186" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="1210" priority="152" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B100">
-    <cfRule type="containsText" dxfId="1185" priority="137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1209" priority="145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1184" priority="138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1208" priority="146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1183" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1207" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B99)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1182" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="1206" priority="148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsText" dxfId="1181" priority="133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1205" priority="141" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1180" priority="134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1204" priority="142" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1179" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1203" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C98)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1178" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="1202" priority="144" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C99:C100">
-    <cfRule type="containsText" dxfId="1177" priority="129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1201" priority="137" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1176" priority="130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1200" priority="138" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1175" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1199" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C99)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1174" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="1198" priority="140" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="1173" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1197" priority="133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1172" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1196" priority="134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1195" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B94)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1170" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="1194" priority="136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="1169" priority="121" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1193" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1168" priority="122" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1192" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1167" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1191" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B95)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1166" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="1190" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="1165" priority="117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1189" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1164" priority="118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1188" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1163" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1187" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C94)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1162" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="1186" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="1161" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1185" priority="121" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1160" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1184" priority="122" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1159" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1183" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C95)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1158" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="1182" priority="124" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96">
-    <cfRule type="containsText" dxfId="1157" priority="109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1181" priority="117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1156" priority="110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1180" priority="118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1155" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1179" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B96)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1154" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="1178" priority="120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="1153" priority="105" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1177" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1152" priority="106" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1176" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1151" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1175" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B97)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1150" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="1174" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="1149" priority="101" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1173" priority="109" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1148" priority="102" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1172" priority="110" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1147" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1171" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C96)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1146" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="1170" priority="112" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C97">
-    <cfRule type="containsText" dxfId="1145" priority="97" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1169" priority="105" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1144" priority="98" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1168" priority="106" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1143" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1167" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C97)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1142" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="1166" priority="108" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsText" dxfId="1141" priority="93" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1165" priority="101" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1140" priority="94" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1164" priority="102" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1139" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1163" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1138" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="1162" priority="104" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="1137" priority="89" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1161" priority="97" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1136" priority="90" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1160" priority="98" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1135" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1159" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1134" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="1158" priority="100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C90">
-    <cfRule type="containsText" dxfId="1133" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1157" priority="93" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1132" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1156" priority="94" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1131" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1155" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C90)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1130" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="1154" priority="96" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="1129" priority="81" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1153" priority="89" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1128" priority="82" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1152" priority="90" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1127" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1151" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C91)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1126" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="1150" priority="92" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="1125" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1149" priority="85" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1124" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1148" priority="86" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1123" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1147" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B92)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1122" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="1146" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="1121" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1145" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1120" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1144" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1119" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1143" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B93)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1118" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="1142" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="1117" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1141" priority="77" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1116" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1140" priority="78" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1115" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1139" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C92)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1114" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="1138" priority="80" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C93">
-    <cfRule type="containsText" dxfId="1113" priority="65" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1137" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1112" priority="66" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1136" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1111" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1135" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C93)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1110" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="1134" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115:I115 B115:C115">
-    <cfRule type="containsText" dxfId="1109" priority="61" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1133" priority="69" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1108" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1132" priority="70" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1131" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B115)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1106" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="1130" priority="72" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:I113">
-    <cfRule type="containsText" dxfId="1105" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1129" priority="65" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1104" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1128" priority="66" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1103" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1127" priority="67" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H113)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1102" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="1126" priority="68" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104 B108">
-    <cfRule type="containsText" dxfId="1101" priority="53" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1125" priority="61" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1100" priority="54" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1124" priority="62" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1099" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1123" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B104)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1098" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="1122" priority="64" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104 C108">
-    <cfRule type="containsText" dxfId="1097" priority="49" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1121" priority="57" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1096" priority="50" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1120" priority="58" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1119" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C104)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1094" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="1118" priority="60" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B101">
-    <cfRule type="containsText" dxfId="1093" priority="45" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1117" priority="53" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1092" priority="46" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1116" priority="54" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1091" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1115" priority="55" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B101)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1090" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="1114" priority="56" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="1089" priority="41" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1113" priority="49" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1088" priority="42" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1112" priority="50" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1087" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1111" priority="51" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C101)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1086" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="1110" priority="52" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B102">
-    <cfRule type="containsText" dxfId="1085" priority="37" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1109" priority="45" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1084" priority="38" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1108" priority="46" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1107" priority="47" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B102)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1082" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="1106" priority="48" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103">
-    <cfRule type="containsText" dxfId="1081" priority="33" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1105" priority="41" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1080" priority="34" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1104" priority="42" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1079" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1103" priority="43" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B103)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1078" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="1102" priority="44" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="1077" priority="29" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1101" priority="37" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1076" priority="30" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1100" priority="38" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1099" priority="39" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C102)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1074" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="1098" priority="40" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="1073" priority="25" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1097" priority="33" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1072" priority="26" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1096" priority="34" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1071" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1095" priority="35" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C103)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1070" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="1094" priority="36" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105">
-    <cfRule type="containsText" dxfId="1069" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1093" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1068" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1092" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1067" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1091" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B105)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1066" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="1090" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="containsText" dxfId="1065" priority="17" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1089" priority="25" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1064" priority="18" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1088" priority="26" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1063" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1087" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C105)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1062" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="1086" priority="28" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B106">
-    <cfRule type="containsText" dxfId="1061" priority="13" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1085" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1060" priority="14" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1084" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1059" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1083" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B106)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1058" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="1082" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B107">
-    <cfRule type="containsText" dxfId="1057" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1081" priority="17" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1056" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1080" priority="18" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1055" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1079" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B107)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1054" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1078" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="1053" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1077" priority="13" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1052" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1076" priority="14" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1051" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1075" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C106)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1050" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1074" priority="16" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="1049" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1073" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1048" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1072" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1047" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1071" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C107)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1046" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1070" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27086,30 +27456,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:XFD2 A2 A3:XFD1048576 A1:XFD1">
-    <cfRule type="containsText" dxfId="1045" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1069" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1044" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1068" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1043" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1067" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1042" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="1066" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:M2">
-    <cfRule type="containsText" dxfId="1041" priority="9" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1065" priority="9" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1040" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1064" priority="10" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1039" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1063" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1038" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1062" priority="12" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27122,9 +27492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62272EF8-F168-46E8-B331-113C6804F082}">
   <dimension ref="A1:O621"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A65"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27484,7 +27854,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C8" s="17" t="str">
         <f>B9</f>
@@ -27525,7 +27895,7 @@
         <v>208</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -27677,7 +28047,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C12" s="17" t="str">
         <f>B13</f>
@@ -27718,7 +28088,7 @@
         <v>208</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -27726,10 +28096,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D13" s="18" t="str">
         <f t="shared" ref="D13:D16" si="2">_xlfn.CONCAT("tem_",C13)</f>
@@ -27766,7 +28136,7 @@
         <v>215</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -27774,10 +28144,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D14" s="18" t="str">
         <f t="shared" si="2"/>
@@ -27814,7 +28184,7 @@
         <v>215</v>
       </c>
       <c r="O14" s="36" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -27822,10 +28192,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D15" s="18" t="str">
         <f t="shared" si="2"/>
@@ -27862,7 +28232,7 @@
         <v>215</v>
       </c>
       <c r="O15" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -27870,10 +28240,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D16" s="18" t="str">
         <f t="shared" si="2"/>
@@ -27910,7 +28280,7 @@
         <v>215</v>
       </c>
       <c r="O16" s="36" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -32508,2856 +32878,2856 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A622:B1048576">
-    <cfRule type="containsText" dxfId="1037" priority="2622" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1061" priority="2622" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A622)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1036" priority="2623" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1060" priority="2623" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A622)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1035" priority="2624" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1059" priority="2624" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A622)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1034" priority="2625" operator="equal">
+    <cfRule type="cellIs" dxfId="1058" priority="2625" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A622:B1048576 C41:C42 D1:N1 N51:N54 C13:C16 N12:N16 C4 N2:N7 N30:N43">
-    <cfRule type="containsText" dxfId="1033" priority="2621" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="1057" priority="2621" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:G48 G44:I44 J35:K39 L31:M39 G40:M40 B41:H43 P41:XFD42 A1:N1 J60:M61 F60:H61 P58:XFD58 I60:I65 B50 D50 I50 B51:I54 N51:N54 C55:C58 P60:XFD60 B59:O59 O60:O65 B60:E65 P30:XFD30 I30:M30 B30:C30 B12:C12 I12:M12 P1:XFD1 J13:M16 F13:F16 G12:H16 N12:O16 B13:D16 G30:H39 O17:O24 C17:C24 P24:XFD24 N26:O39 P26:XFD26 N25:XFD25 B25:D29 P12:XFD12 I8:M8 J9:M11 O8:O11 B8:C8 J41:M57 P44:XFD45 C2:C3 J3:M4 P3:XFD4 G2:M2 N2:O4 J5:XFD7 B3:H7 N40:N43 O40:O58 C40:C50 A2:A65">
-    <cfRule type="containsText" dxfId="3" priority="2617" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1056" priority="2617" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2618" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1055" priority="2618" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2619" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1054" priority="2619" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2620" operator="equal">
+    <cfRule type="cellIs" dxfId="1053" priority="2620" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42 D1:N1 N51:N54 C13:C16 N12:N16 C4 N2:N7 N30:N43">
-    <cfRule type="cellIs" dxfId="1032" priority="2615" operator="equal">
+    <cfRule type="cellIs" dxfId="1052" priority="2615" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1031" priority="2616" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1051" priority="2616" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42 D1:N1 N51:N54 C13:C16 N12:N16 C4 N2:N7 N30:N43">
-    <cfRule type="containsText" dxfId="1030" priority="2614" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1050" priority="2614" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F39 D30:F30">
-    <cfRule type="containsText" dxfId="1029" priority="2605" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1049" priority="2605" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1028" priority="2606" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1048" priority="2606" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1027" priority="2607" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1047" priority="2607" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1026" priority="2608" operator="equal">
+    <cfRule type="cellIs" dxfId="1046" priority="2608" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B16 B30:B39">
-    <cfRule type="containsText" dxfId="1025" priority="2583" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="1045" priority="2583" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35:XFD39 B35:B39 E35:E39">
-    <cfRule type="containsText" dxfId="1024" priority="2563" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1044" priority="2563" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1023" priority="2564" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1043" priority="2564" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1022" priority="2565" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1042" priority="2565" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B35)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1021" priority="2566" operator="equal">
+    <cfRule type="cellIs" dxfId="1041" priority="2566" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 P43:XFD43">
-    <cfRule type="containsText" dxfId="1020" priority="2379" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1040" priority="2379" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1019" priority="2380" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1039" priority="2380" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1018" priority="2381" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1038" priority="2381" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1017" priority="2382" operator="equal">
+    <cfRule type="cellIs" dxfId="1037" priority="2382" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B39 P34:XFD34">
-    <cfRule type="containsText" dxfId="1016" priority="2346" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1036" priority="2346" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1015" priority="2347" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1035" priority="2347" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1014" priority="2348" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1034" priority="2348" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1013" priority="2349" operator="equal">
+    <cfRule type="cellIs" dxfId="1033" priority="2349" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31:K34">
-    <cfRule type="containsText" dxfId="1012" priority="2342" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1032" priority="2342" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1011" priority="2343" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1031" priority="2343" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1010" priority="2344" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1030" priority="2344" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1009" priority="2345" operator="equal">
+    <cfRule type="cellIs" dxfId="1029" priority="2345" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E34">
-    <cfRule type="containsText" dxfId="1008" priority="2338" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1028" priority="2338" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1007" priority="2339" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1027" priority="2339" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1006" priority="2340" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1026" priority="2340" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="2341" operator="equal">
+    <cfRule type="cellIs" dxfId="1025" priority="2341" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P31:XFD31 D31:D39 B31:B39">
-    <cfRule type="containsText" dxfId="1004" priority="2297" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1024" priority="2297" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1003" priority="2298" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1023" priority="2298" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1002" priority="2299" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1022" priority="2299" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="2300" operator="equal">
+    <cfRule type="cellIs" dxfId="1021" priority="2300" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32 P32:XFD32">
-    <cfRule type="containsText" dxfId="1000" priority="2293" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1020" priority="2293" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="999" priority="2294" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1019" priority="2294" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="998" priority="2295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1018" priority="2295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="2296" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="2296" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33 P33:XFD33">
-    <cfRule type="containsText" dxfId="996" priority="2289" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1016" priority="2289" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="995" priority="2290" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1015" priority="2290" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="2291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1014" priority="2291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="993" priority="2292" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="2292" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46:XFD46">
-    <cfRule type="containsText" dxfId="992" priority="2275" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1012" priority="2275" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="991" priority="2276" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1011" priority="2276" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="990" priority="2277" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1010" priority="2277" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P46)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="2278" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="2278" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P48:XFD48">
-    <cfRule type="containsText" dxfId="988" priority="2264" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1008" priority="2264" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="987" priority="2265" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1007" priority="2265" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="2266" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1006" priority="2266" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="2267" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="2267" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47:XFD47">
-    <cfRule type="containsText" dxfId="984" priority="2260" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1004" priority="2260" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="983" priority="2261" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="1003" priority="2261" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="982" priority="2262" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="1002" priority="2262" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="2263" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="2263" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H48">
-    <cfRule type="containsText" dxfId="980" priority="1936" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="1000" priority="1936" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="979" priority="1937" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="999" priority="1937" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="978" priority="1938" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="998" priority="1938" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="1939" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1939" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="976" priority="1935" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="996" priority="1935" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B44)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="975" priority="1931" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="995" priority="1931" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="974" priority="1932" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="994" priority="1932" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="1933" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="993" priority="1933" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="1934" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="1934" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48 E44:F44">
-    <cfRule type="containsText" dxfId="971" priority="1927" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="991" priority="1927" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="970" priority="1928" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="990" priority="1928" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="969" priority="1929" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="989" priority="1929" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1930" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="1930" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47:E48">
-    <cfRule type="containsText" dxfId="967" priority="1922" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="987" priority="1922" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="966" priority="1918" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="986" priority="1918" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="965" priority="1919" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="985" priority="1919" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="964" priority="1920" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="984" priority="1920" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="1921" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1921" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B48">
-    <cfRule type="containsText" dxfId="962" priority="1914" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="982" priority="1914" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="1915" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="981" priority="1915" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="1916" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="980" priority="1916" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1917" operator="equal">
+    <cfRule type="cellIs" dxfId="979" priority="1917" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="containsText" dxfId="958" priority="1910" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="978" priority="1910" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="957" priority="1911" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="977" priority="1911" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="956" priority="1912" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="976" priority="1912" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1913" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="1913" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="containsText" dxfId="954" priority="1906" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="974" priority="1906" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="953" priority="1907" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="973" priority="1907" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="1908" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="972" priority="1908" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="951" priority="1909" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="1909" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="containsText" dxfId="950" priority="1902" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="970" priority="1902" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="949" priority="1903" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="969" priority="1903" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="948" priority="1904" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="968" priority="1904" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E46)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="1905" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1905" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 C12 C1:C2">
-    <cfRule type="containsText" dxfId="946" priority="1713" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="966" priority="1713" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 C12 C1:C2">
-    <cfRule type="cellIs" dxfId="945" priority="1711" operator="equal">
+    <cfRule type="cellIs" dxfId="965" priority="1711" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="944" priority="1712" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="964" priority="1712" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30 C12 C1:C2">
-    <cfRule type="containsText" dxfId="943" priority="1710" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="963" priority="1710" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="942" priority="1709" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="962" priority="1709" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31 C35:C39">
-    <cfRule type="containsText" dxfId="941" priority="1701" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="961" priority="1701" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="940" priority="1702" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="960" priority="1702" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="939" priority="1703" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="959" priority="1703" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="1704" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1704" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C39">
-    <cfRule type="containsText" dxfId="937" priority="1700" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="957" priority="1700" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C39">
-    <cfRule type="containsText" dxfId="936" priority="1696" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="956" priority="1696" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="935" priority="1697" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="955" priority="1697" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="934" priority="1698" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="954" priority="1698" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1699" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1699" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C39">
-    <cfRule type="cellIs" dxfId="932" priority="1694" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1694" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="1695" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="951" priority="1695" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C39">
-    <cfRule type="containsText" dxfId="930" priority="1693" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="950" priority="1693" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="929" priority="1669" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="949" priority="1669" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="928" priority="1670" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="948" priority="1670" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="927" priority="1671" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="947" priority="1671" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="1672" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="1672" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="925" priority="1665" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="945" priority="1665" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="924" priority="1666" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="944" priority="1666" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="923" priority="1667" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="943" priority="1667" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="1668" operator="equal">
+    <cfRule type="cellIs" dxfId="942" priority="1668" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="921" priority="1661" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="941" priority="1661" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="920" priority="1662" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="940" priority="1662" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="919" priority="1663" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="939" priority="1663" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="1664" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="1664" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D48">
-    <cfRule type="containsText" dxfId="917" priority="1604" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="937" priority="1604" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="916" priority="1605" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="936" priority="1605" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="915" priority="1606" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="935" priority="1606" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="1607" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1607" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="containsText" dxfId="913" priority="1588" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="933" priority="1588" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="912" priority="1589" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="932" priority="1589" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="911" priority="1590" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="931" priority="1590" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1591" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1591" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="containsText" dxfId="909" priority="1584" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="929" priority="1584" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="908" priority="1585" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="928" priority="1585" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="907" priority="1586" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="927" priority="1586" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N33)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="1587" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1587" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32:N34">
-    <cfRule type="containsText" dxfId="905" priority="1580" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="925" priority="1580" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="1581" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="924" priority="1581" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="1582" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="923" priority="1582" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N32)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1583" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="1583" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N31:N33">
-    <cfRule type="containsText" dxfId="901" priority="1576" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="921" priority="1576" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="1577" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="920" priority="1577" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="899" priority="1578" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="919" priority="1578" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N31)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="1579" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="1579" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="containsText" dxfId="897" priority="1564" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="917" priority="1564" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="896" priority="1565" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="916" priority="1565" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="895" priority="1566" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="915" priority="1566" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="1567" operator="equal">
+    <cfRule type="cellIs" dxfId="914" priority="1567" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45:N48">
-    <cfRule type="containsText" dxfId="893" priority="1560" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="913" priority="1560" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="1561" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="912" priority="1561" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="1562" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="911" priority="1562" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N45)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="1563" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="1563" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N39">
-    <cfRule type="containsText" dxfId="889" priority="1544" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="909" priority="1544" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="888" priority="1545" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="908" priority="1545" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="887" priority="1546" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="907" priority="1546" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="1547" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="1547" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="containsText" dxfId="885" priority="1532" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="905" priority="1532" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="884" priority="1533" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="904" priority="1533" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D44)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="1534" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="903" priority="1534" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D44)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="1535" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="1535" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:I49 F50:H50 G55:I55 E56:H57">
-    <cfRule type="containsText" dxfId="881" priority="1516" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="901" priority="1516" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="1517" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="900" priority="1517" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="1518" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="899" priority="1518" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1519" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="1519" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P49:XFD50">
-    <cfRule type="containsText" dxfId="877" priority="1508" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="897" priority="1508" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="876" priority="1509" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="896" priority="1509" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="875" priority="1510" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="895" priority="1510" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="1511" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="1511" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="873" priority="1503" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="893" priority="1503" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="872" priority="1499" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="892" priority="1499" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="1500" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="891" priority="1500" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="1501" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="890" priority="1501" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1502" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="1502" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F49">
-    <cfRule type="containsText" dxfId="868" priority="1495" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="888" priority="1495" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="1496" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="887" priority="1496" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="866" priority="1497" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="886" priority="1497" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="1498" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="1498" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="864" priority="1491" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="884" priority="1491" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="863" priority="1492" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="883" priority="1492" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="862" priority="1493" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="882" priority="1493" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1494" operator="equal">
+    <cfRule type="cellIs" dxfId="881" priority="1494" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="containsText" dxfId="860" priority="1483" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="880" priority="1483" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="1484" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="879" priority="1484" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="1485" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="878" priority="1485" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="1486" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="1486" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="856" priority="1479" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="876" priority="1479" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="1480" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="875" priority="1480" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="1481" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="874" priority="1481" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="853" priority="1482" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="1482" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="containsText" dxfId="852" priority="1471" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="872" priority="1471" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="851" priority="1472" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="871" priority="1472" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="1473" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="870" priority="1473" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="1474" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="1474" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49">
-    <cfRule type="containsText" dxfId="848" priority="1467" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="868" priority="1467" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="1468" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="867" priority="1468" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="1469" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="866" priority="1469" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D49)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="1470" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="1470" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="844" priority="1466" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="864" priority="1466" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="843" priority="1462" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="863" priority="1462" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="1463" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="862" priority="1463" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="1464" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="861" priority="1464" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="1465" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="1465" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="cellIs" dxfId="839" priority="1460" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="1460" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="1461" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="858" priority="1461" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="837" priority="1459" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="857" priority="1459" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="836" priority="1455" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="856" priority="1455" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="1456" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="855" priority="1456" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="1457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="854" priority="1457" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="1458" operator="equal">
+    <cfRule type="cellIs" dxfId="853" priority="1458" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="832" priority="1451" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="852" priority="1451" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="831" priority="1452" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="851" priority="1452" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="1453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="850" priority="1453" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="1454" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="1454" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="containsText" dxfId="828" priority="1447" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="848" priority="1447" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="827" priority="1448" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="847" priority="1448" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="1449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="846" priority="1449" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="825" priority="1450" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="1450" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P55:XFD56">
-    <cfRule type="containsText" dxfId="824" priority="1423" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="844" priority="1423" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="1424" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="843" priority="1424" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="822" priority="1425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="842" priority="1425" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="1426" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="1426" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57:XFD57">
-    <cfRule type="containsText" dxfId="820" priority="1419" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="840" priority="1419" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="1420" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="839" priority="1420" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="818" priority="1421" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="838" priority="1421" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="1422" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="1422" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="816" priority="1418" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="836" priority="1418" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="815" priority="1414" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="835" priority="1414" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="1415" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="834" priority="1415" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="1416" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="833" priority="1416" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="1417" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="1417" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55:F55">
-    <cfRule type="containsText" dxfId="811" priority="1410" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="831" priority="1410" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="1411" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="830" priority="1411" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="809" priority="1412" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="829" priority="1412" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="1413" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="1413" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="807" priority="1406" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="827" priority="1406" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="1407" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="826" priority="1407" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="805" priority="1408" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="825" priority="1408" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="1409" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="1409" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:B57">
-    <cfRule type="containsText" dxfId="803" priority="1402" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="823" priority="1402" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="1403" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="822" priority="1403" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="1404" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="821" priority="1404" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="1405" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="1405" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55">
-    <cfRule type="containsText" dxfId="799" priority="1398" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="819" priority="1398" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="1399" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="818" priority="1399" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="797" priority="1400" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="817" priority="1400" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="1401" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="1401" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56:D57">
-    <cfRule type="containsText" dxfId="795" priority="1394" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="815" priority="1394" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="794" priority="1395" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="814" priority="1395" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="1396" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="813" priority="1396" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="1397" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="1397" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="containsText" dxfId="791" priority="1390" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="811" priority="1390" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="1391" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="810" priority="1391" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="1392" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="809" priority="1392" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="1393" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="1393" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55">
-    <cfRule type="containsText" dxfId="787" priority="1386" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="807" priority="1386" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="786" priority="1387" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="806" priority="1387" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="785" priority="1388" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="805" priority="1388" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D55)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="1389" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="1389" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="783" priority="1385" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="803" priority="1385" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="782" priority="1381" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="802" priority="1381" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="1382" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="801" priority="1382" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="1383" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="800" priority="1383" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="1384" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="1384" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="cellIs" dxfId="778" priority="1379" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1379" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="1380" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="797" priority="1380" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="776" priority="1378" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="796" priority="1378" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="775" priority="1374" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="795" priority="1374" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="1375" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="794" priority="1375" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="773" priority="1376" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="793" priority="1376" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="1377" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1377" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="771" priority="1370" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="791" priority="1370" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="1371" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="790" priority="1371" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="1372" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="789" priority="1372" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="1373" operator="equal">
+    <cfRule type="cellIs" dxfId="788" priority="1373" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="containsText" dxfId="767" priority="1366" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="787" priority="1366" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="1367" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="786" priority="1367" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="1368" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="785" priority="1368" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="1369" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="1369" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="763" priority="1365" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="783" priority="1365" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="762" priority="1361" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="782" priority="1361" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="761" priority="1362" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="781" priority="1362" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="1363" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="780" priority="1363" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="1364" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="1364" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="cellIs" dxfId="758" priority="1359" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="1359" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="1360" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="777" priority="1360" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="756" priority="1358" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="776" priority="1358" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="755" priority="1354" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="775" priority="1354" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="1355" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="774" priority="1355" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="1356" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="773" priority="1356" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="1357" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="1357" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="751" priority="1350" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="771" priority="1350" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="1351" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="770" priority="1351" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="749" priority="1352" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="769" priority="1352" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="1353" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="1353" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="containsText" dxfId="747" priority="1346" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="767" priority="1346" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="746" priority="1347" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="766" priority="1347" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="745" priority="1348" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="765" priority="1348" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="1349" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="1349" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:I57">
-    <cfRule type="containsText" dxfId="743" priority="1338" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="763" priority="1338" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="1339" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="762" priority="1339" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="1340" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="761" priority="1340" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I56)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="1341" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="1341" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="containsText" dxfId="739" priority="1330" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="759" priority="1330" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="1331" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="758" priority="1331" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",O1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="1332" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="757" priority="1332" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",O1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="1333" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="1333" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40:XFD40">
-    <cfRule type="containsText" dxfId="735" priority="1215" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="755" priority="1215" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="734" priority="1216" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="754" priority="1216" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="1217" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="753" priority="1217" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="1218" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="1218" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="containsText" dxfId="731" priority="1211" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="751" priority="1211" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="730" priority="1212" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="750" priority="1212" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="1213" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="749" priority="1213" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="1214" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="1214" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="727" priority="1206" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="747" priority="1206" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="726" priority="1202" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="746" priority="1202" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="1203" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="745" priority="1203" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="1204" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="744" priority="1204" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="1205" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="1205" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="722" priority="1198" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="742" priority="1198" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="1199" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="741" priority="1199" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="1200" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="740" priority="1200" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="1201" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="1201" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="718" priority="1197" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="738" priority="1197" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="717" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="1195" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="716" priority="1196" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="736" priority="1196" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="715" priority="1194" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="735" priority="1194" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="714" priority="1186" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="734" priority="1186" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="1187" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="733" priority="1187" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="1188" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="732" priority="1188" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="1189" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="710" priority="1176" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="730" priority="1176" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="709" priority="1172" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="729" priority="1172" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="1173" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="728" priority="1173" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="1174" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="727" priority="1174" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="1175" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="705" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="1170" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="1171" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="724" priority="1171" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="containsText" dxfId="703" priority="1169" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="723" priority="1169" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="containsText" dxfId="702" priority="1168" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="722" priority="1168" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="containsText" dxfId="701" priority="1164" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="721" priority="1164" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="1165" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="720" priority="1165" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="1166" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="719" priority="1166" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="1167" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="cellIs" dxfId="697" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1162" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="1163" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="716" priority="1163" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="containsText" dxfId="695" priority="1161" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="715" priority="1161" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="containsText" dxfId="694" priority="1157" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="714" priority="1157" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="1158" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="713" priority="1158" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="1159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="712" priority="1159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="1160" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58:M58">
-    <cfRule type="containsText" dxfId="690" priority="1153" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="710" priority="1153" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="1154" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="709" priority="1154" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="1155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="708" priority="1155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="1156" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P61:XFD61">
-    <cfRule type="containsText" dxfId="686" priority="1145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="706" priority="1145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="1146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="705" priority="1146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="1147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="704" priority="1147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P61)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="1148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:F58">
-    <cfRule type="containsText" dxfId="682" priority="1136" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="702" priority="1136" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="1137" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="701" priority="1137" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="1138" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="700" priority="1138" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="1139" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="1139" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58">
-    <cfRule type="containsText" dxfId="678" priority="1116" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="698" priority="1116" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="1117" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="697" priority="1117" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="1118" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="696" priority="1118" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="1119" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="1119" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="containsText" dxfId="674" priority="1112" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="694" priority="1112" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="1113" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="693" priority="1113" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="1114" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="692" priority="1114" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="671" priority="1115" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="1115" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="containsText" dxfId="670" priority="1067" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="690" priority="1067" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="containsText" dxfId="669" priority="1063" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="689" priority="1063" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="1064" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="688" priority="1064" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="1065" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="687" priority="1065" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="1066" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="1066" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="containsText" dxfId="665" priority="1059" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="685" priority="1059" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="664" priority="1060" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="684" priority="1060" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="1061" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="683" priority="1061" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="1062" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="1062" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58">
-    <cfRule type="containsText" dxfId="661" priority="1055" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="681" priority="1055" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="1056" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="680" priority="1056" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="659" priority="1057" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="679" priority="1057" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B58)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="1058" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62:H63 J62:M63">
-    <cfRule type="containsText" dxfId="657" priority="1051" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="677" priority="1051" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="1052" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="676" priority="1052" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="1053" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="675" priority="1053" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F62)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="1054" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P62:XFD62">
-    <cfRule type="containsText" dxfId="653" priority="1047" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="673" priority="1047" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="1048" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="672" priority="1048" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="1049" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="671" priority="1049" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P62)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="1050" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="1050" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P63:XFD63">
-    <cfRule type="containsText" dxfId="649" priority="1043" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="669" priority="1043" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="1044" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="668" priority="1044" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="1045" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="667" priority="1045" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P63)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="1046" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="1046" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:H65 J64:M65">
-    <cfRule type="containsText" dxfId="645" priority="991" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="665" priority="991" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="644" priority="992" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="664" priority="992" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="643" priority="993" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="663" priority="993" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="994" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P64:XFD64">
-    <cfRule type="containsText" dxfId="641" priority="987" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="661" priority="987" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="640" priority="988" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="660" priority="988" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="639" priority="989" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="659" priority="989" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="990" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="990" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P65:XFD65">
-    <cfRule type="containsText" dxfId="637" priority="983" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="657" priority="983" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="636" priority="984" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="656" priority="984" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="635" priority="985" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="655" priority="985" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P65)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="986" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P54:XFD54">
-    <cfRule type="containsText" dxfId="633" priority="794" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="653" priority="794" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="795" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="652" priority="795" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P54)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="796" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="651" priority="796" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="797" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53:XFD53">
-    <cfRule type="containsText" dxfId="629" priority="790" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="649" priority="790" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="791" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="648" priority="791" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="792" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="647" priority="792" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P53)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="793" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52:XFD52">
-    <cfRule type="containsText" dxfId="625" priority="786" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="645" priority="786" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="624" priority="787" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="644" priority="787" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="788" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="643" priority="788" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P52)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="789" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51:XFD51">
-    <cfRule type="containsText" dxfId="621" priority="782" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="641" priority="782" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="783" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="640" priority="783" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="619" priority="784" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="639" priority="784" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P51)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="785" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="785" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="617" priority="701" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="637" priority="701" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="616" priority="697" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="636" priority="697" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="698" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="635" priority="698" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="614" priority="699" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="634" priority="699" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="700" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="cellIs" dxfId="612" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="695" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="696" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="631" priority="696" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="610" priority="694" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="630" priority="694" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="609" priority="690" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="629" priority="690" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="608" priority="691" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="628" priority="691" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="607" priority="692" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="627" priority="692" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="693" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="605" priority="686" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="625" priority="686" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="604" priority="687" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="624" priority="687" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="603" priority="688" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="623" priority="688" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="689" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N60:N65">
-    <cfRule type="containsText" dxfId="601" priority="682" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="621" priority="682" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="600" priority="683" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="620" priority="683" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="599" priority="684" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="619" priority="684" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N60)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="685" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="containsText" dxfId="597" priority="503" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="617" priority="503" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="cellIs" dxfId="596" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="501" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="595" priority="502" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="615" priority="502" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="containsText" dxfId="594" priority="500" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="614" priority="500" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:XFD59">
-    <cfRule type="containsText" dxfId="593" priority="496" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="613" priority="496" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="497" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="612" priority="497" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="498" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="611" priority="498" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="499" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="containsText" dxfId="589" priority="396" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="609" priority="396" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="397" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="608" priority="397" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="398" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="607" priority="398" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="399" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:XFD16 E13:E16 B13:B16">
-    <cfRule type="containsText" dxfId="585" priority="392" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="605" priority="392" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="584" priority="393" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="604" priority="393" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="394" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="603" priority="394" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="395" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="581" priority="367" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="601" priority="367" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C16">
-    <cfRule type="containsText" dxfId="580" priority="363" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="600" priority="363" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="579" priority="364" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="599" priority="364" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="365" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="598" priority="365" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="366" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:M24 E26:E29 F26:I27 L25:M27 E25:I25">
-    <cfRule type="containsText" dxfId="576" priority="319" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="596" priority="319" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="320" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="595" priority="320" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="574" priority="321" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="594" priority="321" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="573" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="322" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:XFD27">
-    <cfRule type="containsText" dxfId="572" priority="315" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="592" priority="315" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="316" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="591" priority="316" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="317" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="590" priority="317" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="318" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="318" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:F24">
-    <cfRule type="containsText" dxfId="568" priority="311" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="588" priority="311" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="312" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="587" priority="312" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="313" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="586" priority="313" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="314" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="containsText" dxfId="564" priority="307" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="584" priority="307" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="308" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="583" priority="308" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="309" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="582" priority="309" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="310" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="containsText" dxfId="560" priority="303" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="580" priority="303" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="559" priority="304" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="579" priority="304" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="558" priority="305" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="578" priority="305" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="306" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="556" priority="302" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="576" priority="302" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="555" priority="298" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="575" priority="298" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="554" priority="299" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="574" priority="299" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="300" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="573" priority="300" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="301" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="551" priority="294" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="571" priority="294" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="295" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="570" priority="295" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="296" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="569" priority="296" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="297" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="547" priority="290" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="567" priority="290" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="291" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="566" priority="291" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="292" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="565" priority="292" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="293" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:M28">
-    <cfRule type="containsText" dxfId="543" priority="286" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="563" priority="286" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="542" priority="287" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="562" priority="287" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="561" priority="288" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="289" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:XFD28">
-    <cfRule type="containsText" dxfId="539" priority="282" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="559" priority="282" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="283" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="558" priority="283" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="284" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="557" priority="284" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="285" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:M29">
-    <cfRule type="containsText" dxfId="535" priority="278" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="555" priority="278" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="279" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="554" priority="279" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="280" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="553" priority="280" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="281" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:XFD29">
-    <cfRule type="containsText" dxfId="531" priority="274" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="551" priority="274" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="275" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="550" priority="275" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="276" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="549" priority="276" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="277" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:M17 J18:M23 F18:H23">
-    <cfRule type="containsText" dxfId="527" priority="270" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="547" priority="270" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="271" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="546" priority="271" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="272" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="545" priority="272" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="273" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:XFD23">
-    <cfRule type="containsText" dxfId="523" priority="266" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="543" priority="266" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="267" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="542" priority="267" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="268" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="541" priority="268" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="269" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="containsText" dxfId="519" priority="262" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="539" priority="262" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="263" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="538" priority="263" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="264" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="537" priority="264" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="265" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B23">
-    <cfRule type="containsText" dxfId="515" priority="258" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="535" priority="258" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="259" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="534" priority="259" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="260" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="533" priority="260" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="261" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D23">
-    <cfRule type="containsText" dxfId="511" priority="254" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="531" priority="254" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="255" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="530" priority="255" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="256" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="529" priority="256" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="257" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="507" priority="250" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="527" priority="250" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="251" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="526" priority="251" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="252" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="525" priority="252" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="253" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsText" dxfId="503" priority="246" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="523" priority="246" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="247" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="522" priority="247" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="248" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="521" priority="248" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="249" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I23">
-    <cfRule type="containsText" dxfId="499" priority="242" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="519" priority="242" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="243" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="518" priority="243" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="244" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="517" priority="244" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="245" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="495" priority="241" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="515" priority="241" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="494" priority="237" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="514" priority="237" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="238" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="513" priority="238" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="492" priority="239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="512" priority="239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="240" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="490" priority="233" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="510" priority="233" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="234" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="509" priority="234" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="488" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="508" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="236" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="containsText" dxfId="486" priority="229" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="506" priority="229" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="230" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="505" priority="230" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="484" priority="231" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="504" priority="231" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="232" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="482" priority="228" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="502" priority="228" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="481" priority="224" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="501" priority="224" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="480" priority="225" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="500" priority="225" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="479" priority="226" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="499" priority="226" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="227" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="cellIs" dxfId="477" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="222" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="476" priority="223" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="496" priority="223" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="475" priority="221" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="495" priority="221" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="474" priority="217" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="494" priority="217" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="218" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="493" priority="218" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="472" priority="219" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="492" priority="219" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="220" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="470" priority="213" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="490" priority="213" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="214" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="489" priority="214" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="468" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="488" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="216" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="466" priority="209" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="486" priority="209" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="210" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="485" priority="210" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="464" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="484" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="212" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="462" priority="208" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="482" priority="208" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="461" priority="204" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="481" priority="204" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="460" priority="205" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="480" priority="205" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="459" priority="206" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="479" priority="206" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="207" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="cellIs" dxfId="457" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="202" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="456" priority="203" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="476" priority="203" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="455" priority="201" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="475" priority="201" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="454" priority="200" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="474" priority="200" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="453" priority="196" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="473" priority="196" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="452" priority="197" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="472" priority="197" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="451" priority="198" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="471" priority="198" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="199" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="cellIs" dxfId="449" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="194" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="448" priority="195" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="468" priority="195" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="447" priority="193" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="467" priority="193" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="446" priority="192" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="466" priority="192" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="445" priority="188" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="465" priority="188" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="444" priority="189" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="464" priority="189" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="443" priority="190" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="463" priority="190" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="191" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="cellIs" dxfId="441" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="186" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="440" priority="187" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="460" priority="187" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="439" priority="185" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="459" priority="185" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="containsText" dxfId="438" priority="184" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="458" priority="184" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="containsText" dxfId="437" priority="180" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="457" priority="180" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="436" priority="181" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="456" priority="181" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="435" priority="182" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="455" priority="182" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="183" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="cellIs" dxfId="433" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="178" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="432" priority="179" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="452" priority="179" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="containsText" dxfId="431" priority="177" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="451" priority="177" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="containsText" dxfId="430" priority="173" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="450" priority="173" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="174" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="449" priority="174" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="428" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="448" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="176" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="426" priority="169" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="446" priority="169" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="170" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="445" priority="170" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="424" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="444" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="172" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="422" priority="165" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="442" priority="165" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="166" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="441" priority="166" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="420" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="440" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="419" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="168" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="containsText" dxfId="418" priority="161" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="438" priority="161" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="162" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="437" priority="162" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="416" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="436" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="164" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="containsText" dxfId="414" priority="157" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="434" priority="157" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="158" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="433" priority="158" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="412" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="432" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="160" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="410" priority="156" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="430" priority="156" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="409" priority="152" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="429" priority="152" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="408" priority="153" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="428" priority="153" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="407" priority="154" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="427" priority="154" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="155" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="cellIs" dxfId="405" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="150" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="404" priority="151" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="424" priority="151" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="containsText" dxfId="403" priority="149" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="423" priority="149" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="containsText" dxfId="402" priority="145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="422" priority="145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="421" priority="146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="400" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="420" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K29">
-    <cfRule type="containsText" dxfId="398" priority="141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="418" priority="141" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="417" priority="142" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="396" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="416" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="144" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26:K27">
-    <cfRule type="containsText" dxfId="394" priority="137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="414" priority="137" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="413" priority="138" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="392" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="412" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="391" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="140" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I29">
-    <cfRule type="containsText" dxfId="390" priority="133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="410" priority="133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",I25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="409" priority="134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",I25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="388" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="408" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",I25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="containsText" dxfId="386" priority="129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="406" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="405" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="404" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:K25">
-    <cfRule type="containsText" dxfId="382" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="402" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="401" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",J25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="400" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",J25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:XFD11">
-    <cfRule type="containsText" dxfId="378" priority="121" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="398" priority="121" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="122" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="397" priority="122" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="396" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="124" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:XFD10">
-    <cfRule type="containsText" dxfId="374" priority="117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="394" priority="117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="393" priority="118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="392" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8 B9:B11">
-    <cfRule type="containsText" dxfId="370" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="390" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="389" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="388" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8 B9:B11">
-    <cfRule type="containsText" dxfId="366" priority="112" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="386" priority="112" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8 B9:B11">
-    <cfRule type="cellIs" dxfId="365" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="110" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="111" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="384" priority="111" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:H8 B9:B11">
-    <cfRule type="containsText" dxfId="363" priority="109" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="383" priority="109" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="containsText" dxfId="362" priority="107" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="382" priority="107" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="containsText" dxfId="361" priority="103" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="381" priority="103" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="104" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="380" priority="104" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="105" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="379" priority="105" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="106" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="cellIs" dxfId="357" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="101" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="102" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="376" priority="102" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="containsText" dxfId="355" priority="100" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="375" priority="100" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",E8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:G11">
-    <cfRule type="containsText" dxfId="354" priority="92" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="374" priority="92" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="93" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="373" priority="93" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="94" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="372" priority="94" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="95" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H11">
-    <cfRule type="containsText" dxfId="350" priority="88" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="370" priority="88" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="89" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="369" priority="89" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="90" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="368" priority="90" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",H9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="91" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="346" priority="87" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="366" priority="87" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="345" priority="83" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="365" priority="83" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="84" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="364" priority="84" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="85" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="363" priority="85" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="86" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="341" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="81" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="82" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="360" priority="82" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="339" priority="80" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="359" priority="80" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C11">
-    <cfRule type="containsText" dxfId="338" priority="76" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="358" priority="76" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="77" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="357" priority="77" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="78" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="356" priority="78" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="79" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D11">
-    <cfRule type="containsText" dxfId="334" priority="72" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="354" priority="72" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="73" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="353" priority="73" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="74" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="352" priority="74" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="75" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="330" priority="71" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="350" priority="71" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="329" priority="67" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="349" priority="67" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="68" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="348" priority="68" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="327" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="347" priority="69" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="70" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="325" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="65" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="324" priority="66" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="344" priority="66" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="323" priority="64" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="343" priority="64" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="322" priority="60" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="342" priority="60" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="61" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="341" priority="61" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="340" priority="62" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="63" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N11">
-    <cfRule type="containsText" dxfId="318" priority="59" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="338" priority="59" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N11">
-    <cfRule type="containsText" dxfId="317" priority="55" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="337" priority="55" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="56" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="336" priority="56" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="335" priority="57" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="58" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N11">
-    <cfRule type="cellIs" dxfId="313" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="53" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="312" priority="54" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="332" priority="54" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N11">
-    <cfRule type="containsText" dxfId="311" priority="52" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="331" priority="52" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="310" priority="51" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="330" priority="51" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:XFD2">
-    <cfRule type="containsText" dxfId="309" priority="47" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="329" priority="47" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="48" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="328" priority="48" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="49" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="327" priority="49" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",P2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="50" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:F2">
-    <cfRule type="containsText" dxfId="305" priority="43" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="325" priority="43" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="304" priority="44" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="324" priority="44" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="45" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="323" priority="45" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="46" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="301" priority="42" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="321" priority="42" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="300" priority="38" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="320" priority="38" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="39" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="319" priority="39" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="318" priority="40" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="41" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="296" priority="34" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="316" priority="34" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="35" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="315" priority="35" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="314" priority="36" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="37" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="292" priority="30" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="312" priority="30" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="31" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="311" priority="31" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="32" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="310" priority="32" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="33" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="288" priority="26" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="308" priority="26" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="287" priority="27" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="307" priority="27" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="28" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="306" priority="28" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="29" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="284" priority="25" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="304" priority="25" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="283" priority="21" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="303" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="22" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="302" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="301" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C3)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="279" priority="20" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="299" priority="20" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="278" priority="16" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="298" priority="16" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="17" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="297" priority="17" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="18" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="296" priority="18" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="19" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="274" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="14" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="15" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="293" priority="15" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="272" priority="13" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="292" priority="13" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="271" priority="12" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="291" priority="12" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="270" priority="8" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="290" priority="8" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="9" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="289" priority="9" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="10" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="288" priority="10" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",N2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="11" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="cellIs" dxfId="266" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="6" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="7" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="285" priority="7" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="containsText" dxfId="264" priority="5" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="284" priority="5" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="263" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="283" priority="1" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="282" priority="2" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="281" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35375,7 +35745,7 @@
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -36259,7 +36629,33 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31"/>
+      <c r="A31" s="4">
+        <v>23</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32"/>
@@ -37842,902 +38238,944 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A558:A1048576">
-    <cfRule type="containsText" dxfId="259" priority="517" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="279" priority="529" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A558)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="518" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="278" priority="530" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A558)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="519" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="277" priority="531" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A558)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="520" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="532" operator="equal">
       <formula>"ClaNula"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A558:A1048576 B1:I1">
-    <cfRule type="containsText" dxfId="255" priority="516" operator="containsText" text="Prop_">
+    <cfRule type="containsText" dxfId="275" priority="528" operator="containsText" text="Prop_">
       <formula>NOT(ISERROR(SEARCH("Prop_",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 J4:XFD4 F6 A1:XFD1 J6:XFD6 B2:C11 A2:A30">
-    <cfRule type="containsText" dxfId="254" priority="512" operator="containsText" text="_">
+  <conditionalFormatting sqref="D6:E7 D7:F7 D2:F5 J4:XFD4 F6 A1:XFD1 J6:XFD6 B2:C11 A2:A31">
+    <cfRule type="containsText" dxfId="274" priority="524" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="513" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="273" priority="525" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="514" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="272" priority="526" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="251" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="527" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="cellIs" dxfId="250" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="522" operator="equal">
       <formula>"sem"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="511" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="269" priority="523" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="containsText" dxfId="248" priority="509" operator="containsText" text="ymmetric">
+    <cfRule type="containsText" dxfId="268" priority="521" operator="containsText" text="ymmetric">
       <formula>NOT(ISERROR(SEARCH("ymmetric",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:F8">
-    <cfRule type="containsText" dxfId="247" priority="353" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="267" priority="365" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="354" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="266" priority="366" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="355" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="265" priority="367" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D8)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="368" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9">
-    <cfRule type="containsText" dxfId="243" priority="337" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="263" priority="349" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="338" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="262" priority="350" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="339" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="261" priority="351" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="352" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9 D10:F10">
-    <cfRule type="containsText" dxfId="239" priority="333" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="259" priority="345" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="334" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="258" priority="346" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="335" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="257" priority="347" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="348" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F11">
-    <cfRule type="containsText" dxfId="235" priority="329" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="255" priority="341" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="330" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="254" priority="342" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="331" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="253" priority="343" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="344" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:I11">
-    <cfRule type="containsText" dxfId="231" priority="293" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="251" priority="305" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="294" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="250" priority="306" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="249" priority="307" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="308" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:C13">
-    <cfRule type="containsText" dxfId="227" priority="289" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="247" priority="301" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="290" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="246" priority="302" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="245" priority="303" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="304" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:F13 F14:F15">
-    <cfRule type="containsText" dxfId="223" priority="285" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="243" priority="297" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="286" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="242" priority="298" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="287" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="241" priority="299" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="300" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:I13">
-    <cfRule type="containsText" dxfId="219" priority="281" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="239" priority="293" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="282" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="238" priority="294" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="283" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="237" priority="295" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G13)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="296" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:C14">
-    <cfRule type="containsText" dxfId="215" priority="277" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="235" priority="289" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="278" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="234" priority="290" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="279" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="233" priority="291" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="292" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="containsText" dxfId="211" priority="273" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="231" priority="285" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="274" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="230" priority="286" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="275" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="229" priority="287" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="288" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:I14">
-    <cfRule type="containsText" dxfId="207" priority="269" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="227" priority="281" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="270" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="226" priority="282" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="271" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="225" priority="283" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G14)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="284" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:C15">
-    <cfRule type="containsText" dxfId="203" priority="253" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="223" priority="265" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="254" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="222" priority="266" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="221" priority="267" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="268" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="containsText" dxfId="199" priority="249" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="219" priority="261" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="250" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="218" priority="262" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="251" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="217" priority="263" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="264" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:I15">
-    <cfRule type="containsText" dxfId="195" priority="245" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="215" priority="257" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="246" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="214" priority="258" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="247" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="213" priority="259" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G15)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="260" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="containsText" dxfId="191" priority="241" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="211" priority="253" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="242" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="210" priority="254" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="243" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="209" priority="255" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="256" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:F12">
-    <cfRule type="containsText" dxfId="187" priority="237" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="207" priority="249" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="238" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="206" priority="250" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="239" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="205" priority="251" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="252" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:I12">
-    <cfRule type="containsText" dxfId="183" priority="233" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="203" priority="245" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="234" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="202" priority="246" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="235" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="201" priority="247" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G12)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="248" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C16">
-    <cfRule type="containsText" dxfId="179" priority="217" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="199" priority="229" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="218" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="198" priority="230" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="219" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="197" priority="231" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="232" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="containsText" dxfId="175" priority="213" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="195" priority="225" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="214" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="194" priority="226" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="193" priority="227" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="228" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:I16">
-    <cfRule type="containsText" dxfId="171" priority="209" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="191" priority="221" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="210" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="190" priority="222" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="189" priority="223" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="224" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F30">
-    <cfRule type="containsText" dxfId="167" priority="201" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="187" priority="213" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="202" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="186" priority="214" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="203" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="185" priority="215" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F16)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="216" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="containsText" dxfId="163" priority="197" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="183" priority="209" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="198" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="182" priority="210" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="199" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="181" priority="211" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:E18">
-    <cfRule type="containsText" dxfId="159" priority="193" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="179" priority="205" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="194" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="178" priority="206" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="195" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="177" priority="207" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="208" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:I18">
-    <cfRule type="containsText" dxfId="155" priority="189" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="175" priority="201" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="190" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="174" priority="202" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="173" priority="203" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="204" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="containsText" dxfId="151" priority="185" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="171" priority="197" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="186" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="170" priority="198" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="169" priority="199" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="200" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:E19">
-    <cfRule type="containsText" dxfId="147" priority="181" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="167" priority="193" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="182" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="166" priority="194" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="165" priority="195" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="196" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:I19">
-    <cfRule type="containsText" dxfId="143" priority="177" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="163" priority="189" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="178" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="162" priority="190" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="161" priority="191" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="192" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:C20">
-    <cfRule type="containsText" dxfId="139" priority="173" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="159" priority="185" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="174" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="158" priority="186" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="157" priority="187" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="188" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:E20">
-    <cfRule type="containsText" dxfId="135" priority="169" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="155" priority="181" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="170" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="154" priority="182" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="153" priority="183" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="184" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:I20">
-    <cfRule type="containsText" dxfId="131" priority="165" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="151" priority="177" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="166" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="150" priority="178" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="149" priority="179" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G20)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="180" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="containsText" dxfId="127" priority="161" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="147" priority="173" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="162" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="146" priority="174" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="145" priority="175" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="176" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:E21">
-    <cfRule type="containsText" dxfId="123" priority="157" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="143" priority="169" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="158" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="142" priority="170" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="141" priority="171" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="172" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:I21">
-    <cfRule type="containsText" dxfId="119" priority="153" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="139" priority="165" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="154" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="138" priority="166" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="137" priority="167" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G21)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="168" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="115" priority="149" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="135" priority="161" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="150" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="134" priority="162" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="151" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="133" priority="163" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="164" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E24">
-    <cfRule type="containsText" dxfId="111" priority="145" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="131" priority="157" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="146" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="130" priority="158" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="129" priority="159" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="160" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:I24">
-    <cfRule type="containsText" dxfId="107" priority="141" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="127" priority="153" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="142" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="126" priority="154" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="125" priority="155" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G24)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="156" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="103" priority="137" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="123" priority="149" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="138" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="122" priority="150" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="121" priority="151" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:E25">
-    <cfRule type="containsText" dxfId="99" priority="133" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="119" priority="145" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="134" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="118" priority="146" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="117" priority="147" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="148" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25:I25">
-    <cfRule type="containsText" dxfId="95" priority="129" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="115" priority="141" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="130" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="114" priority="142" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="113" priority="143" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G25)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="144" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="containsText" dxfId="91" priority="125" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="111" priority="137" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="126" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="110" priority="138" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="109" priority="139" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="140" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="containsText" dxfId="87" priority="121" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="107" priority="133" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="122" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="106" priority="134" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="105" priority="135" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="136" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:I26">
-    <cfRule type="containsText" dxfId="83" priority="117" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="103" priority="129" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="118" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="102" priority="130" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="101" priority="131" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G26)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="132" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="79" priority="113" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="99" priority="125" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="114" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="98" priority="126" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="97" priority="127" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="128" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="containsText" dxfId="75" priority="109" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="95" priority="121" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="110" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="94" priority="122" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="93" priority="123" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="124" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:I27">
-    <cfRule type="containsText" dxfId="71" priority="105" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="91" priority="117" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="106" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="90" priority="118" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="89" priority="119" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="120" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:C23 B22 B24:B30">
-    <cfRule type="containsText" dxfId="67" priority="101" operator="containsText" text="_">
+  <conditionalFormatting sqref="B23:C23 B22 B24:B31">
+    <cfRule type="containsText" dxfId="87" priority="113" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="102" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="86" priority="114" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="85" priority="115" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="116" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23">
-    <cfRule type="containsText" dxfId="63" priority="97" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="83" priority="109" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="98" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="82" priority="110" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="81" priority="111" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="112" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23:I23">
-    <cfRule type="containsText" dxfId="59" priority="93" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="79" priority="105" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="94" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="78" priority="106" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="77" priority="107" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G23)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="108" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="containsText" dxfId="55" priority="89" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="75" priority="101" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="90" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="74" priority="102" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",B17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="73" priority="103" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",B17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="104" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="containsText" dxfId="51" priority="85" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="71" priority="97" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="86" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="70" priority="98" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="69" priority="99" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="100" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:I17">
-    <cfRule type="containsText" dxfId="47" priority="81" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="67" priority="93" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="82" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="66" priority="94" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="65" priority="95" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G17)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="96" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="63" priority="89" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="78" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="62" priority="90" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="79" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="61" priority="91" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="92" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="59" priority="85" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="74" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="58" priority="86" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="57" priority="87" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:I22">
-    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="55" priority="81" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="70" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="54" priority="82" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="53" priority="83" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="84" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="containsText" dxfId="31" priority="61" operator="containsText" text="_">
+  <conditionalFormatting sqref="E30:E31">
+    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="62" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="63" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="49" priority="75" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="76" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:I30">
-    <cfRule type="containsText" dxfId="27" priority="57" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="58" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="46" priority="70" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="59" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="45" priority="71" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G30)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="72" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="43" priority="29" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="42" priority="30" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",E29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="41" priority="31" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",E29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:I29">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="39" priority="25" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="38" priority="26" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="37" priority="27" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C30">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="_">
+  <conditionalFormatting sqref="C28:C31">
+    <cfRule type="containsText" dxfId="35" priority="21" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="34" priority="22" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",C28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28 D29:D30">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",D28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:I28">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="_">
+    <cfRule type="containsText" dxfId="27" priority="13" operator="containsText" text="_">
       <formula>NOT(ISERROR(SEARCH("_",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Functional">
+    <cfRule type="containsText" dxfId="26" priority="14" operator="containsText" text="Functional">
       <formula>NOT(ISERROR(SEARCH("Functional",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+    <cfRule type="containsText" dxfId="25" priority="15" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
       <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G28)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31:I31">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",G31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",G31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",G31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",D31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",D31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+      <formula>"VNulo"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="_">
+      <formula>NOT(ISERROR(SEARCH("_",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Functional">
+      <formula>NOT(ISERROR(SEARCH("Functional",F31)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Funcional Transitive Symmetric Reflexive">
+      <formula>NOT(ISERROR(SEARCH("Funcional Transitive Symmetric Reflexive",F31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"VNulo"</formula>
     </cfRule>
   </conditionalFormatting>
